--- a/results/train/DeepBench_NV_TitanXp.xlsx
+++ b/results/train/DeepBench_NV_TitanXp.xlsx
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">K </t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>pad_h</t>
@@ -231,6 +225,12 @@
   <si>
     <t>Hidden units</t>
   </si>
+  <si>
+    <t>R (Filter height)</t>
+  </si>
+  <si>
+    <t>S (Filter width)</t>
+  </si>
 </sst>
 </file>
 
@@ -307,8 +307,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -332,9 +350,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,7 +649,7 @@
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -635,10 +671,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4866,52 +4902,52 @@
         <v>14</v>
       </c>
       <c r="H174" t="s">
+        <v>68</v>
+      </c>
+      <c r="I174" t="s">
+        <v>67</v>
+      </c>
+      <c r="J174" t="s">
+        <v>16</v>
+      </c>
+      <c r="K174" t="s">
         <v>15</v>
       </c>
-      <c r="I174" t="s">
-        <v>16</v>
-      </c>
-      <c r="J174" t="s">
+      <c r="L174" t="s">
+        <v>18</v>
+      </c>
+      <c r="M174" t="s">
         <v>17</v>
       </c>
-      <c r="K174" t="s">
-        <v>18</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="N174" t="s">
         <v>19</v>
       </c>
-      <c r="M174" t="s">
+      <c r="O174" t="s">
         <v>20</v>
       </c>
-      <c r="N174" t="s">
+      <c r="P174" t="s">
         <v>21</v>
       </c>
-      <c r="O174" t="s">
+      <c r="R174" t="s">
         <v>22</v>
       </c>
-      <c r="P174" t="s">
+      <c r="S174" t="s">
         <v>23</v>
       </c>
-      <c r="R174" t="s">
+      <c r="T174" t="s">
         <v>24</v>
       </c>
-      <c r="S174" t="s">
+      <c r="U174" t="s">
         <v>25</v>
       </c>
-      <c r="T174" t="s">
+      <c r="V174" t="s">
         <v>26</v>
       </c>
-      <c r="U174" t="s">
+      <c r="W174" t="s">
         <v>27</v>
       </c>
-      <c r="V174" t="s">
+      <c r="X174" t="s">
         <v>28</v>
-      </c>
-      <c r="W174" t="s">
-        <v>29</v>
-      </c>
-      <c r="X174" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:31">
@@ -4931,10 +4967,10 @@
         <v>32</v>
       </c>
       <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175">
         <v>5</v>
-      </c>
-      <c r="I175">
-        <v>20</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -4956,11 +4992,11 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="R175" s="5">
-        <f t="shared" ref="R175:R238" si="10">(D175-H175+1+2*J175)/L175</f>
+        <f>(D175-I175+1+2*K175)/M175</f>
         <v>78.5</v>
       </c>
       <c r="S175" s="5">
-        <f t="shared" ref="S175:S238" si="11">(C175-I175+1+2*K175)/M175</f>
+        <f>(C175-H175+1+2*J175)/L175</f>
         <v>340.5</v>
       </c>
       <c r="T175" s="1">
@@ -4968,18 +5004,18 @@
         <v>0.36899999999999999</v>
       </c>
       <c r="U175" s="1">
-        <f t="shared" ref="U175:V210" si="12">(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(N175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
         <v>5.4741504000000001</v>
       </c>
       <c r="V175" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W175" s="1">
-        <f t="shared" ref="W175:W238" si="13">(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(P175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>2.8043803278688526</v>
       </c>
       <c r="X175" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA175" s="1"/>
       <c r="AE175" s="1"/>
@@ -5001,10 +5037,10 @@
         <v>32</v>
       </c>
       <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
         <v>5</v>
-      </c>
-      <c r="I176">
-        <v>20</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -5026,11 +5062,11 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="R176" s="5">
-        <f t="shared" si="10"/>
+        <f>(D176-I176+1+2*K176)/M176</f>
         <v>78.5</v>
       </c>
       <c r="S176" s="5">
-        <f t="shared" si="11"/>
+        <f>(C176-H176+1+2*J176)/L176</f>
         <v>340.5</v>
       </c>
       <c r="T176" s="1">
@@ -5038,18 +5074,18 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="U176" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
         <v>6.4859601895734595</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W176" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
         <v>2.9686281995661603</v>
       </c>
       <c r="X176" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA176" s="1"/>
       <c r="AE176" s="1"/>
@@ -5071,10 +5107,10 @@
         <v>32</v>
       </c>
       <c r="H177">
+        <v>20</v>
+      </c>
+      <c r="I177">
         <v>5</v>
-      </c>
-      <c r="I177">
-        <v>20</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -5096,11 +5132,11 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="R177" s="5">
-        <f t="shared" si="10"/>
+        <f>(D177-I177+1+2*K177)/M177</f>
         <v>78.5</v>
       </c>
       <c r="S177" s="5">
-        <f t="shared" si="11"/>
+        <f>(C177-H177+1+2*J177)/L177</f>
         <v>340.5</v>
       </c>
       <c r="T177" s="1">
@@ -5108,18 +5144,18 @@
         <v>1.256</v>
       </c>
       <c r="U177" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
         <v>6.6595503649635033</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W177" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
         <v>3.2391422485207104</v>
       </c>
       <c r="X177" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA177" s="1"/>
       <c r="AE177" s="1"/>
@@ -5141,10 +5177,10 @@
         <v>32</v>
       </c>
       <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178">
         <v>5</v>
-      </c>
-      <c r="I178">
-        <v>20</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -5166,11 +5202,11 @@
         <v>1.6460000000000001</v>
       </c>
       <c r="R178" s="5">
-        <f t="shared" si="10"/>
+        <f>(D178-I178+1+2*K178)/M178</f>
         <v>78.5</v>
       </c>
       <c r="S178" s="5">
-        <f t="shared" si="11"/>
+        <f>(C178-H178+1+2*J178)/L178</f>
         <v>340.5</v>
       </c>
       <c r="T178" s="1">
@@ -5178,18 +5214,18 @@
         <v>2.4640000000000004</v>
       </c>
       <c r="U178" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
         <v>6.6921154034229824</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W178" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
         <v>3.3257292831105709</v>
       </c>
       <c r="X178" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA178" s="1"/>
       <c r="AE178" s="1"/>
@@ -5211,10 +5247,10 @@
         <v>32</v>
       </c>
       <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
         <v>5</v>
-      </c>
-      <c r="I179">
-        <v>10</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -5238,11 +5274,11 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="R179" s="5">
-        <f t="shared" si="10"/>
+        <f>(D179-I179+1+2*K179)/M179</f>
         <v>37.5</v>
       </c>
       <c r="S179" s="5">
-        <f t="shared" si="11"/>
+        <f>(C179-H179+1+2*J179)/L179</f>
         <v>166</v>
       </c>
       <c r="T179" s="1">
@@ -5250,19 +5286,19 @@
         <v>2.1549999999999998</v>
       </c>
       <c r="U179" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
         <v>6.5715463917525767</v>
       </c>
       <c r="V179" s="1">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$H179*$I179)/(O179/1000)/10^12</f>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
         <v>1.9042270351008215</v>
       </c>
       <c r="W179" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
         <v>5.9573831775700938</v>
       </c>
       <c r="X179" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA179" s="1"/>
       <c r="AE179" s="1"/>
@@ -5284,10 +5320,10 @@
         <v>32</v>
       </c>
       <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
         <v>5</v>
-      </c>
-      <c r="I180">
-        <v>10</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -5311,11 +5347,11 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="R180" s="5">
-        <f t="shared" si="10"/>
+        <f>(D180-I180+1+2*K180)/M180</f>
         <v>37.5</v>
       </c>
       <c r="S180" s="5">
-        <f t="shared" si="11"/>
+        <f>(C180-H180+1+2*J180)/L180</f>
         <v>166</v>
       </c>
       <c r="T180" s="1">
@@ -5323,19 +5359,19 @@
         <v>4.1879999999999997</v>
       </c>
       <c r="U180" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
         <v>7.5660534124629084</v>
       </c>
       <c r="V180" s="1">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$H180*$I180)/(O180/1000)/10^12</f>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
         <v>1.9113643178410793</v>
       </c>
       <c r="W180" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
         <v>6.0278014184397168</v>
       </c>
       <c r="X180" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA180" s="1"/>
       <c r="AE180" s="1"/>
@@ -5357,10 +5393,10 @@
         <v>32</v>
       </c>
       <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
         <v>5</v>
-      </c>
-      <c r="I181">
-        <v>10</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -5384,11 +5420,11 @@
         <v>1.6580000000000001</v>
       </c>
       <c r="R181" s="5">
-        <f t="shared" si="10"/>
+        <f>(D181-I181+1+2*K181)/M181</f>
         <v>37.5</v>
       </c>
       <c r="S181" s="5">
-        <f t="shared" si="11"/>
+        <f>(C181-H181+1+2*J181)/L181</f>
         <v>166</v>
       </c>
       <c r="T181" s="1">
@@ -5396,19 +5432,19 @@
         <v>8.27</v>
       </c>
       <c r="U181" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
         <v>7.7974311926605502</v>
       </c>
       <c r="V181" s="1">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$H181*$I181)/(O181/1000)/10^12</f>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
         <v>1.9228959276018098</v>
       </c>
       <c r="W181" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
         <v>6.1514113389626042</v>
       </c>
       <c r="X181" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA181" s="1"/>
       <c r="AE181" s="1"/>
@@ -5430,10 +5466,10 @@
         <v>32</v>
       </c>
       <c r="H182">
+        <v>10</v>
+      </c>
+      <c r="I182">
         <v>5</v>
-      </c>
-      <c r="I182">
-        <v>10</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -5457,11 +5493,11 @@
         <v>3.282</v>
       </c>
       <c r="R182" s="5">
-        <f t="shared" si="10"/>
+        <f>(D182-I182+1+2*K182)/M182</f>
         <v>37.5</v>
       </c>
       <c r="S182" s="5">
-        <f t="shared" si="11"/>
+        <f>(C182-H182+1+2*J182)/L182</f>
         <v>166</v>
       </c>
       <c r="T182" s="1">
@@ -5469,19 +5505,19 @@
         <v>16.472000000000001</v>
       </c>
       <c r="U182" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
         <v>8.1299641291351126</v>
       </c>
       <c r="V182" s="1">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$H182*$I182)/(O182/1000)/10^12</f>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
         <v>1.9097537683737476</v>
       </c>
       <c r="W182" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
         <v>6.2151371115173673</v>
       </c>
       <c r="X182" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA182" s="1"/>
       <c r="AE182" s="1"/>
@@ -5528,11 +5564,11 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="R183" s="5">
-        <f t="shared" si="10"/>
+        <f>(D183-I183+1+2*K183)/M183</f>
         <v>48</v>
       </c>
       <c r="S183" s="5">
-        <f t="shared" si="11"/>
+        <f>(C183-H183+1+2*J183)/L183</f>
         <v>480</v>
       </c>
       <c r="T183" s="1">
@@ -5540,18 +5576,18 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="U183" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
         <v>0.9232027826086957</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W183" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
         <v>0.28850086956521742</v>
       </c>
       <c r="X183" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA183" s="1"/>
       <c r="AE183" s="1"/>
@@ -5600,11 +5636,11 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="R184" s="5">
-        <f t="shared" si="10"/>
+        <f>(D184-I184+1+2*K184)/M184</f>
         <v>24</v>
       </c>
       <c r="S184" s="5">
-        <f t="shared" si="11"/>
+        <f>(C184-H184+1+2*J184)/L184</f>
         <v>240</v>
       </c>
       <c r="T184" s="1">
@@ -5612,19 +5648,19 @@
         <v>0.63000000000000012</v>
       </c>
       <c r="U184" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
         <v>6.1996099270072982</v>
       </c>
       <c r="V184" s="1">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$H184*$I184)/(O184/1000)/10^12</f>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(O184/1000)/10^12</f>
         <v>5.479655225806451</v>
       </c>
       <c r="W184" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
         <v>2.5128596449704141</v>
       </c>
       <c r="X184" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA184" s="1"/>
       <c r="AE184" s="1"/>
@@ -5673,11 +5709,11 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="R185" s="5">
-        <f t="shared" si="10"/>
+        <f>(D185-I185+1+2*K185)/M185</f>
         <v>12</v>
       </c>
       <c r="S185" s="5">
-        <f t="shared" si="11"/>
+        <f>(C185-H185+1+2*J185)/L185</f>
         <v>120</v>
       </c>
       <c r="T185" s="1">
@@ -5685,19 +5721,19 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="U185" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
         <v>8.756150103092784</v>
       </c>
       <c r="V185" s="1">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$H185*$I185)/(O185/1000)/10^12</f>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(O185/1000)/10^12</f>
         <v>10.616832</v>
       </c>
       <c r="W185" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
         <v>3.4809285245901642</v>
       </c>
       <c r="X185" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA185" s="1"/>
       <c r="AE185" s="1"/>
@@ -5746,11 +5782,11 @@
         <v>0.129</v>
       </c>
       <c r="R186" s="5">
-        <f t="shared" si="10"/>
+        <f>(D186-I186+1+2*K186)/M186</f>
         <v>6</v>
       </c>
       <c r="S186" s="5">
-        <f t="shared" si="11"/>
+        <f>(C186-H186+1+2*J186)/L186</f>
         <v>60</v>
       </c>
       <c r="T186" s="1">
@@ -5758,19 +5794,19 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="U186" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
         <v>10.751222278481015</v>
       </c>
       <c r="V186" s="1">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$H186*$I186)/(O186/1000)/10^12</f>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(O186/1000)/10^12</f>
         <v>11.796480000000001</v>
       </c>
       <c r="W186" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
         <v>6.5840818604651172</v>
       </c>
       <c r="X186" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA186" s="1"/>
       <c r="AE186" s="1"/>
@@ -5817,11 +5853,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="R187" s="5">
-        <f t="shared" si="10"/>
+        <f>(D187-I187+1+2*K187)/M187</f>
         <v>54</v>
       </c>
       <c r="S187" s="5">
-        <f t="shared" si="11"/>
+        <f>(C187-H187+1+2*J187)/L187</f>
         <v>54</v>
       </c>
       <c r="T187" s="1">
@@ -5829,18 +5865,18 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="U187" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
         <v>2.2394880000000001</v>
       </c>
       <c r="V187" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W187" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
         <v>0.82266906122448979</v>
       </c>
       <c r="X187" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA187" s="1"/>
       <c r="AE187" s="1"/>
@@ -5889,11 +5925,11 @@
         <v>0.312</v>
       </c>
       <c r="R188" s="5">
-        <f t="shared" si="10"/>
+        <f>(D188-I188+1+2*K188)/M188</f>
         <v>54</v>
       </c>
       <c r="S188" s="5">
-        <f t="shared" si="11"/>
+        <f>(C188-H188+1+2*J188)/L188</f>
         <v>54</v>
       </c>
       <c r="T188" s="1">
@@ -5901,19 +5937,19 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="U188" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
         <v>10.68277505590062</v>
       </c>
       <c r="V188" s="1">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$H188*$I188)/(O188/1000)/10^12</f>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(O188/1000)/10^12</f>
         <v>10.616832</v>
       </c>
       <c r="W188" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
         <v>5.5125858461538471</v>
       </c>
       <c r="X188" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA188" s="1"/>
       <c r="AE188" s="1"/>
@@ -5962,11 +5998,11 @@
         <v>0.156</v>
       </c>
       <c r="R189" s="5">
-        <f t="shared" si="10"/>
+        <f>(D189-I189+1+2*K189)/M189</f>
         <v>27</v>
       </c>
       <c r="S189" s="5">
-        <f t="shared" si="11"/>
+        <f>(C189-H189+1+2*J189)/L189</f>
         <v>27</v>
       </c>
       <c r="T189" s="1">
@@ -5974,19 +6010,19 @@
         <v>0.43400000000000005</v>
       </c>
       <c r="U189" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
         <v>12.463237565217389</v>
       </c>
       <c r="V189" s="1">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$H189*$I189)/(O189/1000)/10^12</f>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(O189/1000)/10^12</f>
         <v>12.285191314285713</v>
       </c>
       <c r="W189" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
         <v>11.025171692307694</v>
       </c>
       <c r="X189" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA189" s="1"/>
       <c r="AE189" s="1"/>
@@ -6035,11 +6071,11 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="R190" s="5">
-        <f t="shared" si="10"/>
+        <f>(D190-I190+1+2*K190)/M190</f>
         <v>14</v>
       </c>
       <c r="S190" s="5">
-        <f t="shared" si="11"/>
+        <f>(C190-H190+1+2*J190)/L190</f>
         <v>14</v>
       </c>
       <c r="T190" s="1">
@@ -6047,19 +6083,19 @@
         <v>0.28500000000000003</v>
       </c>
       <c r="U190" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
         <v>11.417827555555554</v>
       </c>
       <c r="V190" s="1">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$H190*$I190)/(O190/1000)/10^12</f>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(O190/1000)/10^12</f>
         <v>12.845056</v>
       </c>
       <c r="W190" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
         <v>7.0063941818181821</v>
       </c>
       <c r="X190" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA190" s="1"/>
       <c r="AE190" s="1"/>
@@ -6108,11 +6144,11 @@
         <v>0.20600000000000002</v>
       </c>
       <c r="R191" s="5">
-        <f t="shared" si="10"/>
+        <f>(D191-I191+1+2*K191)/M191</f>
         <v>7</v>
       </c>
       <c r="S191" s="5">
-        <f t="shared" si="11"/>
+        <f>(C191-H191+1+2*J191)/L191</f>
         <v>7</v>
       </c>
       <c r="T191" s="1">
@@ -6120,19 +6156,19 @@
         <v>0.57600000000000007</v>
       </c>
       <c r="U191" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
         <v>5.0815606153846149</v>
       </c>
       <c r="V191" s="1">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$H191*$I191)/(O191/1000)/10^12</f>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(O191/1000)/10^12</f>
         <v>4.9193831489361708</v>
       </c>
       <c r="W191" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
         <v>4.4895341359223302</v>
       </c>
       <c r="X191" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA191" s="1"/>
       <c r="AE191" s="1"/>
@@ -6179,11 +6215,11 @@
         <v>1.2430000000000001</v>
       </c>
       <c r="R192" s="5">
-        <f t="shared" si="10"/>
+        <f>(D192-I192+1+2*K192)/M192</f>
         <v>224</v>
       </c>
       <c r="S192" s="5">
-        <f t="shared" si="11"/>
+        <f>(C192-H192+1+2*J192)/L192</f>
         <v>224</v>
       </c>
       <c r="T192" s="1">
@@ -6191,18 +6227,18 @@
         <v>1.6140000000000001</v>
       </c>
       <c r="U192" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
         <v>3.7392615849056603</v>
       </c>
       <c r="V192" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W192" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
         <v>1.1160627900241351</v>
       </c>
       <c r="X192" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA192" s="1"/>
       <c r="AE192" s="1"/>
@@ -6251,11 +6287,11 @@
         <v>1.5940000000000001</v>
       </c>
       <c r="R193" s="5">
-        <f t="shared" si="10"/>
+        <f>(D193-I193+1+2*K193)/M193</f>
         <v>112</v>
       </c>
       <c r="S193" s="5">
-        <f t="shared" si="11"/>
+        <f>(C193-H193+1+2*J193)/L193</f>
         <v>112</v>
       </c>
       <c r="T193" s="1">
@@ -6263,19 +6299,19 @@
         <v>3.4779999999999998</v>
       </c>
       <c r="U193" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
         <v>15.208123856115108</v>
       </c>
       <c r="V193" s="1">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$H193*$I193)/(O193/1000)/10^12</f>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(O193/1000)/10^12</f>
         <v>16.243144360043907</v>
       </c>
       <c r="W193" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
         <v>9.2832525169385196</v>
       </c>
       <c r="X193" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA193" s="1"/>
       <c r="AE193" s="1"/>
@@ -6325,11 +6361,11 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="R194" s="5">
-        <f t="shared" si="10"/>
+        <f>(D194-I194+1+2*K194)/M194</f>
         <v>56</v>
       </c>
       <c r="S194" s="5">
-        <f t="shared" si="11"/>
+        <f>(C194-H194+1+2*J194)/L194</f>
         <v>56</v>
       </c>
       <c r="T194" s="1">
@@ -6337,19 +6373,19 @@
         <v>2.7720000000000002</v>
       </c>
       <c r="U194" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
         <v>15.543597176470588</v>
       </c>
       <c r="V194" s="1">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$H194*$I194)/(O194/1000)/10^12</f>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(O194/1000)/10^12</f>
         <v>16.119285960784314</v>
       </c>
       <c r="W194" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
         <v>16.405215645232815</v>
       </c>
       <c r="X194" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA194" s="1"/>
       <c r="AE194" s="1"/>
@@ -6399,11 +6435,11 @@
         <v>0.69400000000000006</v>
       </c>
       <c r="R195" s="5">
-        <f t="shared" si="10"/>
+        <f>(D195-I195+1+2*K195)/M195</f>
         <v>28</v>
       </c>
       <c r="S195" s="5">
-        <f t="shared" si="11"/>
+        <f>(C195-H195+1+2*J195)/L195</f>
         <v>28</v>
       </c>
       <c r="T195" s="1">
@@ -6411,19 +6447,19 @@
         <v>2.6019999999999999</v>
       </c>
       <c r="U195" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
         <v>15.192509765913758</v>
       </c>
       <c r="V195" s="1">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$H195*$I195)/(O195/1000)/10^12</f>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(O195/1000)/10^12</f>
         <v>15.843152582441114</v>
       </c>
       <c r="W195" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
         <v>21.322052610951008</v>
       </c>
       <c r="X195" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA195" s="1"/>
       <c r="AE195" s="1"/>
@@ -6472,11 +6508,11 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="R196" s="5">
-        <f t="shared" si="10"/>
+        <f>(D196-I196+1+2*K196)/M196</f>
         <v>14</v>
       </c>
       <c r="S196" s="5">
-        <f t="shared" si="11"/>
+        <f>(C196-H196+1+2*J196)/L196</f>
         <v>14</v>
       </c>
       <c r="T196" s="1">
@@ -6484,19 +6520,19 @@
         <v>0.28500000000000003</v>
       </c>
       <c r="U196" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
         <v>91.342620444444435</v>
       </c>
       <c r="V196" s="1">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$H196*$I196)/(O196/1000)/10^12</f>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(O196/1000)/10^12</f>
         <v>102.760448</v>
       </c>
       <c r="W196" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
         <v>56.051153454545457</v>
       </c>
       <c r="X196" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA196" s="1"/>
       <c r="AE196" s="1"/>
@@ -6545,11 +6581,11 @@
         <v>0.35299999999999998</v>
       </c>
       <c r="R197" s="5">
-        <f t="shared" si="10"/>
+        <f>(D197-I197+1+2*K197)/M197</f>
         <v>7</v>
       </c>
       <c r="S197" s="5">
-        <f t="shared" si="11"/>
+        <f>(C197-H197+1+2*J197)/L197</f>
         <v>7</v>
       </c>
       <c r="T197" s="1">
@@ -6557,19 +6593,19 @@
         <v>1.0310000000000001</v>
       </c>
       <c r="U197" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
         <v>5.3614146782608687</v>
       </c>
       <c r="V197" s="1">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$H197*$I197)/(O197/1000)/10^12</f>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(O197/1000)/10^12</f>
         <v>5.5546188108108101</v>
       </c>
       <c r="W197" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
         <v>5.2399095297450433</v>
       </c>
       <c r="X197" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA197" s="1"/>
       <c r="AE197" s="1"/>
@@ -6616,11 +6652,11 @@
         <v>2.5020000000000002</v>
       </c>
       <c r="R198" s="5">
-        <f t="shared" si="10"/>
+        <f>(D198-I198+1+2*K198)/M198</f>
         <v>224</v>
       </c>
       <c r="S198" s="5">
-        <f t="shared" si="11"/>
+        <f>(C198-H198+1+2*J198)/L198</f>
         <v>224</v>
       </c>
       <c r="T198" s="1">
@@ -6628,18 +6664,18 @@
         <v>3.2150000000000003</v>
       </c>
       <c r="U198" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
         <v>3.8913493632538567</v>
       </c>
       <c r="V198" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W198" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
         <v>1.1089256978417266</v>
       </c>
       <c r="X198" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA198" s="1"/>
       <c r="AE198" s="1"/>
@@ -6688,11 +6724,11 @@
         <v>3.5550000000000002</v>
       </c>
       <c r="R199" s="5">
-        <f t="shared" si="10"/>
+        <f>(D199-I199+1+2*K199)/M199</f>
         <v>112</v>
       </c>
       <c r="S199" s="5">
-        <f t="shared" si="11"/>
+        <f>(C199-H199+1+2*J199)/L199</f>
         <v>112</v>
       </c>
       <c r="T199" s="1">
@@ -6700,19 +6736,19 @@
         <v>7.2560000000000002</v>
       </c>
       <c r="U199" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
         <v>15.430140262773721</v>
       </c>
       <c r="V199" s="1">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$H199*$I199)/(O199/1000)/10^12</f>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(O199/1000)/10^12</f>
         <v>16.598434674144698</v>
       </c>
       <c r="W199" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
         <v>8.3248970531645572</v>
       </c>
       <c r="X199" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA199" s="1"/>
       <c r="AE199" s="1"/>
@@ -6762,11 +6798,11 @@
         <v>1.788</v>
       </c>
       <c r="R200" s="5">
-        <f t="shared" si="10"/>
+        <f>(D200-I200+1+2*K200)/M200</f>
         <v>56</v>
       </c>
       <c r="S200" s="5">
-        <f t="shared" si="11"/>
+        <f>(C200-H200+1+2*J200)/L200</f>
         <v>56</v>
       </c>
       <c r="T200" s="1">
@@ -6774,19 +6810,19 @@
         <v>4.9630000000000001</v>
       </c>
       <c r="U200" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
         <v>18.313743207920794</v>
       </c>
       <c r="V200" s="1">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$H200*$I200)/(O200/1000)/10^12</f>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(O200/1000)/10^12</f>
         <v>18.983328431045543</v>
       </c>
       <c r="W200" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
         <v>16.552018469798657</v>
       </c>
       <c r="X200" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA200" s="1"/>
       <c r="AE200" s="1"/>
@@ -6836,11 +6872,11 @@
         <v>1.3160000000000001</v>
       </c>
       <c r="R201" s="5">
-        <f t="shared" si="10"/>
+        <f>(D201-I201+1+2*K201)/M201</f>
         <v>28</v>
       </c>
       <c r="S201" s="5">
-        <f t="shared" si="11"/>
+        <f>(C201-H201+1+2*J201)/L201</f>
         <v>28</v>
       </c>
       <c r="T201" s="1">
@@ -6848,19 +6884,19 @@
         <v>3.9470000000000001</v>
       </c>
       <c r="U201" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
         <v>22.036492199553237</v>
       </c>
       <c r="V201" s="1">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$H201*$I201)/(O201/1000)/10^12</f>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(O201/1000)/10^12</f>
         <v>22.977491478260866</v>
       </c>
       <c r="W201" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
         <v>22.488608680851062</v>
       </c>
       <c r="X201" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA201" s="1"/>
       <c r="AE201" s="1"/>
@@ -6909,11 +6945,11 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="R202" s="5">
-        <f t="shared" si="10"/>
+        <f>(D202-I202+1+2*K202)/M202</f>
         <v>14</v>
       </c>
       <c r="S202" s="5">
-        <f t="shared" si="11"/>
+        <f>(C202-H202+1+2*J202)/L202</f>
         <v>14</v>
       </c>
       <c r="T202" s="1">
@@ -6921,19 +6957,19 @@
         <v>2.5529999999999999</v>
       </c>
       <c r="U202" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
         <v>17.958136543689321</v>
       </c>
       <c r="V202" s="1">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$H202*$I202)/(O202/1000)/10^12</f>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(O202/1000)/10^12</f>
         <v>17.958136543689321</v>
       </c>
       <c r="W202" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
         <v>16.350833714917126</v>
       </c>
       <c r="X202" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA202" s="1"/>
       <c r="AE202" s="1"/>
@@ -6982,11 +7018,11 @@
         <v>0.45600000000000002</v>
       </c>
       <c r="R203" s="5">
-        <f t="shared" si="10"/>
+        <f>(D203-I203+1+2*K203)/M203</f>
         <v>7</v>
       </c>
       <c r="S203" s="5">
-        <f t="shared" si="11"/>
+        <f>(C203-H203+1+2*J203)/L203</f>
         <v>7</v>
       </c>
       <c r="T203" s="1">
@@ -6994,19 +7030,19 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="U203" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
         <v>6.9537145263157889</v>
       </c>
       <c r="V203" s="1">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$H203*$I203)/(O203/1000)/10^12</f>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(O203/1000)/10^12</f>
         <v>8.1484055682819374</v>
       </c>
       <c r="W203" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
         <v>8.112666947368421</v>
       </c>
       <c r="X203" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA203" s="1"/>
       <c r="AE203" s="1"/>
@@ -7053,11 +7089,11 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="R204" s="5">
-        <f t="shared" si="10"/>
+        <f>(D204-I204+1+2*K204)/M204</f>
         <v>112</v>
       </c>
       <c r="S204" s="5">
-        <f t="shared" si="11"/>
+        <f>(C204-H204+1+2*J204)/L204</f>
         <v>112</v>
       </c>
       <c r="T204" s="1">
@@ -7065,18 +7101,18 @@
         <v>1.444</v>
       </c>
       <c r="U204" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
         <v>7.2623970461538461</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W204" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
         <v>4.0870632727272724</v>
       </c>
       <c r="X204" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA204" s="1"/>
       <c r="AE204" s="1"/>
@@ -7125,31 +7161,31 @@
         <v>0.35699999999999998</v>
       </c>
       <c r="R205" s="5">
-        <f t="shared" si="10"/>
+        <f>(D205-I205+1+2*K205)/M205</f>
         <v>28</v>
       </c>
       <c r="S205" s="5">
-        <f t="shared" si="11"/>
+        <f>(C205-H205+1+2*J205)/L205</f>
         <v>28</v>
       </c>
       <c r="T205" s="1">
-        <f t="shared" ref="T205:T228" si="14">N205+O205+P205</f>
+        <f t="shared" ref="T205:T228" si="10">N205+O205+P205</f>
         <v>1.635</v>
       </c>
       <c r="U205" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
         <v>5.1725057718120802</v>
       </c>
       <c r="V205" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>7.2298626641651023</v>
       </c>
       <c r="W205" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
         <v>10.794164705882354</v>
       </c>
       <c r="X205" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA205" s="1"/>
       <c r="AE205" s="1"/>
@@ -7198,31 +7234,31 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="R206" s="5">
+        <f>(D206-I206+1+2*K206)/M206</f>
+        <v>28</v>
+      </c>
+      <c r="S206" s="5">
+        <f>(C206-H206+1+2*J206)/L206</f>
+        <v>28</v>
+      </c>
+      <c r="T206" s="1">
         <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="S206" s="5">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="T206" s="1">
-        <f t="shared" si="14"/>
         <v>0.25600000000000001</v>
       </c>
       <c r="U206" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
         <v>5.9284873846153836</v>
       </c>
       <c r="V206" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
         <v>4.3419907605633803</v>
       </c>
       <c r="W206" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
         <v>2.3179048421052633</v>
       </c>
       <c r="X206" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA206" s="1"/>
       <c r="AE206" s="1"/>
@@ -7271,31 +7307,31 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="R207" s="5">
+        <f>(D207-I207+1+2*K207)/M207</f>
+        <v>14</v>
+      </c>
+      <c r="S207" s="5">
+        <f>(C207-H207+1+2*J207)/L207</f>
+        <v>14</v>
+      </c>
+      <c r="T207" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="S207" s="5">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T207" s="1">
-        <f t="shared" si="14"/>
         <v>1.427</v>
       </c>
       <c r="U207" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>7.6006248520710065</v>
       </c>
       <c r="V207" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
         <v>8.4879224669603524</v>
       </c>
       <c r="W207" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>8.2693493562231755</v>
       </c>
       <c r="X207" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA207" s="1"/>
       <c r="AE207" s="1"/>
@@ -7344,31 +7380,31 @@
         <v>0.17</v>
       </c>
       <c r="R208" s="5">
+        <f>(D208-I208+1+2*K208)/M208</f>
+        <v>14</v>
+      </c>
+      <c r="S208" s="5">
+        <f>(C208-H208+1+2*J208)/L208</f>
+        <v>14</v>
+      </c>
+      <c r="T208" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="S208" s="5">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T208" s="1">
-        <f t="shared" si="14"/>
         <v>0.35799999999999998</v>
       </c>
       <c r="U208" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
         <v>6.4901335578947359</v>
       </c>
       <c r="V208" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
         <v>6.6297063225806454</v>
       </c>
       <c r="W208" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
         <v>3.6268393411764701</v>
       </c>
       <c r="X208" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA208" s="1"/>
       <c r="AE208" s="1"/>
@@ -7417,31 +7453,31 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="R209" s="5">
+        <f>(D209-I209+1+2*K209)/M209</f>
+        <v>7</v>
+      </c>
+      <c r="S209" s="5">
+        <f>(C209-H209+1+2*J209)/L209</f>
+        <v>7</v>
+      </c>
+      <c r="T209" s="1">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="S209" s="5">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="T209" s="1">
-        <f t="shared" si="14"/>
         <v>0.252</v>
       </c>
       <c r="U209" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
         <v>3.4078719999999993</v>
       </c>
       <c r="V209" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
         <v>5.4749419016393448</v>
       </c>
       <c r="W209" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
         <v>3.5910909247311831</v>
       </c>
       <c r="X209" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA209" s="1"/>
       <c r="AE209" s="1"/>
@@ -7490,31 +7526,31 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="R210" s="5">
+        <f>(D210-I210+1+2*K210)/M210</f>
+        <v>7</v>
+      </c>
+      <c r="S210" s="5">
+        <f>(C210-H210+1+2*J210)/L210</f>
+        <v>7</v>
+      </c>
+      <c r="T210" s="1">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="S210" s="5">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="T210" s="1">
-        <f t="shared" si="14"/>
         <v>2.42</v>
       </c>
       <c r="U210" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
         <v>3.6427951134380447</v>
       </c>
       <c r="V210" s="1">
-        <f t="shared" si="12"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
         <v>6.7008719101123599</v>
       </c>
       <c r="W210" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
         <v>6.4126623655913972</v>
       </c>
       <c r="X210" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA210" s="1"/>
       <c r="AE210" s="1"/>
@@ -7563,31 +7599,31 @@
         <v>3.14</v>
       </c>
       <c r="R211" s="5">
+        <f>(D211-I211+1+2*K211)/M211</f>
+        <v>56</v>
+      </c>
+      <c r="S211" s="5">
+        <f>(C211-H211+1+2*J211)/L211</f>
+        <v>56</v>
+      </c>
+      <c r="T211" s="1">
         <f t="shared" si="10"/>
-        <v>56</v>
-      </c>
-      <c r="S211" s="5">
-        <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="T211" s="1">
-        <f t="shared" si="14"/>
         <v>6.1899999999999995</v>
       </c>
       <c r="U211" s="1">
-        <f t="shared" ref="U211:V228" si="15">(2*$R211*$S211*$F211*$G211*$E211*$H211*$I211)/(N211/1000)/10^12</f>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
         <v>1.2169000421052631</v>
       </c>
       <c r="V211" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
         <v>1.2089464470588236</v>
       </c>
       <c r="W211" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
         <v>0.58907263184713377</v>
       </c>
       <c r="X211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="2:31">
@@ -7634,31 +7670,31 @@
         <v>0.74</v>
       </c>
       <c r="R212" s="5">
+        <f>(D212-I212+1+2*K212)/M212</f>
+        <v>28</v>
+      </c>
+      <c r="S212" s="5">
+        <f>(C212-H212+1+2*J212)/L212</f>
+        <v>28</v>
+      </c>
+      <c r="T212" s="1">
         <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="S212" s="5">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="T212" s="1">
-        <f t="shared" si="14"/>
         <v>2.1399999999999997</v>
       </c>
       <c r="U212" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
         <v>0.39523249230769225</v>
       </c>
       <c r="V212" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
         <v>0.23354647272727269</v>
       </c>
       <c r="W212" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
         <v>0.27773094054054054</v>
       </c>
       <c r="X212" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="2:31">
@@ -7705,31 +7741,31 @@
         <v>1.6</v>
       </c>
       <c r="R213" s="5">
+        <f>(D213-I213+1+2*K213)/M213</f>
+        <v>28</v>
+      </c>
+      <c r="S213" s="5">
+        <f>(C213-H213+1+2*J213)/L213</f>
+        <v>28</v>
+      </c>
+      <c r="T213" s="1">
         <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="S213" s="5">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="T213" s="1">
-        <f t="shared" si="14"/>
         <v>4.32</v>
       </c>
       <c r="U213" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
         <v>1.3600647529411762</v>
       </c>
       <c r="V213" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
         <v>1.3600647529411762</v>
       </c>
       <c r="W213" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
         <v>1.15605504</v>
       </c>
       <c r="X213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="2:31">
@@ -7777,31 +7813,31 @@
         <v>0.71</v>
       </c>
       <c r="R214" s="5">
+        <f>(D214-I214+1+2*K214)/M214</f>
+        <v>14</v>
+      </c>
+      <c r="S214" s="5">
+        <f>(C214-H214+1+2*J214)/L214</f>
+        <v>14</v>
+      </c>
+      <c r="T214" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="S214" s="5">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T214" s="1">
-        <f t="shared" si="14"/>
         <v>2.38</v>
       </c>
       <c r="U214" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
         <v>0.50127047804878055</v>
       </c>
       <c r="V214" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
         <v>0.16311182222222223</v>
       </c>
       <c r="W214" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
         <v>0.28946605070422543</v>
       </c>
       <c r="X214" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="2:31">
@@ -7848,31 +7884,31 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R215" s="5">
+        <f>(D215-I215+1+2*K215)/M215</f>
+        <v>14</v>
+      </c>
+      <c r="S215" s="5">
+        <f>(C215-H215+1+2*J215)/L215</f>
+        <v>14</v>
+      </c>
+      <c r="T215" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="S215" s="5">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T215" s="1">
-        <f t="shared" si="14"/>
         <v>1.3900000000000001</v>
       </c>
       <c r="U215" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
         <v>0.50127047804878055</v>
       </c>
       <c r="V215" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
         <v>0.47795557209302325</v>
       </c>
       <c r="W215" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
         <v>0.37367435636363633</v>
       </c>
       <c r="X215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="2:31">
@@ -7919,31 +7955,31 @@
         <v>2.09</v>
       </c>
       <c r="R216" s="5">
+        <f>(D216-I216+1+2*K216)/M216</f>
+        <v>14</v>
+      </c>
+      <c r="S216" s="5">
+        <f>(C216-H216+1+2*J216)/L216</f>
+        <v>14</v>
+      </c>
+      <c r="T216" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="S216" s="5">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T216" s="1">
-        <f t="shared" si="14"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="U216" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
         <v>1.32120576</v>
       </c>
       <c r="V216" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
         <v>1.3600647529411762</v>
       </c>
       <c r="W216" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
         <v>0.88501821244019141</v>
       </c>
       <c r="X216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="2:31">
@@ -7991,31 +8027,31 @@
         <v>0.86</v>
       </c>
       <c r="R217" s="5">
+        <f>(D217-I217+1+2*K217)/M217</f>
+        <v>7</v>
+      </c>
+      <c r="S217" s="5">
+        <f>(C217-H217+1+2*J217)/L217</f>
+        <v>7</v>
+      </c>
+      <c r="T217" s="1">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="S217" s="5">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="T217" s="1">
-        <f t="shared" si="14"/>
         <v>2.59</v>
       </c>
       <c r="U217" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
         <v>0.31618599384615387</v>
       </c>
       <c r="V217" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
         <v>0.19029712592592593</v>
       </c>
       <c r="W217" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
         <v>0.23897778604651163</v>
       </c>
       <c r="X217" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="2:31">
@@ -8063,31 +8099,31 @@
         <v>0.66</v>
       </c>
       <c r="R218" s="5">
+        <f>(D218-I218+1+2*K218)/M218</f>
+        <v>7</v>
+      </c>
+      <c r="S218" s="5">
+        <f>(C218-H218+1+2*J218)/L218</f>
+        <v>7</v>
+      </c>
+      <c r="T218" s="1">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="S218" s="5">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="T218" s="1">
-        <f t="shared" si="14"/>
         <v>1.73</v>
       </c>
       <c r="U218" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
         <v>0.3877752754716981</v>
       </c>
       <c r="V218" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
         <v>0.38059425185185186</v>
       </c>
       <c r="W218" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
         <v>0.31139529696969698</v>
       </c>
       <c r="X218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="2:31">
@@ -8135,31 +8171,31 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="R219" s="5">
+        <f>(D219-I219+1+2*K219)/M219</f>
+        <v>6.5</v>
+      </c>
+      <c r="S219" s="5">
+        <f>(C219-H219+1+2*J219)/L219</f>
+        <v>6.5</v>
+      </c>
+      <c r="T219" s="1">
         <f t="shared" si="10"/>
-        <v>6.5</v>
-      </c>
-      <c r="S219" s="5">
-        <f t="shared" si="11"/>
-        <v>6.5</v>
-      </c>
-      <c r="T219" s="1">
-        <f t="shared" si="14"/>
         <v>6.35</v>
       </c>
       <c r="U219" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
         <v>0.3526554109452737</v>
       </c>
       <c r="V219" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
         <v>0.30953597205240174</v>
       </c>
       <c r="W219" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
         <v>0.34577432975609762</v>
       </c>
       <c r="X219" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="2:31">
@@ -8206,31 +8242,31 @@
         <v>5.9</v>
       </c>
       <c r="R220" s="5">
+        <f>(D220-I220+1+2*K220)/M220</f>
+        <v>56</v>
+      </c>
+      <c r="S220" s="5">
+        <f>(C220-H220+1+2*J220)/L220</f>
+        <v>56</v>
+      </c>
+      <c r="T220" s="1">
         <f t="shared" si="10"/>
-        <v>56</v>
-      </c>
-      <c r="S220" s="5">
-        <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="T220" s="1">
-        <f t="shared" si="14"/>
         <v>11.61</v>
       </c>
       <c r="U220" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
         <v>1.2980267115789472</v>
       </c>
       <c r="V220" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
         <v>1.2934881566433567</v>
       </c>
       <c r="W220" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
         <v>0.62701290305084745</v>
       </c>
       <c r="X220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="2:31">
@@ -8277,31 +8313,31 @@
         <v>1.22</v>
       </c>
       <c r="R221" s="5">
+        <f>(D221-I221+1+2*K221)/M221</f>
+        <v>28</v>
+      </c>
+      <c r="S221" s="5">
+        <f>(C221-H221+1+2*J221)/L221</f>
+        <v>28</v>
+      </c>
+      <c r="T221" s="1">
         <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="S221" s="5">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="T221" s="1">
-        <f t="shared" si="14"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="U221" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
         <v>0.4151937292929293</v>
       </c>
       <c r="V221" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
         <v>0.21297502176165806</v>
       </c>
       <c r="W221" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
         <v>0.33691950163934431</v>
       </c>
       <c r="X221" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222" spans="2:31">
@@ -8348,31 +8384,31 @@
         <v>2.65</v>
       </c>
       <c r="R222" s="5">
+        <f>(D222-I222+1+2*K222)/M222</f>
+        <v>28</v>
+      </c>
+      <c r="S222" s="5">
+        <f>(C222-H222+1+2*J222)/L222</f>
+        <v>28</v>
+      </c>
+      <c r="T222" s="1">
         <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="S222" s="5">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="T222" s="1">
-        <f t="shared" si="14"/>
         <v>7.83</v>
       </c>
       <c r="U222" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
         <v>1.4173854896551723</v>
       </c>
       <c r="V222" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
         <v>1.4394459642023347</v>
       </c>
       <c r="W222" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
         <v>1.3959909916981132</v>
       </c>
       <c r="X222" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="2:31">
@@ -8419,31 +8455,31 @@
         <v>1.01</v>
       </c>
       <c r="R223" s="5">
+        <f>(D223-I223+1+2*K223)/M223</f>
+        <v>14</v>
+      </c>
+      <c r="S223" s="5">
+        <f>(C223-H223+1+2*J223)/L223</f>
+        <v>14</v>
+      </c>
+      <c r="T223" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="S223" s="5">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T223" s="1">
-        <f t="shared" si="14"/>
         <v>3.2699999999999996</v>
       </c>
       <c r="U223" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
         <v>0.53382050909090906</v>
       </c>
       <c r="V223" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
         <v>0.27586697449664427</v>
       </c>
       <c r="W223" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
         <v>0.4069720712871287</v>
       </c>
       <c r="X223" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="2:31">
@@ -8491,34 +8527,34 @@
         <v>0.79</v>
       </c>
       <c r="R224" s="5">
+        <f>(D224-I224+1+2*K224)/M224</f>
+        <v>14</v>
+      </c>
+      <c r="S224" s="5">
+        <f>(C224-H224+1+2*J224)/L224</f>
+        <v>14</v>
+      </c>
+      <c r="T224" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="S224" s="5">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T224" s="1">
-        <f t="shared" si="14"/>
         <v>1.98</v>
       </c>
       <c r="U224" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
         <v>0.73400319999999986</v>
       </c>
       <c r="V224" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
         <v>0.65244728888888892</v>
       </c>
       <c r="W224" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
         <v>0.52030606582278482</v>
       </c>
       <c r="X224" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8562,34 +8598,34 @@
         <v>2.87</v>
       </c>
       <c r="R225" s="5">
+        <f>(D225-I225+1+2*K225)/M225</f>
+        <v>14</v>
+      </c>
+      <c r="S225" s="5">
+        <f>(C225-H225+1+2*J225)/L225</f>
+        <v>14</v>
+      </c>
+      <c r="T225" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="S225" s="5">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="T225" s="1">
-        <f t="shared" si="14"/>
         <v>7.99</v>
       </c>
       <c r="U225" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
         <v>1.456447294488189</v>
       </c>
       <c r="V225" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
         <v>1.4338667162790695</v>
       </c>
       <c r="W225" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
         <v>1.2889812292682927</v>
       </c>
       <c r="X225" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24">
       <c r="C226" s="2">
         <v>14</v>
       </c>
@@ -8633,34 +8669,34 @@
         <v>1.19</v>
       </c>
       <c r="R226" s="5">
+        <f>(D226-I226+1+2*K226)/M226</f>
+        <v>7</v>
+      </c>
+      <c r="S226" s="5">
+        <f>(C226-H226+1+2*J226)/L226</f>
+        <v>7</v>
+      </c>
+      <c r="T226" s="1">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="S226" s="5">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="T226" s="1">
-        <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
       <c r="U226" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
         <v>0.6044732235294118</v>
       </c>
       <c r="V226" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
         <v>0.30905397894736841</v>
       </c>
       <c r="W226" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
         <v>0.34541327058823534</v>
       </c>
       <c r="X226" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24">
       <c r="B227" s="2"/>
       <c r="C227">
         <v>7</v>
@@ -8705,34 +8741,34 @@
         <v>0.99</v>
       </c>
       <c r="R227" s="5">
+        <f>(D227-I227+1+2*K227)/M227</f>
+        <v>7</v>
+      </c>
+      <c r="S227" s="5">
+        <f>(C227-H227+1+2*J227)/L227</f>
+        <v>7</v>
+      </c>
+      <c r="T227" s="1">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="S227" s="5">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="T227" s="1">
-        <f t="shared" si="14"/>
         <v>2.42</v>
       </c>
       <c r="U227" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
         <v>0.58720256000000004</v>
       </c>
       <c r="V227" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
         <v>0.56307094794520551</v>
       </c>
       <c r="W227" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
         <v>0.4151937292929293</v>
       </c>
       <c r="X227" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24">
       <c r="B228" s="2"/>
       <c r="C228">
         <v>7</v>
@@ -8777,34 +8813,34 @@
         <v>3.73</v>
       </c>
       <c r="R228" s="5">
+        <f>(D228-I228+1+2*K228)/M228</f>
+        <v>6.5</v>
+      </c>
+      <c r="S228" s="5">
+        <f>(C228-H228+1+2*J228)/L228</f>
+        <v>6.5</v>
+      </c>
+      <c r="T228" s="1">
         <f t="shared" si="10"/>
-        <v>6.5</v>
-      </c>
-      <c r="S228" s="5">
-        <f t="shared" si="11"/>
-        <v>6.5</v>
-      </c>
-      <c r="T228" s="1">
-        <f t="shared" si="14"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="U228" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
         <v>0.67188376872037914</v>
       </c>
       <c r="V228" s="1">
-        <f t="shared" si="15"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
         <v>0.35799867474747471</v>
       </c>
       <c r="W228" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
         <v>0.38007366005361931</v>
       </c>
       <c r="X228" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24">
       <c r="B229" s="2"/>
       <c r="C229" s="11">
         <v>700</v>
@@ -8849,11 +8885,11 @@
         <v>15.17</v>
       </c>
       <c r="R229" s="5">
-        <f t="shared" si="10"/>
+        <f>(D229-I229+1+2*K229)/M229</f>
         <v>79.5</v>
       </c>
       <c r="S229" s="5">
-        <f t="shared" si="11"/>
+        <f>(C229-H229+1+2*J229)/L229</f>
         <v>349</v>
       </c>
       <c r="T229" s="1">
@@ -8861,21 +8897,21 @@
         <v>19.25</v>
       </c>
       <c r="U229" s="1">
-        <f t="shared" ref="U229:W268" si="16">(2*$R229*$S229*$F229*$G229*$E229*$H229*$I229)/(N229/1000)/10^12</f>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
         <v>0.34817882352941176</v>
       </c>
       <c r="V229" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W229" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
         <v>9.3643348714568239E-2</v>
       </c>
       <c r="X229" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24">
       <c r="B230" s="2"/>
       <c r="C230">
         <v>350</v>
@@ -8920,34 +8956,34 @@
         <v>51.27</v>
       </c>
       <c r="R230" s="5">
-        <f t="shared" si="10"/>
+        <f>(D230-I230+1+2*K230)/M230</f>
         <v>80</v>
       </c>
       <c r="S230" s="5">
-        <f t="shared" si="11"/>
+        <f>(C230-H230+1+2*J230)/L230</f>
         <v>350</v>
       </c>
       <c r="T230" s="1">
-        <f t="shared" ref="T230:T268" si="17">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="11">N230+O230+P230</f>
         <v>103.91</v>
       </c>
       <c r="U230" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
         <v>1.2554216647662486</v>
       </c>
       <c r="V230" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>1.2544680592480062</v>
       </c>
       <c r="W230" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
         <v>0.64423920421298997</v>
       </c>
       <c r="X230" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24">
       <c r="B231" s="2"/>
       <c r="C231">
         <v>350</v>
@@ -8992,34 +9028,34 @@
         <v>48.89</v>
       </c>
       <c r="R231" s="5">
-        <f t="shared" si="10"/>
+        <f>(D231-I231+1+2*K231)/M231</f>
         <v>39</v>
       </c>
       <c r="S231" s="5">
+        <f>(C231-H231+1+2*J231)/L231</f>
+        <v>174</v>
+      </c>
+      <c r="T231" s="1">
         <f t="shared" si="11"/>
-        <v>174</v>
-      </c>
-      <c r="T231" s="1">
-        <f t="shared" si="17"/>
         <v>185.33999999999997</v>
       </c>
       <c r="U231" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
         <v>1.0289849514113836</v>
       </c>
       <c r="V231" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
         <v>0.47702166255497158</v>
       </c>
       <c r="W231" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
         <v>0.90964879525465325</v>
       </c>
       <c r="X231" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24">
       <c r="B232" s="2"/>
       <c r="C232">
         <v>175</v>
@@ -9064,34 +9100,34 @@
         <v>21.43</v>
       </c>
       <c r="R232" s="5">
-        <f t="shared" si="10"/>
+        <f>(D232-I232+1+2*K232)/M232</f>
         <v>40</v>
       </c>
       <c r="S232" s="5">
+        <f>(C232-H232+1+2*J232)/L232</f>
+        <v>175</v>
+      </c>
+      <c r="T232" s="1">
         <f t="shared" si="11"/>
-        <v>175</v>
-      </c>
-      <c r="T232" s="1">
-        <f t="shared" si="17"/>
         <v>61.61</v>
       </c>
       <c r="U232" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
         <v>1.6279026121241993</v>
       </c>
       <c r="V232" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
         <v>1.6606407239819003</v>
       </c>
       <c r="W232" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
         <v>1.5413039664022397</v>
       </c>
       <c r="X232" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24">
       <c r="B233" s="2"/>
       <c r="C233">
         <v>175</v>
@@ -9136,34 +9172,34 @@
         <v>45.57</v>
       </c>
       <c r="R233" s="5">
-        <f t="shared" si="10"/>
+        <f>(D233-I233+1+2*K233)/M233</f>
         <v>19</v>
       </c>
       <c r="S233" s="5">
+        <f>(C233-H233+1+2*J233)/L233</f>
+        <v>86.5</v>
+      </c>
+      <c r="T233" s="1">
         <f t="shared" si="11"/>
-        <v>86.5</v>
-      </c>
-      <c r="T233" s="1">
-        <f t="shared" si="17"/>
         <v>170.04</v>
       </c>
       <c r="U233" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
         <v>1.0304560248744321</v>
       </c>
       <c r="V233" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
         <v>0.52121178804742319</v>
       </c>
       <c r="W233" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
         <v>0.94543266183892904</v>
       </c>
       <c r="X233" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24">
       <c r="B234" s="2"/>
       <c r="C234">
         <v>84</v>
@@ -9208,34 +9244,34 @@
         <v>14.56</v>
       </c>
       <c r="R234" s="5">
-        <f t="shared" si="10"/>
+        <f>(D234-I234+1+2*K234)/M234</f>
         <v>20</v>
       </c>
       <c r="S234" s="5">
+        <f>(C234-H234+1+2*J234)/L234</f>
+        <v>84</v>
+      </c>
+      <c r="T234" s="1">
         <f t="shared" si="11"/>
-        <v>84</v>
-      </c>
-      <c r="T234" s="1">
-        <f t="shared" si="17"/>
         <v>42.64</v>
       </c>
       <c r="U234" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
         <v>2.2345974799154336</v>
       </c>
       <c r="V234" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
         <v>2.2828609244060472</v>
       </c>
       <c r="W234" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
         <v>2.1778116923076922</v>
       </c>
       <c r="X234" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24">
       <c r="B235" s="2"/>
       <c r="C235">
         <v>84</v>
@@ -9280,34 +9316,34 @@
         <v>41.73</v>
       </c>
       <c r="R235" s="5">
-        <f t="shared" si="10"/>
+        <f>(D235-I235+1+2*K235)/M235</f>
         <v>9</v>
       </c>
       <c r="S235" s="5">
+        <f>(C235-H235+1+2*J235)/L235</f>
+        <v>41</v>
+      </c>
+      <c r="T235" s="1">
         <f t="shared" si="11"/>
-        <v>41</v>
-      </c>
-      <c r="T235" s="1">
-        <f t="shared" si="17"/>
         <v>148.85999999999999</v>
       </c>
       <c r="U235" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
         <v>0.92832184261036466</v>
       </c>
       <c r="V235" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
         <v>0.59117577387318554</v>
       </c>
       <c r="W235" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
         <v>0.92720954708842562</v>
       </c>
       <c r="X235" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24">
       <c r="B236" s="2"/>
       <c r="C236">
         <v>42</v>
@@ -9352,35 +9388,34 @@
         <v>15.1</v>
       </c>
       <c r="R236" s="5">
-        <f t="shared" si="10"/>
+        <f>(D236-I236+1+2*K236)/M236</f>
         <v>10</v>
       </c>
       <c r="S236" s="5">
+        <f>(C236-H236+1+2*J236)/L236</f>
+        <v>42</v>
+      </c>
+      <c r="T236" s="1">
         <f t="shared" si="11"/>
-        <v>42</v>
-      </c>
-      <c r="T236" s="1">
-        <f t="shared" si="17"/>
         <v>46.06</v>
       </c>
       <c r="U236" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
         <v>2.0196775949044588</v>
       </c>
       <c r="V236" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
         <v>2.0779120733944958</v>
       </c>
       <c r="W236" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
         <v>2.0999296847682123</v>
       </c>
       <c r="X236" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24">
-      <c r="A237" s="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24">
       <c r="B237" s="2"/>
       <c r="C237">
         <v>112</v>
@@ -9425,35 +9460,34 @@
         <v>5.3</v>
       </c>
       <c r="R237" s="5">
-        <f t="shared" si="10"/>
+        <f>(D237-I237+1+2*K237)/M237</f>
         <v>112</v>
       </c>
       <c r="S237" s="5">
+        <f>(C237-H237+1+2*J237)/L237</f>
+        <v>112</v>
+      </c>
+      <c r="T237" s="1">
         <f t="shared" si="11"/>
-        <v>112</v>
-      </c>
-      <c r="T237" s="1">
-        <f t="shared" si="17"/>
         <v>8.5599999999999987</v>
       </c>
       <c r="U237" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
         <v>0.50745900246913578</v>
       </c>
       <c r="V237" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
         <v>0.50127047804878055</v>
       </c>
       <c r="W237" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
         <v>0.15511011018867923</v>
       </c>
       <c r="X237" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24">
-      <c r="A238" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24">
       <c r="B238" s="2"/>
       <c r="C238">
         <v>56</v>
@@ -9498,35 +9532,34 @@
         <v>2.31</v>
       </c>
       <c r="R238" s="5">
-        <f t="shared" si="10"/>
+        <f>(D238-I238+1+2*K238)/M238</f>
         <v>56</v>
       </c>
       <c r="S238" s="5">
+        <f>(C238-H238+1+2*J238)/L238</f>
+        <v>56</v>
+      </c>
+      <c r="T238" s="1">
         <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="T238" s="1">
-        <f t="shared" si="17"/>
         <v>5.01</v>
       </c>
       <c r="U238" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
         <v>0.56307094794520551</v>
       </c>
       <c r="V238" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
         <v>0.66297063225806463</v>
       </c>
       <c r="W238" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
         <v>0.35588033939393937</v>
       </c>
       <c r="X238" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24">
-      <c r="A239" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24">
       <c r="B239" s="2"/>
       <c r="C239">
         <v>56</v>
@@ -9571,35 +9604,34 @@
         <v>3.41</v>
       </c>
       <c r="R239" s="5">
-        <f t="shared" ref="R239:R268" si="18">(D239-H239+1+2*J239)/L239</f>
+        <f>(D239-I239+1+2*K239)/M239</f>
         <v>56</v>
       </c>
       <c r="S239" s="5">
-        <f t="shared" ref="S239:S268" si="19">(C239-I239+1+2*K239)/M239</f>
+        <f>(C239-H239+1+2*J239)/L239</f>
         <v>56</v>
       </c>
       <c r="T239" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.1</v>
       </c>
       <c r="U239" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>0.69668100338983052</v>
       </c>
       <c r="V239" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
         <v>0.54442621456953633</v>
       </c>
       <c r="W239" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>0.24108022991202344</v>
       </c>
       <c r="X239" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24">
-      <c r="A240" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24">
       <c r="B240" s="2"/>
       <c r="C240">
         <v>56</v>
@@ -9644,35 +9676,34 @@
         <v>1.31</v>
       </c>
       <c r="R240" s="5">
-        <f t="shared" si="18"/>
+        <f>(D240-I240+1+2*K240)/M240</f>
         <v>28</v>
       </c>
       <c r="S240" s="5">
-        <f t="shared" si="19"/>
+        <f>(C240-H240+1+2*J240)/L240</f>
         <v>28</v>
       </c>
       <c r="T240" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.3900000000000006</v>
       </c>
       <c r="U240" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
         <v>0.64225279999999996</v>
       </c>
       <c r="V240" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
         <v>0.16845975081967215</v>
       </c>
       <c r="W240" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
         <v>0.3137723603053435</v>
       </c>
       <c r="X240" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24">
-      <c r="A241" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24">
       <c r="B241" s="2"/>
       <c r="C241" s="2">
         <v>28</v>
@@ -9717,35 +9748,34 @@
         <v>1.85</v>
       </c>
       <c r="R241" s="5">
-        <f t="shared" si="18"/>
+        <f>(D241-I241+1+2*K241)/M241</f>
         <v>28</v>
       </c>
       <c r="S241" s="5">
-        <f t="shared" si="19"/>
+        <f>(C241-H241+1+2*J241)/L241</f>
         <v>28</v>
       </c>
       <c r="T241" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.07</v>
       </c>
       <c r="U241" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
         <v>0.70869274482758615</v>
       </c>
       <c r="V241" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
         <v>0.7755505509433962</v>
       </c>
       <c r="W241" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
         <v>0.44436950486486487</v>
       </c>
       <c r="X241" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24">
-      <c r="A242" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24">
       <c r="B242" s="2"/>
       <c r="C242" s="2">
         <v>28</v>
@@ -9790,35 +9820,34 @@
         <v>1.76</v>
       </c>
       <c r="R242" s="5">
-        <f t="shared" si="18"/>
+        <f>(D242-I242+1+2*K242)/M242</f>
         <v>28</v>
       </c>
       <c r="S242" s="5">
-        <f t="shared" si="19"/>
+        <f>(C242-H242+1+2*J242)/L242</f>
         <v>28</v>
       </c>
       <c r="T242" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>3.99</v>
       </c>
       <c r="U242" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
         <v>0.79813940194174748</v>
       </c>
       <c r="V242" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
         <v>0.68506965333333336</v>
       </c>
       <c r="W242" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
         <v>0.46709294545454538</v>
       </c>
       <c r="X242" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24">
-      <c r="A243" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24">
       <c r="B243" s="2"/>
       <c r="C243" s="2">
         <v>28</v>
@@ -9863,35 +9892,34 @@
         <v>1.22</v>
       </c>
       <c r="R243" s="5">
-        <f t="shared" si="18"/>
+        <f>(D243-I243+1+2*K243)/M243</f>
         <v>14</v>
       </c>
       <c r="S243" s="5">
-        <f t="shared" si="19"/>
+        <f>(C243-H243+1+2*J243)/L243</f>
         <v>14</v>
       </c>
       <c r="T243" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.26</v>
       </c>
       <c r="U243" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
         <v>0.52030606582278482</v>
       </c>
       <c r="V243" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
         <v>0.18268524088888891</v>
       </c>
       <c r="W243" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
         <v>0.33691950163934431</v>
       </c>
       <c r="X243" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24">
-      <c r="A244" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24">
       <c r="B244" s="2"/>
       <c r="C244" s="2">
         <v>14</v>
@@ -9936,35 +9964,34 @@
         <v>1.67</v>
       </c>
       <c r="R244" s="5">
-        <f t="shared" si="18"/>
+        <f>(D244-I244+1+2*K244)/M244</f>
         <v>14</v>
       </c>
       <c r="S244" s="5">
-        <f t="shared" si="19"/>
+        <f>(C244-H244+1+2*J244)/L244</f>
         <v>14</v>
       </c>
       <c r="T244" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.0199999999999996</v>
       </c>
       <c r="U244" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
         <v>0.76118850370370372</v>
       </c>
       <c r="V244" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
         <v>0.64730990866141724</v>
       </c>
       <c r="W244" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
         <v>0.49226561916167672</v>
       </c>
       <c r="X244" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24">
-      <c r="A245" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24">
       <c r="B245" s="2"/>
       <c r="C245" s="2">
         <v>28</v>
@@ -10009,35 +10036,34 @@
         <v>3.44</v>
       </c>
       <c r="R245" s="5">
-        <f t="shared" si="18"/>
+        <f>(D245-I245+1+2*K245)/M245</f>
         <v>14</v>
       </c>
       <c r="S245" s="5">
-        <f t="shared" si="19"/>
+        <f>(C245-H245+1+2*J245)/L245</f>
         <v>14</v>
       </c>
       <c r="T245" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>10.7</v>
       </c>
       <c r="U245" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
         <v>0.78293674666666646</v>
       </c>
       <c r="V245" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
         <v>0.31863704806201543</v>
       </c>
       <c r="W245" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
         <v>0.47795557209302325</v>
       </c>
       <c r="X245" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24">
-      <c r="A246" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24">
       <c r="B246" s="2"/>
       <c r="C246" s="2">
         <v>14</v>
@@ -10082,35 +10108,34 @@
         <v>1.89</v>
       </c>
       <c r="R246" s="5">
-        <f t="shared" si="18"/>
+        <f>(D246-I246+1+2*K246)/M246</f>
         <v>14</v>
       </c>
       <c r="S246" s="5">
-        <f t="shared" si="19"/>
+        <f>(C246-H246+1+2*J246)/L246</f>
         <v>14</v>
       </c>
       <c r="T246" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.26</v>
       </c>
       <c r="U246" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
         <v>0.66836063739837404</v>
       </c>
       <c r="V246" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
         <v>0.721125950877193</v>
       </c>
       <c r="W246" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
         <v>0.43496485925925926</v>
       </c>
       <c r="X246" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24">
-      <c r="A247" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24">
       <c r="B247" s="2"/>
       <c r="C247" s="2">
         <v>14</v>
@@ -10155,35 +10180,34 @@
         <v>1.66</v>
       </c>
       <c r="R247" s="5">
-        <f t="shared" si="18"/>
+        <f>(D247-I247+1+2*K247)/M247</f>
         <v>14</v>
       </c>
       <c r="S247" s="5">
-        <f t="shared" si="19"/>
+        <f>(C247-H247+1+2*J247)/L247</f>
         <v>14</v>
       </c>
       <c r="T247" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.04</v>
       </c>
       <c r="U247" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
         <v>0.73400319999999986</v>
       </c>
       <c r="V247" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
         <v>0.65244728888888892</v>
       </c>
       <c r="W247" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
         <v>0.49523107469879518</v>
       </c>
       <c r="X247" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24">
-      <c r="A248" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24">
       <c r="B248" s="2"/>
       <c r="C248" s="2">
         <v>14</v>
@@ -10228,35 +10252,34 @@
         <v>1.46</v>
       </c>
       <c r="R248" s="5">
-        <f t="shared" si="18"/>
+        <f>(D248-I248+1+2*K248)/M248</f>
         <v>7</v>
       </c>
       <c r="S248" s="5">
-        <f t="shared" si="19"/>
+        <f>(C248-H248+1+2*J248)/L248</f>
         <v>7</v>
       </c>
       <c r="T248" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.01</v>
       </c>
       <c r="U248" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
         <v>0.35131777094017097</v>
       </c>
       <c r="V248" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
         <v>0.2978563710144928</v>
       </c>
       <c r="W248" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
         <v>0.28153547397260276</v>
       </c>
       <c r="X248" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24">
-      <c r="A249" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24">
       <c r="B249" s="2"/>
       <c r="C249" s="2">
         <v>7</v>
@@ -10301,35 +10324,34 @@
         <v>3.51</v>
       </c>
       <c r="R249" s="5">
-        <f t="shared" si="18"/>
+        <f>(D249-I249+1+2*K249)/M249</f>
         <v>7</v>
       </c>
       <c r="S249" s="5">
-        <f t="shared" si="19"/>
+        <f>(C249-H249+1+2*J249)/L249</f>
         <v>7</v>
       </c>
       <c r="T249" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>10.14</v>
       </c>
       <c r="U249" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
         <v>0.55881814622356496</v>
       </c>
       <c r="V249" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
         <v>0.55713495903614452</v>
       </c>
       <c r="W249" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
         <v>0.52697665641025648</v>
       </c>
       <c r="X249" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24">
-      <c r="A250" s="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24">
       <c r="B250" s="2"/>
       <c r="C250" s="2">
         <v>7</v>
@@ -10374,35 +10396,34 @@
         <v>2.63</v>
       </c>
       <c r="R250" s="5">
-        <f t="shared" si="18"/>
+        <f>(D250-I250+1+2*K250)/M250</f>
         <v>7</v>
       </c>
       <c r="S250" s="5">
-        <f t="shared" si="19"/>
+        <f>(C250-H250+1+2*J250)/L250</f>
         <v>7</v>
       </c>
       <c r="T250" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.38</v>
       </c>
       <c r="U250" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
         <v>0.53382050909090906</v>
       </c>
       <c r="V250" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
         <v>0.37198352217194569</v>
       </c>
       <c r="W250" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
         <v>0.31257930950570345</v>
       </c>
       <c r="X250" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24">
-      <c r="A251" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24">
       <c r="B251" s="2"/>
       <c r="C251" s="2">
         <v>14</v>
@@ -10447,35 +10468,34 @@
         <v>5.19</v>
       </c>
       <c r="R251" s="5">
-        <f t="shared" si="18"/>
+        <f>(D251-I251+1+2*K251)/M251</f>
         <v>7</v>
       </c>
       <c r="S251" s="5">
-        <f t="shared" si="19"/>
+        <f>(C251-H251+1+2*J251)/L251</f>
         <v>7</v>
       </c>
       <c r="T251" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>11.99</v>
       </c>
       <c r="U251" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
         <v>0.54442621456953633</v>
       </c>
       <c r="V251" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
         <v>0.43496485925925926</v>
       </c>
       <c r="W251" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
         <v>0.3167952154142582</v>
       </c>
       <c r="X251" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24">
-      <c r="A252" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24">
       <c r="B252" s="2"/>
       <c r="C252" s="2">
         <v>7</v>
@@ -10520,35 +10540,34 @@
         <v>2.66</v>
       </c>
       <c r="R252" s="5">
-        <f t="shared" si="18"/>
+        <f>(D252-I252+1+2*K252)/M252</f>
         <v>7</v>
       </c>
       <c r="S252" s="5">
-        <f t="shared" si="19"/>
+        <f>(C252-H252+1+2*J252)/L252</f>
         <v>7</v>
       </c>
       <c r="T252" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.32</v>
       </c>
       <c r="U252" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
         <v>0.3877752754716981</v>
       </c>
       <c r="V252" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
         <v>0.53382050909090906</v>
       </c>
       <c r="W252" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
         <v>0.30905397894736841</v>
       </c>
       <c r="X252" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24">
-      <c r="A253" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24">
       <c r="B253" s="2"/>
       <c r="C253">
         <v>112</v>
@@ -10593,35 +10612,34 @@
         <v>10.8</v>
       </c>
       <c r="R253" s="5">
-        <f t="shared" si="18"/>
+        <f>(D253-I253+1+2*K253)/M253</f>
         <v>112</v>
       </c>
       <c r="S253" s="5">
-        <f t="shared" si="19"/>
+        <f>(C253-H253+1+2*J253)/L253</f>
         <v>112</v>
       </c>
       <c r="T253" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>17.010000000000002</v>
       </c>
       <c r="U253" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
         <v>0.53209293462783169</v>
       </c>
       <c r="V253" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
         <v>0.52697665641025637</v>
       </c>
       <c r="W253" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
         <v>0.15223770074074072</v>
       </c>
       <c r="X253" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24">
-      <c r="A254" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24">
       <c r="B254" s="2"/>
       <c r="C254">
         <v>56</v>
@@ -10666,35 +10684,34 @@
         <v>4.33</v>
       </c>
       <c r="R254" s="5">
-        <f t="shared" si="18"/>
+        <f>(D254-I254+1+2*K254)/M254</f>
         <v>56</v>
       </c>
       <c r="S254" s="5">
-        <f t="shared" si="19"/>
+        <f>(C254-H254+1+2*J254)/L254</f>
         <v>56</v>
       </c>
       <c r="T254" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>9.4600000000000009</v>
       </c>
       <c r="U254" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
         <v>0.60670375202952032</v>
       </c>
       <c r="V254" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
         <v>0.67940792066115707</v>
       </c>
       <c r="W254" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
         <v>0.37971528129330256</v>
       </c>
       <c r="X254" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24">
-      <c r="A255" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24">
       <c r="B255" s="2"/>
       <c r="C255">
         <v>56</v>
@@ -10739,35 +10756,34 @@
         <v>6.65</v>
       </c>
       <c r="R255" s="5">
-        <f t="shared" si="18"/>
+        <f>(D255-I255+1+2*K255)/M255</f>
         <v>56</v>
       </c>
       <c r="S255" s="5">
-        <f t="shared" si="19"/>
+        <f>(C255-H255+1+2*J255)/L255</f>
         <v>56</v>
       </c>
       <c r="T255" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>11.82</v>
       </c>
       <c r="U255" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
         <v>0.70565114506437765</v>
       </c>
       <c r="V255" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
         <v>0.57893210140845086</v>
       </c>
       <c r="W255" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
         <v>0.2472431831578947</v>
       </c>
       <c r="X255" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24">
-      <c r="A256" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24">
       <c r="B256" s="2"/>
       <c r="C256">
         <v>56</v>
@@ -10812,35 +10828,34 @@
         <v>2.31</v>
       </c>
       <c r="R256" s="5">
-        <f t="shared" si="18"/>
+        <f>(D256-I256+1+2*K256)/M256</f>
         <v>28</v>
       </c>
       <c r="S256" s="5">
-        <f t="shared" si="19"/>
+        <f>(C256-H256+1+2*J256)/L256</f>
         <v>28</v>
       </c>
       <c r="T256" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7.8900000000000006</v>
       </c>
       <c r="U256" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
         <v>0.66836063739837404</v>
       </c>
       <c r="V256" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
         <v>0.18898473195402302</v>
       </c>
       <c r="W256" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
         <v>0.35588033939393937</v>
       </c>
       <c r="X256" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24">
-      <c r="A257" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24">
       <c r="B257" s="2"/>
       <c r="C257" s="2">
         <v>28</v>
@@ -10885,35 +10900,34 @@
         <v>2.96</v>
       </c>
       <c r="R257" s="5">
-        <f t="shared" si="18"/>
+        <f>(D257-I257+1+2*K257)/M257</f>
         <v>28</v>
       </c>
       <c r="S257" s="5">
-        <f t="shared" si="19"/>
+        <f>(C257-H257+1+2*J257)/L257</f>
         <v>28</v>
       </c>
       <c r="T257" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7.2299999999999995</v>
       </c>
       <c r="U257" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
         <v>0.74396704434389138</v>
       </c>
       <c r="V257" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
         <v>0.79813940194174748</v>
       </c>
       <c r="W257" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
         <v>0.55546188108108108</v>
       </c>
       <c r="X257" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24">
-      <c r="A258" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24">
       <c r="B258" s="2"/>
       <c r="C258" s="2">
         <v>28</v>
@@ -10958,35 +10972,34 @@
         <v>2.99</v>
       </c>
       <c r="R258" s="5">
-        <f t="shared" si="18"/>
+        <f>(D258-I258+1+2*K258)/M258</f>
         <v>28</v>
       </c>
       <c r="S258" s="5">
-        <f t="shared" si="19"/>
+        <f>(C258-H258+1+2*J258)/L258</f>
         <v>28</v>
       </c>
       <c r="T258" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7.25</v>
       </c>
       <c r="U258" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
         <v>0.81799361592039821</v>
       </c>
       <c r="V258" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
         <v>0.73074096355555562</v>
       </c>
       <c r="W258" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
         <v>0.54988868494983278</v>
       </c>
       <c r="X258" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24">
-      <c r="A259" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24">
       <c r="B259" s="2"/>
       <c r="C259" s="2">
         <v>28</v>
@@ -11031,35 +11044,34 @@
         <v>1.91</v>
       </c>
       <c r="R259" s="5">
-        <f t="shared" si="18"/>
+        <f>(D259-I259+1+2*K259)/M259</f>
         <v>14</v>
       </c>
       <c r="S259" s="5">
-        <f t="shared" si="19"/>
+        <f>(C259-H259+1+2*J259)/L259</f>
         <v>14</v>
       </c>
       <c r="T259" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.86</v>
       </c>
       <c r="U259" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
         <v>0.74061584144144144</v>
       </c>
       <c r="V259" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
         <v>0.21408426666666669</v>
       </c>
       <c r="W259" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
         <v>0.43041025340314137</v>
       </c>
       <c r="X259" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24">
-      <c r="A260" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24">
       <c r="B260" s="2"/>
       <c r="C260" s="2">
         <v>14</v>
@@ -11104,35 +11116,34 @@
         <v>2.84</v>
       </c>
       <c r="R260" s="5">
-        <f t="shared" si="18"/>
+        <f>(D260-I260+1+2*K260)/M260</f>
         <v>14</v>
       </c>
       <c r="S260" s="5">
-        <f t="shared" si="19"/>
+        <f>(C260-H260+1+2*J260)/L260</f>
         <v>14</v>
       </c>
       <c r="T260" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.83</v>
       </c>
       <c r="U260" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
         <v>0.8139441425742574</v>
       </c>
       <c r="V260" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
         <v>0.83460262335025381</v>
       </c>
       <c r="W260" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
         <v>0.57893210140845086</v>
       </c>
       <c r="X260" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24">
-      <c r="A261" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24">
       <c r="B261" s="2"/>
       <c r="C261" s="2">
         <v>28</v>
@@ -11177,35 +11188,34 @@
         <v>5.72</v>
       </c>
       <c r="R261" s="5">
-        <f t="shared" si="18"/>
+        <f>(D261-I261+1+2*K261)/M261</f>
         <v>14</v>
       </c>
       <c r="S261" s="5">
-        <f t="shared" si="19"/>
+        <f>(C261-H261+1+2*J261)/L261</f>
         <v>14</v>
       </c>
       <c r="T261" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>18.309999999999999</v>
       </c>
       <c r="U261" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
         <v>0.78668285550239248</v>
       </c>
       <c r="V261" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
         <v>0.39100289369797858</v>
       </c>
       <c r="W261" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
         <v>0.57488362517482516</v>
       </c>
       <c r="X261" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24">
-      <c r="A262" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24">
       <c r="B262" s="2"/>
       <c r="C262" s="2">
         <v>14</v>
@@ -11250,35 +11260,34 @@
         <v>2.9</v>
       </c>
       <c r="R262" s="5">
-        <f t="shared" si="18"/>
+        <f>(D262-I262+1+2*K262)/M262</f>
         <v>14</v>
       </c>
       <c r="S262" s="5">
-        <f t="shared" si="19"/>
+        <f>(C262-H262+1+2*J262)/L262</f>
         <v>14</v>
       </c>
       <c r="T262" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.88</v>
       </c>
       <c r="U262" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
         <v>0.84750884948453609</v>
       </c>
       <c r="V262" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
         <v>0.80596429803921554</v>
       </c>
       <c r="W262" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
         <v>0.56695419586206897</v>
       </c>
       <c r="X262" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24">
-      <c r="A263" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24">
       <c r="B263" s="2"/>
       <c r="C263" s="2">
         <v>14</v>
@@ -11323,35 +11332,34 @@
         <v>2.85</v>
       </c>
       <c r="R263" s="5">
-        <f t="shared" si="18"/>
+        <f>(D263-I263+1+2*K263)/M263</f>
         <v>14</v>
       </c>
       <c r="S263" s="5">
-        <f t="shared" si="19"/>
+        <f>(C263-H263+1+2*J263)/L263</f>
         <v>14</v>
       </c>
       <c r="T263" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="U263" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
         <v>0.83038745858585861</v>
       </c>
       <c r="V263" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
         <v>0.83460262335025381</v>
       </c>
       <c r="W263" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
         <v>0.57690076070175444</v>
       </c>
       <c r="X263" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24">
-      <c r="A264" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24">
       <c r="B264" s="2"/>
       <c r="C264" s="2">
         <v>14</v>
@@ -11396,35 +11404,34 @@
         <v>2.13</v>
       </c>
       <c r="R264" s="5">
-        <f t="shared" si="18"/>
+        <f>(D264-I264+1+2*K264)/M264</f>
         <v>7</v>
       </c>
       <c r="S264" s="5">
-        <f t="shared" si="19"/>
+        <f>(C264-H264+1+2*J264)/L264</f>
         <v>7</v>
       </c>
       <c r="T264" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.18</v>
       </c>
       <c r="U264" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
         <v>0.65244728888888892</v>
       </c>
       <c r="V264" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
         <v>0.29465361433691756</v>
       </c>
       <c r="W264" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
         <v>0.38595473427230048</v>
       </c>
       <c r="X264" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24">
-      <c r="A265" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24">
       <c r="B265" s="2"/>
       <c r="C265" s="2">
         <v>7</v>
@@ -11469,35 +11476,34 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="R265" s="5">
-        <f t="shared" si="18"/>
+        <f>(D265-I265+1+2*K265)/M265</f>
         <v>7</v>
       </c>
       <c r="S265" s="5">
-        <f t="shared" si="19"/>
+        <f>(C265-H265+1+2*J265)/L265</f>
         <v>7</v>
       </c>
       <c r="T265" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>13.089999999999998</v>
       </c>
       <c r="U265" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
         <v>0.7755505509433962</v>
       </c>
       <c r="V265" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
         <v>0.87662941421800955</v>
       </c>
       <c r="W265" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
         <v>0.90228686048780504</v>
       </c>
       <c r="X265" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24">
-      <c r="A266" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24">
       <c r="B266" s="2"/>
       <c r="C266" s="2">
         <v>7</v>
@@ -11542,35 +11548,34 @@
         <v>3.46</v>
       </c>
       <c r="R266" s="5">
-        <f t="shared" si="18"/>
+        <f>(D266-I266+1+2*K266)/M266</f>
         <v>7</v>
       </c>
       <c r="S266" s="5">
-        <f t="shared" si="19"/>
+        <f>(C266-H266+1+2*J266)/L266</f>
         <v>7</v>
       </c>
       <c r="T266" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7.84</v>
       </c>
       <c r="U266" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
         <v>0.79428365603864748</v>
       </c>
       <c r="V266" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
         <v>0.71176067878787874</v>
       </c>
       <c r="W266" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
         <v>0.47519282312138728</v>
       </c>
       <c r="X266" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24">
-      <c r="A267" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24">
       <c r="B267" s="2"/>
       <c r="C267" s="2">
         <v>14</v>
@@ -11615,35 +11620,34 @@
         <v>7.66</v>
       </c>
       <c r="R267" s="5">
-        <f t="shared" si="18"/>
+        <f>(D267-I267+1+2*K267)/M267</f>
         <v>7</v>
       </c>
       <c r="S267" s="5">
-        <f t="shared" si="19"/>
+        <f>(C267-H267+1+2*J267)/L267</f>
         <v>7</v>
       </c>
       <c r="T267" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>19.87</v>
       </c>
       <c r="U267" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
         <v>0.8139441425742574</v>
       </c>
       <c r="V267" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
         <v>0.40248890281517746</v>
       </c>
       <c r="W267" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
         <v>0.42928646684073107</v>
       </c>
       <c r="X267" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24">
-      <c r="A268" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24">
       <c r="B268" s="2"/>
       <c r="C268" s="2">
         <v>7</v>
@@ -11688,39 +11692,39 @@
         <v>3.62</v>
       </c>
       <c r="R268" s="5">
-        <f t="shared" si="18"/>
+        <f>(D268-I268+1+2*K268)/M268</f>
         <v>7</v>
       </c>
       <c r="S268" s="5">
-        <f t="shared" si="19"/>
+        <f>(C268-H268+1+2*J268)/L268</f>
         <v>7</v>
       </c>
       <c r="T268" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7.9799999999999995</v>
       </c>
       <c r="U268" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
         <v>0.72750759646017704</v>
       </c>
       <c r="V268" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
         <v>0.78293674666666646</v>
       </c>
       <c r="W268" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
         <v>0.45418982541436465</v>
       </c>
       <c r="X268" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="2:24">
       <c r="T270" s="1"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="2:24">
       <c r="D271" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -11728,28 +11732,28 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" t="s">
+        <v>34</v>
+      </c>
+      <c r="C278" t="s">
+        <v>35</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278" t="s">
         <v>36</v>
       </c>
-      <c r="C278" t="s">
+      <c r="G278" t="s">
         <v>37</v>
       </c>
-      <c r="D278" t="s">
-        <v>2</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="H278" t="s">
         <v>38</v>
       </c>
-      <c r="G278" t="s">
+      <c r="I278" t="s">
         <v>39</v>
       </c>
-      <c r="H278" t="s">
+      <c r="J278" t="s">
         <v>40</v>
-      </c>
-      <c r="I278" t="s">
-        <v>41</v>
-      </c>
-      <c r="J278" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -11769,11 +11773,11 @@
         <v>3.194</v>
       </c>
       <c r="I280" s="1">
-        <f t="shared" ref="I280:J291" si="20">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <f t="shared" ref="I280:J291" si="12">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
         <v>1.0994828121534708</v>
       </c>
       <c r="J280" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5521502817783344</v>
       </c>
     </row>
@@ -11794,11 +11798,11 @@
         <v>9.3680000000000003</v>
       </c>
       <c r="I281" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.0143361636828643</v>
       </c>
       <c r="J281" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.0584047822374039</v>
       </c>
     </row>
@@ -11819,11 +11823,11 @@
         <v>4.4459999999999997</v>
       </c>
       <c r="I282" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>3.9605096864389857</v>
       </c>
       <c r="J282" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>4.4602501124606393</v>
       </c>
     </row>
@@ -11844,11 +11848,11 @@
         <v>5.9329999999999998</v>
       </c>
       <c r="I283" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>6.3446718924972005</v>
       </c>
       <c r="J283" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>6.6847368953311985</v>
       </c>
     </row>
@@ -11869,11 +11873,11 @@
         <v>4.9909999999999997</v>
       </c>
       <c r="I284" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.1988792284336489</v>
       </c>
       <c r="J284" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.344925826487678</v>
       </c>
     </row>
@@ -11894,11 +11898,11 @@
         <v>10.648999999999999</v>
       </c>
       <c r="I285" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.225808035062089</v>
       </c>
       <c r="J285" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.2606864118696592</v>
       </c>
     </row>
@@ -11919,11 +11923,11 @@
         <v>9.2870000000000008</v>
       </c>
       <c r="I286" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>2.6998591452991452</v>
       </c>
       <c r="J286" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>2.8911488317002263</v>
       </c>
     </row>
@@ -11944,11 +11948,11 @@
         <v>8.0670000000000002</v>
       </c>
       <c r="I287" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>6.5114827694919377</v>
       </c>
       <c r="J287" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>6.6567743151109466</v>
       </c>
     </row>
@@ -11969,11 +11973,11 @@
         <v>7.5430000000000001</v>
       </c>
       <c r="I288" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.2348767220063581</v>
       </c>
       <c r="J288" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.3904027575235318</v>
       </c>
     </row>
@@ -11994,11 +11998,11 @@
         <v>13.08</v>
       </c>
       <c r="I289" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5428919455682233</v>
       </c>
       <c r="J289" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.603640366972477</v>
       </c>
     </row>
@@ -12019,11 +12023,11 @@
         <v>11.64</v>
       </c>
       <c r="I290" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>3.3974110787172007</v>
       </c>
       <c r="J290" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>3.6040577319587626</v>
       </c>
     </row>
@@ -12044,38 +12048,38 @@
         <v>12.426</v>
       </c>
       <c r="I291" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>6.7690572004840668</v>
       </c>
       <c r="J291" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>6.7521699661999035</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
+        <v>41</v>
+      </c>
+      <c r="C295" t="s">
+        <v>35</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" t="s">
+        <v>36</v>
+      </c>
+      <c r="G295" t="s">
+        <v>42</v>
+      </c>
+      <c r="H295" t="s">
         <v>43</v>
       </c>
-      <c r="C295" t="s">
-        <v>37</v>
-      </c>
-      <c r="D295" t="s">
-        <v>2</v>
-      </c>
-      <c r="E295" t="s">
-        <v>38</v>
-      </c>
-      <c r="G295" t="s">
-        <v>44</v>
-      </c>
-      <c r="H295" t="s">
-        <v>45</v>
-      </c>
       <c r="I295" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J295" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -12095,11 +12099,11 @@
         <v>1.1439999999999999</v>
       </c>
       <c r="I296" s="1">
-        <f t="shared" ref="I296:J311" si="21">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <f t="shared" ref="I296:J311" si="13">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
         <v>0.88674503171247365</v>
       </c>
       <c r="J296" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0.73326993006993013</v>
       </c>
     </row>
@@ -12120,11 +12124,11 @@
         <v>5.2759999999999998</v>
       </c>
       <c r="I297" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0.82646384236453208</v>
       </c>
       <c r="J297" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0.31799120545868087</v>
       </c>
     </row>
@@ -12145,11 +12149,11 @@
         <v>1.9390000000000001</v>
       </c>
       <c r="I298" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.7041357034027422</v>
       </c>
       <c r="J298" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.7305019082001032</v>
       </c>
     </row>
@@ -12170,11 +12174,11 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="I299" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>3.0741577645442049</v>
       </c>
       <c r="J299" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>3.0448667876588016</v>
       </c>
     </row>
@@ -12195,11 +12199,11 @@
         <v>2.1360000000000001</v>
       </c>
       <c r="I300" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.0217549330085263</v>
       </c>
       <c r="J300" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.5709003745318351</v>
       </c>
     </row>
@@ -12220,11 +12224,11 @@
         <v>9.8849999999999998</v>
       </c>
       <c r="I301" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.8584564940459707</v>
       </c>
       <c r="J301" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0.67889594334850778</v>
       </c>
     </row>
@@ -12245,11 +12249,11 @@
         <v>3.073</v>
       </c>
       <c r="I302" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>3.4082714068054845</v>
       </c>
       <c r="J302" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>4.3676449072567527</v>
       </c>
     </row>
@@ -12270,11 +12274,11 @@
         <v>4.4690000000000003</v>
       </c>
       <c r="I303" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>5.2002219294846963</v>
       </c>
       <c r="J303" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>6.0066112329380177</v>
       </c>
     </row>
@@ -12295,11 +12299,11 @@
         <v>9.3409999999999993</v>
       </c>
       <c r="I304" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0.80125203271446477</v>
       </c>
       <c r="J304" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.4368668022695645</v>
       </c>
     </row>
@@ -12320,11 +12324,11 @@
         <v>19.28</v>
       </c>
       <c r="I305" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>3.6094588678230468</v>
       </c>
       <c r="J305" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.3923000829875518</v>
       </c>
     </row>
@@ -12345,11 +12349,11 @@
         <v>19.834</v>
       </c>
       <c r="I306" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>5.1326091013384314</v>
       </c>
       <c r="J306" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>2.7068211757587979</v>
       </c>
     </row>
@@ -12370,11 +12374,11 @@
         <v>12.526999999999999</v>
       </c>
       <c r="I307" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>7.133075293961336</v>
       </c>
       <c r="J307" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>8.5714203240999449</v>
       </c>
     </row>
@@ -12395,11 +12399,11 @@
         <v>48.783999999999999</v>
       </c>
       <c r="I308" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0.83275824349687455</v>
       </c>
       <c r="J308" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.1005061331584125</v>
       </c>
     </row>
@@ -12420,11 +12424,11 @@
         <v>44.481999999999999</v>
       </c>
       <c r="I309" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>5.0552816572504709</v>
       </c>
       <c r="J309" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>2.4138793759273414</v>
       </c>
     </row>
@@ -12445,11 +12449,11 @@
         <v>50.537999999999997</v>
       </c>
       <c r="I310" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>5.3376174980737208</v>
       </c>
       <c r="J310" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>4.2492454153310382</v>
       </c>
     </row>
@@ -12470,11 +12474,11 @@
         <v>65.528000000000006</v>
       </c>
       <c r="I311" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>8.86071813830665</v>
       </c>
       <c r="J311" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>6.5544000976681716</v>
       </c>
     </row>
@@ -12495,11 +12499,11 @@
         <v>6.3170000000000002</v>
       </c>
       <c r="I312" s="1">
-        <f t="shared" ref="I312:J317" si="22">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
+        <f t="shared" ref="I312:J317" si="14">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
         <v>0.78049697095006731</v>
       </c>
       <c r="J312" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.1951475700490737</v>
       </c>
     </row>
@@ -12520,11 +12524,11 @@
         <v>9.7010000000000005</v>
       </c>
       <c r="I313" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.85953745090225997</v>
       </c>
       <c r="J313" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.5564884444902585</v>
       </c>
     </row>
@@ -12545,11 +12549,11 @@
         <v>29.562000000000001</v>
       </c>
       <c r="I314" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.8233908750934931</v>
       </c>
       <c r="J314" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.0215475542926731</v>
       </c>
     </row>
@@ -12570,11 +12574,11 @@
         <v>3.5379999999999998</v>
       </c>
       <c r="I315" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.43614946273830157</v>
       </c>
       <c r="J315" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.35565042396834368</v>
       </c>
     </row>
@@ -12595,11 +12599,11 @@
         <v>14.545999999999999</v>
       </c>
       <c r="I316" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.41174450261780104</v>
       </c>
       <c r="J316" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.17300855217929328</v>
       </c>
     </row>
@@ -12620,11 +12624,11 @@
         <v>8.2539999999999996</v>
       </c>
       <c r="I317" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.88783997177632756</v>
       </c>
       <c r="J317" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.60978492851950572</v>
       </c>
     </row>
@@ -12638,28 +12642,28 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C320" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D320" t="s">
         <v>2</v>
       </c>
       <c r="E320" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I320" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J320" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="321" spans="3:10">
@@ -12704,11 +12708,11 @@
         <v>615.34299999999996</v>
       </c>
       <c r="I322" s="1">
-        <f t="shared" ref="I322:I339" si="23">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <f t="shared" ref="I322:I339" si="15">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
         <v>4.0193426422293479</v>
       </c>
       <c r="J322" s="1">
-        <f t="shared" ref="J322:J339" si="24">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <f t="shared" ref="J322:J339" si="16">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
         <v>1.855711796510239</v>
       </c>
     </row>
@@ -12729,11 +12733,11 @@
         <v>308.05700000000002</v>
       </c>
       <c r="I323" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.9948058185176634</v>
       </c>
       <c r="J323" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.8533895740074076</v>
       </c>
     </row>
@@ -12754,11 +12758,11 @@
         <v>153.94200000000001</v>
       </c>
       <c r="I324" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.9654250034680145</v>
       </c>
       <c r="J324" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.849485844175079</v>
       </c>
     </row>
@@ -12779,11 +12783,11 @@
         <v>874.75699999999995</v>
       </c>
       <c r="I325" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.1098273112737593</v>
       </c>
       <c r="J325" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.3809087003590712</v>
       </c>
     </row>
@@ -12804,11 +12808,11 @@
         <v>439.33100000000002</v>
       </c>
       <c r="I326" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.1390901323243559</v>
       </c>
       <c r="J326" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.3747715867990193</v>
       </c>
     </row>
@@ -12829,11 +12833,11 @@
         <v>219.988</v>
       </c>
       <c r="I327" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.1069557809831481</v>
       </c>
       <c r="J327" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.3727561867010927</v>
       </c>
     </row>
@@ -12854,11 +12858,11 @@
         <v>110.417</v>
       </c>
       <c r="I328" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.0636210114128772</v>
       </c>
       <c r="J328" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.3638505919921751</v>
       </c>
     </row>
@@ -12879,11 +12883,11 @@
         <v>656.89800000000002</v>
       </c>
       <c r="I329" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>2.4587560991496291</v>
       </c>
       <c r="J329" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.034372532721975</v>
       </c>
     </row>
@@ -12904,11 +12908,11 @@
         <v>330.07100000000003</v>
       </c>
       <c r="I330" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>2.460928947578104</v>
       </c>
       <c r="J330" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.0292895286165704</v>
       </c>
     </row>
@@ -12929,11 +12933,11 @@
         <v>165.96</v>
       </c>
       <c r="I331" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>2.3962042008153359</v>
       </c>
       <c r="J331" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.0235557483731019</v>
       </c>
     </row>
@@ -12954,11 +12958,11 @@
         <v>83.847999999999999</v>
       </c>
       <c r="I332" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>2.329835623081578</v>
       </c>
       <c r="J332" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.0102586058582197</v>
       </c>
     </row>
@@ -12979,11 +12983,11 @@
         <v>1108.1469999999999</v>
       </c>
       <c r="I333" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.8681343184170345</v>
       </c>
       <c r="J333" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.7032368449312232</v>
       </c>
     </row>
@@ -13004,11 +13008,11 @@
         <v>554.92100000000005</v>
       </c>
       <c r="I334" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.8425485653326383</v>
       </c>
       <c r="J334" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.7006355859662907</v>
       </c>
     </row>
@@ -13029,11 +13033,11 @@
         <v>277.726</v>
       </c>
       <c r="I335" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.8160256202891989</v>
       </c>
       <c r="J335" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.6990098154295963</v>
       </c>
     </row>
@@ -13054,11 +13058,11 @@
         <v>138.886</v>
       </c>
       <c r="I336" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.774469913378248</v>
       </c>
       <c r="J336" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.6941985110090287</v>
       </c>
     </row>
@@ -13079,11 +13083,11 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="I337" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.82510898360655738</v>
       </c>
       <c r="J337" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.30504029090909091</v>
       </c>
     </row>
@@ -13104,11 +13108,11 @@
         <v>444.95499999999998</v>
       </c>
       <c r="I338" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>1.7756695027370921</v>
       </c>
       <c r="J338" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.67869759413873321</v>
       </c>
     </row>
@@ -13129,11 +13133,11 @@
         <v>159.91499999999999</v>
       </c>
       <c r="I339" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>3.0640207792207788</v>
       </c>
       <c r="J339" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.7768800675358785</v>
       </c>
     </row>
@@ -13160,53 +13164,53 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10">
         <v>375.51</v>
@@ -13214,15 +13218,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>3502</v>
@@ -13230,17 +13234,17 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/results/train/DeepBench_NV_TitanXp.xlsx
+++ b/results/train/DeepBench_NV_TitanXp.xlsx
@@ -638,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,7 +649,7 @@
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4992,27 +4992,27 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="R175" s="5">
-        <f>(D175-I175+1+2*K175)/M175</f>
-        <v>78.5</v>
+        <f>1+ROUNDDOWN((($C175-$H175+2*$J175)/$L175),0)</f>
+        <v>341</v>
       </c>
       <c r="S175" s="5">
-        <f>(C175-H175+1+2*J175)/L175</f>
-        <v>340.5</v>
+        <f>1+ROUNDDOWN((($D175-$I175+2*$K175)/$M175),0)</f>
+        <v>79</v>
       </c>
       <c r="T175" s="1">
         <f>N175+P175</f>
         <v>0.36899999999999999</v>
       </c>
       <c r="U175" s="1">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
-        <v>5.4741504000000001</v>
+        <f t="shared" ref="U175:U206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
+        <v>5.5171071999999999</v>
       </c>
       <c r="V175" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W175" s="1">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
-        <v>2.8043803278688526</v>
+        <f t="shared" ref="W175:W206" si="11">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
+        <v>2.8263868852459018</v>
       </c>
       <c r="X175" s="2" t="s">
         <v>30</v>
@@ -5062,27 +5062,27 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="R176" s="5">
-        <f>(D176-I176+1+2*K176)/M176</f>
-        <v>78.5</v>
+        <f t="shared" ref="R176:R239" si="12">1+ROUNDDOWN((($C176-$H176+2*$J176)/$L176),0)</f>
+        <v>341</v>
       </c>
       <c r="S176" s="5">
-        <f>(C176-H176+1+2*J176)/L176</f>
-        <v>340.5</v>
+        <f t="shared" ref="S176:S239" si="13">1+ROUNDDOWN((($D176-$I176+2*$K176)/$M176),0)</f>
+        <v>79</v>
       </c>
       <c r="T176" s="1">
         <f>N176+P176</f>
         <v>0.67200000000000004</v>
       </c>
       <c r="U176" s="1">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
-        <v>6.4859601895734595</v>
+        <f t="shared" si="10"/>
+        <v>6.5368568720379141</v>
       </c>
       <c r="V176" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W176" s="1">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
-        <v>2.9686281995661603</v>
+        <f t="shared" si="11"/>
+        <v>2.9919236442516266</v>
       </c>
       <c r="X176" s="2" t="s">
         <v>30</v>
@@ -5132,27 +5132,27 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="R177" s="5">
-        <f>(D177-I177+1+2*K177)/M177</f>
-        <v>78.5</v>
+        <f t="shared" si="12"/>
+        <v>341</v>
       </c>
       <c r="S177" s="5">
-        <f>(C177-H177+1+2*J177)/L177</f>
-        <v>340.5</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="T177" s="1">
         <f>N177+P177</f>
         <v>1.256</v>
       </c>
       <c r="U177" s="1">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
-        <v>6.6595503649635033</v>
+        <f t="shared" si="10"/>
+        <v>6.7118092457420921</v>
       </c>
       <c r="V177" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W177" s="1">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
-        <v>3.2391422485207104</v>
+        <f t="shared" si="11"/>
+        <v>3.2645604733727813</v>
       </c>
       <c r="X177" s="2" t="s">
         <v>30</v>
@@ -5202,27 +5202,27 @@
         <v>1.6460000000000001</v>
       </c>
       <c r="R178" s="5">
-        <f>(D178-I178+1+2*K178)/M178</f>
-        <v>78.5</v>
+        <f t="shared" si="12"/>
+        <v>341</v>
       </c>
       <c r="S178" s="5">
-        <f>(C178-H178+1+2*J178)/L178</f>
-        <v>340.5</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="T178" s="1">
         <f>N178+P178</f>
         <v>2.4640000000000004</v>
       </c>
       <c r="U178" s="1">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
-        <v>6.6921154034229824</v>
+        <f t="shared" si="10"/>
+        <v>6.7446298288508553</v>
       </c>
       <c r="V178" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W178" s="1">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
-        <v>3.3257292831105709</v>
+        <f t="shared" si="11"/>
+        <v>3.351826974483596</v>
       </c>
       <c r="X178" s="2" t="s">
         <v>30</v>
@@ -5274,28 +5274,28 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="R179" s="5">
-        <f>(D179-I179+1+2*K179)/M179</f>
-        <v>37.5</v>
+        <f t="shared" si="12"/>
+        <v>166</v>
       </c>
       <c r="S179" s="5">
-        <f>(C179-H179+1+2*J179)/L179</f>
-        <v>166</v>
+        <f t="shared" si="13"/>
+        <v>38</v>
       </c>
       <c r="T179" s="1">
         <f>N179+O179+P179</f>
         <v>2.1549999999999998</v>
       </c>
       <c r="U179" s="1">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
-        <v>6.5715463917525767</v>
+        <f t="shared" si="10"/>
+        <v>6.6591670103092779</v>
       </c>
       <c r="V179" s="1">
         <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
-        <v>1.9042270351008215</v>
+        <v>1.929616728902166</v>
       </c>
       <c r="W179" s="1">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
-        <v>5.9573831775700938</v>
+        <f t="shared" si="11"/>
+        <v>6.036814953271028</v>
       </c>
       <c r="X179" s="2" t="s">
         <v>30</v>
@@ -5347,28 +5347,28 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="R180" s="5">
-        <f>(D180-I180+1+2*K180)/M180</f>
-        <v>37.5</v>
+        <f t="shared" si="12"/>
+        <v>166</v>
       </c>
       <c r="S180" s="5">
-        <f>(C180-H180+1+2*J180)/L180</f>
-        <v>166</v>
+        <f t="shared" si="13"/>
+        <v>38</v>
       </c>
       <c r="T180" s="1">
         <f>N180+O180+P180</f>
         <v>4.1879999999999997</v>
       </c>
       <c r="U180" s="1">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
-        <v>7.5660534124629084</v>
+        <f t="shared" si="10"/>
+        <v>7.6669341246290799</v>
       </c>
       <c r="V180" s="1">
         <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
-        <v>1.9113643178410793</v>
+        <v>1.9368491754122936</v>
       </c>
       <c r="W180" s="1">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
-        <v>6.0278014184397168</v>
+        <f t="shared" si="11"/>
+        <v>6.1081721040189132</v>
       </c>
       <c r="X180" s="2" t="s">
         <v>30</v>
@@ -5420,28 +5420,28 @@
         <v>1.6580000000000001</v>
       </c>
       <c r="R181" s="5">
-        <f>(D181-I181+1+2*K181)/M181</f>
-        <v>37.5</v>
+        <f t="shared" si="12"/>
+        <v>166</v>
       </c>
       <c r="S181" s="5">
-        <f>(C181-H181+1+2*J181)/L181</f>
-        <v>166</v>
+        <f t="shared" si="13"/>
+        <v>38</v>
       </c>
       <c r="T181" s="1">
         <f>N181+O181+P181</f>
         <v>8.27</v>
       </c>
       <c r="U181" s="1">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
-        <v>7.7974311926605502</v>
+        <f t="shared" si="10"/>
+        <v>7.9013969418960235</v>
       </c>
       <c r="V181" s="1">
         <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
-        <v>1.9228959276018098</v>
+        <v>1.9485345399698339</v>
       </c>
       <c r="W181" s="1">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
-        <v>6.1514113389626042</v>
+        <f t="shared" si="11"/>
+        <v>6.2334301568154391</v>
       </c>
       <c r="X181" s="2" t="s">
         <v>30</v>
@@ -5493,28 +5493,28 @@
         <v>3.282</v>
       </c>
       <c r="R182" s="5">
-        <f>(D182-I182+1+2*K182)/M182</f>
-        <v>37.5</v>
+        <f t="shared" si="12"/>
+        <v>166</v>
       </c>
       <c r="S182" s="5">
-        <f>(C182-H182+1+2*J182)/L182</f>
-        <v>166</v>
+        <f t="shared" si="13"/>
+        <v>38</v>
       </c>
       <c r="T182" s="1">
         <f>N182+O182+P182</f>
         <v>16.472000000000001</v>
       </c>
       <c r="U182" s="1">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
-        <v>8.1299641291351126</v>
+        <f t="shared" si="10"/>
+        <v>8.2383636508569147</v>
       </c>
       <c r="V182" s="1">
         <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
-        <v>1.9097537683737476</v>
+        <v>1.9352171519520642</v>
       </c>
       <c r="W182" s="1">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
-        <v>6.2151371115173673</v>
+        <f t="shared" si="11"/>
+        <v>6.2980056063375986</v>
       </c>
       <c r="X182" s="2" t="s">
         <v>30</v>
@@ -5564,26 +5564,26 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="R183" s="5">
-        <f>(D183-I183+1+2*K183)/M183</f>
+        <f t="shared" si="12"/>
+        <v>480</v>
+      </c>
+      <c r="S183" s="5">
+        <f t="shared" si="13"/>
         <v>48</v>
-      </c>
-      <c r="S183" s="5">
-        <f>(C183-H183+1+2*J183)/L183</f>
-        <v>480</v>
       </c>
       <c r="T183" s="1">
         <f>N183+P183</f>
         <v>0.48299999999999998</v>
       </c>
       <c r="U183" s="1">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.9232027826086957</v>
       </c>
       <c r="V183" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W183" s="1">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>0.28850086956521742</v>
       </c>
       <c r="X183" s="2" t="s">
@@ -5636,19 +5636,19 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="R184" s="5">
-        <f>(D184-I184+1+2*K184)/M184</f>
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="S184" s="5">
+        <f t="shared" si="13"/>
         <v>24</v>
-      </c>
-      <c r="S184" s="5">
-        <f>(C184-H184+1+2*J184)/L184</f>
-        <v>240</v>
       </c>
       <c r="T184" s="1">
         <f>N184+O184+P184</f>
         <v>0.63000000000000012</v>
       </c>
       <c r="U184" s="1">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>6.1996099270072982</v>
       </c>
       <c r="V184" s="1">
@@ -5656,7 +5656,7 @@
         <v>5.479655225806451</v>
       </c>
       <c r="W184" s="1">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>2.5128596449704141</v>
       </c>
       <c r="X184" s="2" t="s">
@@ -5709,19 +5709,19 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="R185" s="5">
-        <f>(D185-I185+1+2*K185)/M185</f>
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="S185" s="5">
+        <f t="shared" si="13"/>
         <v>12</v>
-      </c>
-      <c r="S185" s="5">
-        <f>(C185-H185+1+2*J185)/L185</f>
-        <v>120</v>
       </c>
       <c r="T185" s="1">
         <f>N185+O185+P185</f>
         <v>0.42099999999999999</v>
       </c>
       <c r="U185" s="1">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>8.756150103092784</v>
       </c>
       <c r="V185" s="1">
@@ -5729,7 +5729,7 @@
         <v>10.616832</v>
       </c>
       <c r="W185" s="1">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>3.4809285245901642</v>
       </c>
       <c r="X185" s="2" t="s">
@@ -5782,19 +5782,19 @@
         <v>0.129</v>
       </c>
       <c r="R186" s="5">
-        <f>(D186-I186+1+2*K186)/M186</f>
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="S186" s="5">
+        <f t="shared" si="13"/>
         <v>6</v>
-      </c>
-      <c r="S186" s="5">
-        <f>(C186-H186+1+2*J186)/L186</f>
-        <v>60</v>
       </c>
       <c r="T186" s="1">
         <f>N186+O186+P186</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="U186" s="1">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>10.751222278481015</v>
       </c>
       <c r="V186" s="1">
@@ -5802,7 +5802,7 @@
         <v>11.796480000000001</v>
       </c>
       <c r="W186" s="1">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>6.5840818604651172</v>
       </c>
       <c r="X186" s="2" t="s">
@@ -5853,11 +5853,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="R187" s="5">
-        <f>(D187-I187+1+2*K187)/M187</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="S187" s="5">
-        <f>(C187-H187+1+2*J187)/L187</f>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="T187" s="1">
@@ -5865,14 +5865,14 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="U187" s="1">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.2394880000000001</v>
       </c>
       <c r="V187" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W187" s="1">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>0.82266906122448979</v>
       </c>
       <c r="X187" s="2" t="s">
@@ -5925,11 +5925,11 @@
         <v>0.312</v>
       </c>
       <c r="R188" s="5">
-        <f>(D188-I188+1+2*K188)/M188</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="S188" s="5">
-        <f>(C188-H188+1+2*J188)/L188</f>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="T188" s="1">
@@ -5937,7 +5937,7 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="U188" s="1">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>10.68277505590062</v>
       </c>
       <c r="V188" s="1">
@@ -5945,7 +5945,7 @@
         <v>10.616832</v>
       </c>
       <c r="W188" s="1">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.5125858461538471</v>
       </c>
       <c r="X188" s="2" t="s">
@@ -5998,11 +5998,11 @@
         <v>0.156</v>
       </c>
       <c r="R189" s="5">
-        <f>(D189-I189+1+2*K189)/M189</f>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="S189" s="5">
-        <f>(C189-H189+1+2*J189)/L189</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="T189" s="1">
@@ -6010,7 +6010,7 @@
         <v>0.43400000000000005</v>
       </c>
       <c r="U189" s="1">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>12.463237565217389</v>
       </c>
       <c r="V189" s="1">
@@ -6018,7 +6018,7 @@
         <v>12.285191314285713</v>
       </c>
       <c r="W189" s="1">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>11.025171692307694</v>
       </c>
       <c r="X189" s="2" t="s">
@@ -6071,11 +6071,11 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="R190" s="5">
-        <f>(D190-I190+1+2*K190)/M190</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S190" s="5">
-        <f>(C190-H190+1+2*J190)/L190</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T190" s="1">
@@ -6083,7 +6083,7 @@
         <v>0.28500000000000003</v>
       </c>
       <c r="U190" s="1">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>11.417827555555554</v>
       </c>
       <c r="V190" s="1">
@@ -6091,7 +6091,7 @@
         <v>12.845056</v>
       </c>
       <c r="W190" s="1">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>7.0063941818181821</v>
       </c>
       <c r="X190" s="2" t="s">
@@ -6144,11 +6144,11 @@
         <v>0.20600000000000002</v>
       </c>
       <c r="R191" s="5">
-        <f>(D191-I191+1+2*K191)/M191</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S191" s="5">
-        <f>(C191-H191+1+2*J191)/L191</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T191" s="1">
@@ -6156,7 +6156,7 @@
         <v>0.57600000000000007</v>
       </c>
       <c r="U191" s="1">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>5.0815606153846149</v>
       </c>
       <c r="V191" s="1">
@@ -6164,7 +6164,7 @@
         <v>4.9193831489361708</v>
       </c>
       <c r="W191" s="1">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>4.4895341359223302</v>
       </c>
       <c r="X191" s="2" t="s">
@@ -6215,11 +6215,11 @@
         <v>1.2430000000000001</v>
       </c>
       <c r="R192" s="5">
-        <f>(D192-I192+1+2*K192)/M192</f>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="S192" s="5">
-        <f>(C192-H192+1+2*J192)/L192</f>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
       <c r="T192" s="1">
@@ -6227,14 +6227,14 @@
         <v>1.6140000000000001</v>
       </c>
       <c r="U192" s="1">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.7392615849056603</v>
       </c>
       <c r="V192" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W192" s="1">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>1.1160627900241351</v>
       </c>
       <c r="X192" s="2" t="s">
@@ -6287,11 +6287,11 @@
         <v>1.5940000000000001</v>
       </c>
       <c r="R193" s="5">
-        <f>(D193-I193+1+2*K193)/M193</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="S193" s="5">
-        <f>(C193-H193+1+2*J193)/L193</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="T193" s="1">
@@ -6299,7 +6299,7 @@
         <v>3.4779999999999998</v>
       </c>
       <c r="U193" s="1">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>15.208123856115108</v>
       </c>
       <c r="V193" s="1">
@@ -6307,7 +6307,7 @@
         <v>16.243144360043907</v>
       </c>
       <c r="W193" s="1">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>9.2832525169385196</v>
       </c>
       <c r="X193" s="2" t="s">
@@ -6361,11 +6361,11 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="R194" s="5">
-        <f>(D194-I194+1+2*K194)/M194</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="S194" s="5">
-        <f>(C194-H194+1+2*J194)/L194</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="T194" s="1">
@@ -6373,7 +6373,7 @@
         <v>2.7720000000000002</v>
       </c>
       <c r="U194" s="1">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>15.543597176470588</v>
       </c>
       <c r="V194" s="1">
@@ -6381,7 +6381,7 @@
         <v>16.119285960784314</v>
       </c>
       <c r="W194" s="1">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>16.405215645232815</v>
       </c>
       <c r="X194" s="2" t="s">
@@ -6435,11 +6435,11 @@
         <v>0.69400000000000006</v>
       </c>
       <c r="R195" s="5">
-        <f>(D195-I195+1+2*K195)/M195</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S195" s="5">
-        <f>(C195-H195+1+2*J195)/L195</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T195" s="1">
@@ -6447,7 +6447,7 @@
         <v>2.6019999999999999</v>
       </c>
       <c r="U195" s="1">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>15.192509765913758</v>
       </c>
       <c r="V195" s="1">
@@ -6455,7 +6455,7 @@
         <v>15.843152582441114</v>
       </c>
       <c r="W195" s="1">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>21.322052610951008</v>
       </c>
       <c r="X195" s="2" t="s">
@@ -6508,11 +6508,11 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="R196" s="5">
-        <f>(D196-I196+1+2*K196)/M196</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S196" s="5">
-        <f>(C196-H196+1+2*J196)/L196</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T196" s="1">
@@ -6520,7 +6520,7 @@
         <v>0.28500000000000003</v>
       </c>
       <c r="U196" s="1">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>91.342620444444435</v>
       </c>
       <c r="V196" s="1">
@@ -6528,7 +6528,7 @@
         <v>102.760448</v>
       </c>
       <c r="W196" s="1">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>56.051153454545457</v>
       </c>
       <c r="X196" s="2" t="s">
@@ -6581,11 +6581,11 @@
         <v>0.35299999999999998</v>
       </c>
       <c r="R197" s="5">
-        <f>(D197-I197+1+2*K197)/M197</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S197" s="5">
-        <f>(C197-H197+1+2*J197)/L197</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T197" s="1">
@@ -6593,7 +6593,7 @@
         <v>1.0310000000000001</v>
       </c>
       <c r="U197" s="1">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>5.3614146782608687</v>
       </c>
       <c r="V197" s="1">
@@ -6601,7 +6601,7 @@
         <v>5.5546188108108101</v>
       </c>
       <c r="W197" s="1">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.2399095297450433</v>
       </c>
       <c r="X197" s="2" t="s">
@@ -6652,11 +6652,11 @@
         <v>2.5020000000000002</v>
       </c>
       <c r="R198" s="5">
-        <f>(D198-I198+1+2*K198)/M198</f>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="S198" s="5">
-        <f>(C198-H198+1+2*J198)/L198</f>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
       <c r="T198" s="1">
@@ -6664,14 +6664,14 @@
         <v>3.2150000000000003</v>
       </c>
       <c r="U198" s="1">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.8913493632538567</v>
       </c>
       <c r="V198" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W198" s="1">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>1.1089256978417266</v>
       </c>
       <c r="X198" s="2" t="s">
@@ -6724,11 +6724,11 @@
         <v>3.5550000000000002</v>
       </c>
       <c r="R199" s="5">
-        <f>(D199-I199+1+2*K199)/M199</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="S199" s="5">
-        <f>(C199-H199+1+2*J199)/L199</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="T199" s="1">
@@ -6736,7 +6736,7 @@
         <v>7.2560000000000002</v>
       </c>
       <c r="U199" s="1">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>15.430140262773721</v>
       </c>
       <c r="V199" s="1">
@@ -6744,7 +6744,7 @@
         <v>16.598434674144698</v>
       </c>
       <c r="W199" s="1">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>8.3248970531645572</v>
       </c>
       <c r="X199" s="2" t="s">
@@ -6798,11 +6798,11 @@
         <v>1.788</v>
       </c>
       <c r="R200" s="5">
-        <f>(D200-I200+1+2*K200)/M200</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="S200" s="5">
-        <f>(C200-H200+1+2*J200)/L200</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="T200" s="1">
@@ -6810,7 +6810,7 @@
         <v>4.9630000000000001</v>
       </c>
       <c r="U200" s="1">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>18.313743207920794</v>
       </c>
       <c r="V200" s="1">
@@ -6818,7 +6818,7 @@
         <v>18.983328431045543</v>
       </c>
       <c r="W200" s="1">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>16.552018469798657</v>
       </c>
       <c r="X200" s="2" t="s">
@@ -6872,11 +6872,11 @@
         <v>1.3160000000000001</v>
       </c>
       <c r="R201" s="5">
-        <f>(D201-I201+1+2*K201)/M201</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S201" s="5">
-        <f>(C201-H201+1+2*J201)/L201</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T201" s="1">
@@ -6884,7 +6884,7 @@
         <v>3.9470000000000001</v>
       </c>
       <c r="U201" s="1">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>22.036492199553237</v>
       </c>
       <c r="V201" s="1">
@@ -6892,7 +6892,7 @@
         <v>22.977491478260866</v>
       </c>
       <c r="W201" s="1">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>22.488608680851062</v>
       </c>
       <c r="X201" s="2" t="s">
@@ -6945,11 +6945,11 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="R202" s="5">
-        <f>(D202-I202+1+2*K202)/M202</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S202" s="5">
-        <f>(C202-H202+1+2*J202)/L202</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T202" s="1">
@@ -6957,7 +6957,7 @@
         <v>2.5529999999999999</v>
       </c>
       <c r="U202" s="1">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>17.958136543689321</v>
       </c>
       <c r="V202" s="1">
@@ -6965,7 +6965,7 @@
         <v>17.958136543689321</v>
       </c>
       <c r="W202" s="1">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>16.350833714917126</v>
       </c>
       <c r="X202" s="2" t="s">
@@ -7018,11 +7018,11 @@
         <v>0.45600000000000002</v>
       </c>
       <c r="R203" s="5">
-        <f>(D203-I203+1+2*K203)/M203</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S203" s="5">
-        <f>(C203-H203+1+2*J203)/L203</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T203" s="1">
@@ -7030,7 +7030,7 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="U203" s="1">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>6.9537145263157889</v>
       </c>
       <c r="V203" s="1">
@@ -7038,7 +7038,7 @@
         <v>8.1484055682819374</v>
       </c>
       <c r="W203" s="1">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>8.112666947368421</v>
       </c>
       <c r="X203" s="2" t="s">
@@ -7089,11 +7089,11 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="R204" s="5">
-        <f>(D204-I204+1+2*K204)/M204</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="S204" s="5">
-        <f>(C204-H204+1+2*J204)/L204</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="T204" s="1">
@@ -7101,14 +7101,14 @@
         <v>1.444</v>
       </c>
       <c r="U204" s="1">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>7.2623970461538461</v>
       </c>
       <c r="V204" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W204" s="1">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>4.0870632727272724</v>
       </c>
       <c r="X204" s="2" t="s">
@@ -7161,27 +7161,27 @@
         <v>0.35699999999999998</v>
       </c>
       <c r="R205" s="5">
-        <f>(D205-I205+1+2*K205)/M205</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S205" s="5">
-        <f>(C205-H205+1+2*J205)/L205</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T205" s="1">
-        <f t="shared" ref="T205:T228" si="10">N205+O205+P205</f>
+        <f t="shared" ref="T205:T228" si="14">N205+O205+P205</f>
         <v>1.635</v>
       </c>
       <c r="U205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>5.1725057718120802</v>
       </c>
       <c r="V205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
+        <f t="shared" ref="V205:V228" si="15">(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>7.2298626641651023</v>
       </c>
       <c r="W205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>10.794164705882354</v>
       </c>
       <c r="X205" s="2" t="s">
@@ -7234,27 +7234,27 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="R206" s="5">
-        <f>(D206-I206+1+2*K206)/M206</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S206" s="5">
-        <f>(C206-H206+1+2*J206)/L206</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T206" s="1">
+        <f t="shared" si="14"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="U206" s="1">
         <f t="shared" si="10"/>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="U206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
         <v>5.9284873846153836</v>
       </c>
       <c r="V206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>4.3419907605633803</v>
       </c>
       <c r="W206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>2.3179048421052633</v>
       </c>
       <c r="X206" s="2" t="s">
@@ -7307,27 +7307,27 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="R207" s="5">
-        <f>(D207-I207+1+2*K207)/M207</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S207" s="5">
-        <f>(C207-H207+1+2*J207)/L207</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T207" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.427</v>
       </c>
       <c r="U207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
+        <f t="shared" ref="U207:U238" si="16">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>7.6006248520710065</v>
       </c>
       <c r="V207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>8.4879224669603524</v>
       </c>
       <c r="W207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
+        <f t="shared" ref="W207:W238" si="17">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>8.2693493562231755</v>
       </c>
       <c r="X207" s="2" t="s">
@@ -7380,27 +7380,27 @@
         <v>0.17</v>
       </c>
       <c r="R208" s="5">
-        <f>(D208-I208+1+2*K208)/M208</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S208" s="5">
-        <f>(C208-H208+1+2*J208)/L208</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T208" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.35799999999999998</v>
       </c>
       <c r="U208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>6.4901335578947359</v>
       </c>
       <c r="V208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>6.6297063225806454</v>
       </c>
       <c r="W208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>3.6268393411764701</v>
       </c>
       <c r="X208" s="2" t="s">
@@ -7453,27 +7453,27 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="R209" s="5">
-        <f>(D209-I209+1+2*K209)/M209</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S209" s="5">
-        <f>(C209-H209+1+2*J209)/L209</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T209" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.252</v>
       </c>
       <c r="U209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>3.4078719999999993</v>
       </c>
       <c r="V209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>5.4749419016393448</v>
       </c>
       <c r="W209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>3.5910909247311831</v>
       </c>
       <c r="X209" s="2" t="s">
@@ -7526,27 +7526,27 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="R210" s="5">
-        <f>(D210-I210+1+2*K210)/M210</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S210" s="5">
-        <f>(C210-H210+1+2*J210)/L210</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T210" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.42</v>
       </c>
       <c r="U210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>3.6427951134380447</v>
       </c>
       <c r="V210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>6.7008719101123599</v>
       </c>
       <c r="W210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>6.4126623655913972</v>
       </c>
       <c r="X210" s="2" t="s">
@@ -7599,27 +7599,27 @@
         <v>3.14</v>
       </c>
       <c r="R211" s="5">
-        <f>(D211-I211+1+2*K211)/M211</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="S211" s="5">
-        <f>(C211-H211+1+2*J211)/L211</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="T211" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.1899999999999995</v>
       </c>
       <c r="U211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.2169000421052631</v>
       </c>
       <c r="V211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>1.2089464470588236</v>
       </c>
       <c r="W211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.58907263184713377</v>
       </c>
       <c r="X211" t="s">
@@ -7670,27 +7670,27 @@
         <v>0.74</v>
       </c>
       <c r="R212" s="5">
-        <f>(D212-I212+1+2*K212)/M212</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S212" s="5">
-        <f>(C212-H212+1+2*J212)/L212</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T212" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.1399999999999997</v>
       </c>
       <c r="U212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.39523249230769225</v>
       </c>
       <c r="V212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.23354647272727269</v>
       </c>
       <c r="W212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.27773094054054054</v>
       </c>
       <c r="X212" t="s">
@@ -7741,27 +7741,27 @@
         <v>1.6</v>
       </c>
       <c r="R213" s="5">
-        <f>(D213-I213+1+2*K213)/M213</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S213" s="5">
-        <f>(C213-H213+1+2*J213)/L213</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T213" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.32</v>
       </c>
       <c r="U213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.3600647529411762</v>
       </c>
       <c r="V213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>1.3600647529411762</v>
       </c>
       <c r="W213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>1.15605504</v>
       </c>
       <c r="X213" t="s">
@@ -7813,27 +7813,27 @@
         <v>0.71</v>
       </c>
       <c r="R214" s="5">
-        <f>(D214-I214+1+2*K214)/M214</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S214" s="5">
-        <f>(C214-H214+1+2*J214)/L214</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T214" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.38</v>
       </c>
       <c r="U214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.50127047804878055</v>
       </c>
       <c r="V214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.16311182222222223</v>
       </c>
       <c r="W214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.28946605070422543</v>
       </c>
       <c r="X214" t="s">
@@ -7884,27 +7884,27 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="R215" s="5">
-        <f>(D215-I215+1+2*K215)/M215</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S215" s="5">
-        <f>(C215-H215+1+2*J215)/L215</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T215" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.3900000000000001</v>
       </c>
       <c r="U215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.50127047804878055</v>
       </c>
       <c r="V215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.47795557209302325</v>
       </c>
       <c r="W215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.37367435636363633</v>
       </c>
       <c r="X215" t="s">
@@ -7955,27 +7955,27 @@
         <v>2.09</v>
       </c>
       <c r="R216" s="5">
-        <f>(D216-I216+1+2*K216)/M216</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S216" s="5">
-        <f>(C216-H216+1+2*J216)/L216</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T216" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="U216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.32120576</v>
       </c>
       <c r="V216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>1.3600647529411762</v>
       </c>
       <c r="W216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.88501821244019141</v>
       </c>
       <c r="X216" t="s">
@@ -8027,27 +8027,27 @@
         <v>0.86</v>
       </c>
       <c r="R217" s="5">
-        <f>(D217-I217+1+2*K217)/M217</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S217" s="5">
-        <f>(C217-H217+1+2*J217)/L217</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T217" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.59</v>
       </c>
       <c r="U217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.31618599384615387</v>
       </c>
       <c r="V217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.19029712592592593</v>
       </c>
       <c r="W217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.23897778604651163</v>
       </c>
       <c r="X217" t="s">
@@ -8099,27 +8099,27 @@
         <v>0.66</v>
       </c>
       <c r="R218" s="5">
-        <f>(D218-I218+1+2*K218)/M218</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S218" s="5">
-        <f>(C218-H218+1+2*J218)/L218</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T218" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.73</v>
       </c>
       <c r="U218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.3877752754716981</v>
       </c>
       <c r="V218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.38059425185185186</v>
       </c>
       <c r="W218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.31139529696969698</v>
       </c>
       <c r="X218" t="s">
@@ -8171,28 +8171,28 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="R219" s="5">
-        <f>(D219-I219+1+2*K219)/M219</f>
-        <v>6.5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="S219" s="5">
-        <f>(C219-H219+1+2*J219)/L219</f>
-        <v>6.5</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="T219" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.35</v>
       </c>
       <c r="U219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
-        <v>0.3526554109452737</v>
+        <f t="shared" si="16"/>
+        <v>0.4089968079601991</v>
       </c>
       <c r="V219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
-        <v>0.30953597205240174</v>
+        <f t="shared" si="15"/>
+        <v>0.358988464628821</v>
       </c>
       <c r="W219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
-        <v>0.34577432975609762</v>
+        <f t="shared" si="17"/>
+        <v>0.40101638243902443</v>
       </c>
       <c r="X219" t="s">
         <v>30</v>
@@ -8242,27 +8242,27 @@
         <v>5.9</v>
       </c>
       <c r="R220" s="5">
-        <f>(D220-I220+1+2*K220)/M220</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="S220" s="5">
-        <f>(C220-H220+1+2*J220)/L220</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="T220" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>11.61</v>
       </c>
       <c r="U220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.2980267115789472</v>
       </c>
       <c r="V220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>1.2934881566433567</v>
       </c>
       <c r="W220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.62701290305084745</v>
       </c>
       <c r="X220" t="s">
@@ -8313,27 +8313,27 @@
         <v>1.22</v>
       </c>
       <c r="R221" s="5">
-        <f>(D221-I221+1+2*K221)/M221</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S221" s="5">
-        <f>(C221-H221+1+2*J221)/L221</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T221" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="U221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.4151937292929293</v>
       </c>
       <c r="V221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.21297502176165806</v>
       </c>
       <c r="W221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.33691950163934431</v>
       </c>
       <c r="X221" t="s">
@@ -8384,27 +8384,27 @@
         <v>2.65</v>
       </c>
       <c r="R222" s="5">
-        <f>(D222-I222+1+2*K222)/M222</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S222" s="5">
-        <f>(C222-H222+1+2*J222)/L222</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T222" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.83</v>
       </c>
       <c r="U222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.4173854896551723</v>
       </c>
       <c r="V222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>1.4394459642023347</v>
       </c>
       <c r="W222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>1.3959909916981132</v>
       </c>
       <c r="X222" t="s">
@@ -8455,27 +8455,27 @@
         <v>1.01</v>
       </c>
       <c r="R223" s="5">
-        <f>(D223-I223+1+2*K223)/M223</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S223" s="5">
-        <f>(C223-H223+1+2*J223)/L223</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T223" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.2699999999999996</v>
       </c>
       <c r="U223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.53382050909090906</v>
       </c>
       <c r="V223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.27586697449664427</v>
       </c>
       <c r="W223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.4069720712871287</v>
       </c>
       <c r="X223" t="s">
@@ -8527,27 +8527,27 @@
         <v>0.79</v>
       </c>
       <c r="R224" s="5">
-        <f>(D224-I224+1+2*K224)/M224</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S224" s="5">
-        <f>(C224-H224+1+2*J224)/L224</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T224" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.98</v>
       </c>
       <c r="U224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.73400319999999986</v>
       </c>
       <c r="V224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.65244728888888892</v>
       </c>
       <c r="W224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.52030606582278482</v>
       </c>
       <c r="X224" t="s">
@@ -8598,27 +8598,27 @@
         <v>2.87</v>
       </c>
       <c r="R225" s="5">
-        <f>(D225-I225+1+2*K225)/M225</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="S225" s="5">
-        <f>(C225-H225+1+2*J225)/L225</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="T225" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.99</v>
       </c>
       <c r="U225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.456447294488189</v>
       </c>
       <c r="V225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>1.4338667162790695</v>
       </c>
       <c r="W225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>1.2889812292682927</v>
       </c>
       <c r="X225" t="s">
@@ -8669,27 +8669,27 @@
         <v>1.19</v>
       </c>
       <c r="R226" s="5">
-        <f>(D226-I226+1+2*K226)/M226</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S226" s="5">
-        <f>(C226-H226+1+2*J226)/L226</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T226" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
       <c r="U226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.6044732235294118</v>
       </c>
       <c r="V226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.30905397894736841</v>
       </c>
       <c r="W226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.34541327058823534</v>
       </c>
       <c r="X226" t="s">
@@ -8741,27 +8741,27 @@
         <v>0.99</v>
       </c>
       <c r="R227" s="5">
-        <f>(D227-I227+1+2*K227)/M227</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S227" s="5">
-        <f>(C227-H227+1+2*J227)/L227</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="T227" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.42</v>
       </c>
       <c r="U227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.58720256000000004</v>
       </c>
       <c r="V227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
+        <f t="shared" si="15"/>
         <v>0.56307094794520551</v>
       </c>
       <c r="W227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.4151937292929293</v>
       </c>
       <c r="X227" t="s">
@@ -8813,28 +8813,28 @@
         <v>3.73</v>
       </c>
       <c r="R228" s="5">
-        <f>(D228-I228+1+2*K228)/M228</f>
-        <v>6.5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="S228" s="5">
-        <f>(C228-H228+1+2*J228)/L228</f>
-        <v>6.5</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="T228" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="U228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
-        <v>0.67188376872037914</v>
+        <f t="shared" si="16"/>
+        <v>0.77922614597156392</v>
       </c>
       <c r="V228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
-        <v>0.35799867474747471</v>
+        <f t="shared" si="15"/>
+        <v>0.4151937292929293</v>
       </c>
       <c r="W228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
-        <v>0.38007366005361931</v>
+        <f t="shared" si="17"/>
+        <v>0.44079548739946378</v>
       </c>
       <c r="X228" t="s">
         <v>30</v>
@@ -8885,27 +8885,27 @@
         <v>15.17</v>
       </c>
       <c r="R229" s="5">
-        <f>(D229-I229+1+2*K229)/M229</f>
-        <v>79.5</v>
+        <f t="shared" si="12"/>
+        <v>349</v>
       </c>
       <c r="S229" s="5">
-        <f>(C229-H229+1+2*J229)/L229</f>
-        <v>349</v>
+        <f t="shared" si="13"/>
+        <v>80</v>
       </c>
       <c r="T229" s="1">
         <f>N229+P229</f>
         <v>19.25</v>
       </c>
       <c r="U229" s="1">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
-        <v>0.34817882352941176</v>
+        <f t="shared" si="16"/>
+        <v>0.35036862745098035</v>
       </c>
       <c r="V229" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W229" s="1">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
-        <v>9.3643348714568239E-2</v>
+        <f t="shared" si="17"/>
+        <v>9.4232300593276197E-2</v>
       </c>
       <c r="X229" t="s">
         <v>30</v>
@@ -8956,27 +8956,27 @@
         <v>51.27</v>
       </c>
       <c r="R230" s="5">
-        <f>(D230-I230+1+2*K230)/M230</f>
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="S230" s="5">
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="S230" s="5">
-        <f>(C230-H230+1+2*J230)/L230</f>
-        <v>350</v>
-      </c>
       <c r="T230" s="1">
-        <f t="shared" ref="T230:T268" si="11">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="18">N230+O230+P230</f>
         <v>103.91</v>
       </c>
       <c r="U230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.2554216647662486</v>
       </c>
       <c r="V230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
+        <f t="shared" ref="V230:V268" si="19">(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>1.2544680592480062</v>
       </c>
       <c r="W230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.64423920421298997</v>
       </c>
       <c r="X230" t="s">
@@ -9028,27 +9028,27 @@
         <v>48.89</v>
       </c>
       <c r="R231" s="5">
-        <f>(D231-I231+1+2*K231)/M231</f>
+        <f t="shared" si="12"/>
+        <v>174</v>
+      </c>
+      <c r="S231" s="5">
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="S231" s="5">
-        <f>(C231-H231+1+2*J231)/L231</f>
-        <v>174</v>
-      </c>
       <c r="T231" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>185.33999999999997</v>
       </c>
       <c r="U231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.0289849514113836</v>
       </c>
       <c r="V231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.47702166255497158</v>
       </c>
       <c r="W231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.90964879525465325</v>
       </c>
       <c r="X231" t="s">
@@ -9100,27 +9100,27 @@
         <v>21.43</v>
       </c>
       <c r="R232" s="5">
-        <f>(D232-I232+1+2*K232)/M232</f>
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="S232" s="5">
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="S232" s="5">
-        <f>(C232-H232+1+2*J232)/L232</f>
-        <v>175</v>
-      </c>
       <c r="T232" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>61.61</v>
       </c>
       <c r="U232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.6279026121241993</v>
       </c>
       <c r="V232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>1.6606407239819003</v>
       </c>
       <c r="W232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>1.5413039664022397</v>
       </c>
       <c r="X232" t="s">
@@ -9172,28 +9172,28 @@
         <v>45.57</v>
       </c>
       <c r="R233" s="5">
-        <f>(D233-I233+1+2*K233)/M233</f>
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="S233" s="5">
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="S233" s="5">
-        <f>(C233-H233+1+2*J233)/L233</f>
-        <v>86.5</v>
-      </c>
       <c r="T233" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>170.04</v>
       </c>
       <c r="U233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
-        <v>1.0304560248744321</v>
+        <f t="shared" si="16"/>
+        <v>1.0364124180817986</v>
       </c>
       <c r="V233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
-        <v>0.52121178804742319</v>
+        <f t="shared" si="19"/>
+        <v>0.52422457294943137</v>
       </c>
       <c r="W233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
-        <v>0.94543266183892904</v>
+        <f t="shared" si="17"/>
+        <v>0.95089759052007894</v>
       </c>
       <c r="X233" t="s">
         <v>30</v>
@@ -9244,27 +9244,27 @@
         <v>14.56</v>
       </c>
       <c r="R234" s="5">
-        <f>(D234-I234+1+2*K234)/M234</f>
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="S234" s="5">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="S234" s="5">
-        <f>(C234-H234+1+2*J234)/L234</f>
-        <v>84</v>
-      </c>
       <c r="T234" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>42.64</v>
       </c>
       <c r="U234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>2.2345974799154336</v>
       </c>
       <c r="V234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>2.2828609244060472</v>
       </c>
       <c r="W234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>2.1778116923076922</v>
       </c>
       <c r="X234" t="s">
@@ -9316,27 +9316,27 @@
         <v>41.73</v>
       </c>
       <c r="R235" s="5">
-        <f>(D235-I235+1+2*K235)/M235</f>
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="S235" s="5">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="S235" s="5">
-        <f>(C235-H235+1+2*J235)/L235</f>
-        <v>41</v>
-      </c>
       <c r="T235" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>148.85999999999999</v>
       </c>
       <c r="U235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.92832184261036466</v>
       </c>
       <c r="V235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.59117577387318554</v>
       </c>
       <c r="W235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.92720954708842562</v>
       </c>
       <c r="X235" t="s">
@@ -9388,27 +9388,27 @@
         <v>15.1</v>
       </c>
       <c r="R236" s="5">
-        <f>(D236-I236+1+2*K236)/M236</f>
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="S236" s="5">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="S236" s="5">
-        <f>(C236-H236+1+2*J236)/L236</f>
-        <v>42</v>
-      </c>
       <c r="T236" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>46.06</v>
       </c>
       <c r="U236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>2.0196775949044588</v>
       </c>
       <c r="V236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>2.0779120733944958</v>
       </c>
       <c r="W236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>2.0999296847682123</v>
       </c>
       <c r="X236" t="s">
@@ -9460,27 +9460,27 @@
         <v>5.3</v>
       </c>
       <c r="R237" s="5">
-        <f>(D237-I237+1+2*K237)/M237</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="S237" s="5">
-        <f>(C237-H237+1+2*J237)/L237</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="T237" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>8.5599999999999987</v>
       </c>
       <c r="U237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.50745900246913578</v>
       </c>
       <c r="V237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.50127047804878055</v>
       </c>
       <c r="W237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.15511011018867923</v>
       </c>
       <c r="X237" t="s">
@@ -9532,27 +9532,27 @@
         <v>2.31</v>
       </c>
       <c r="R238" s="5">
-        <f>(D238-I238+1+2*K238)/M238</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="S238" s="5">
-        <f>(C238-H238+1+2*J238)/L238</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="T238" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>5.01</v>
       </c>
       <c r="U238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>0.56307094794520551</v>
       </c>
       <c r="V238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.66297063225806463</v>
       </c>
       <c r="W238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.35588033939393937</v>
       </c>
       <c r="X238" t="s">
@@ -9604,27 +9604,27 @@
         <v>3.41</v>
       </c>
       <c r="R239" s="5">
-        <f>(D239-I239+1+2*K239)/M239</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="S239" s="5">
-        <f>(C239-H239+1+2*J239)/L239</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="T239" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.1</v>
       </c>
       <c r="U239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
+        <f t="shared" ref="U239:U268" si="20">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>0.69668100338983052</v>
       </c>
       <c r="V239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.54442621456953633</v>
       </c>
       <c r="W239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
+        <f t="shared" ref="W239:W268" si="21">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>0.24108022991202344</v>
       </c>
       <c r="X239" t="s">
@@ -9676,27 +9676,27 @@
         <v>1.31</v>
       </c>
       <c r="R240" s="5">
-        <f>(D240-I240+1+2*K240)/M240</f>
+        <f t="shared" ref="R240:R268" si="22">1+ROUNDDOWN((($C240-$H240+2*$J240)/$L240),0)</f>
         <v>28</v>
       </c>
       <c r="S240" s="5">
-        <f>(C240-H240+1+2*J240)/L240</f>
+        <f t="shared" ref="S240:S268" si="23">1+ROUNDDOWN((($D240-$I240+2*$K240)/$M240),0)</f>
         <v>28</v>
       </c>
       <c r="T240" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.3900000000000006</v>
       </c>
       <c r="U240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.64225279999999996</v>
       </c>
       <c r="V240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.16845975081967215</v>
       </c>
       <c r="W240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.3137723603053435</v>
       </c>
       <c r="X240" t="s">
@@ -9748,27 +9748,27 @@
         <v>1.85</v>
       </c>
       <c r="R241" s="5">
-        <f>(D241-I241+1+2*K241)/M241</f>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="S241" s="5">
-        <f>(C241-H241+1+2*J241)/L241</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="T241" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.07</v>
       </c>
       <c r="U241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.70869274482758615</v>
       </c>
       <c r="V241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.7755505509433962</v>
       </c>
       <c r="W241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.44436950486486487</v>
       </c>
       <c r="X241" t="s">
@@ -9820,27 +9820,27 @@
         <v>1.76</v>
       </c>
       <c r="R242" s="5">
-        <f>(D242-I242+1+2*K242)/M242</f>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="S242" s="5">
-        <f>(C242-H242+1+2*J242)/L242</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="T242" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3.99</v>
       </c>
       <c r="U242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.79813940194174748</v>
       </c>
       <c r="V242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.68506965333333336</v>
       </c>
       <c r="W242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.46709294545454538</v>
       </c>
       <c r="X242" t="s">
@@ -9892,27 +9892,27 @@
         <v>1.22</v>
       </c>
       <c r="R243" s="5">
-        <f>(D243-I243+1+2*K243)/M243</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S243" s="5">
-        <f>(C243-H243+1+2*J243)/L243</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T243" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.26</v>
       </c>
       <c r="U243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.52030606582278482</v>
       </c>
       <c r="V243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.18268524088888891</v>
       </c>
       <c r="W243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.33691950163934431</v>
       </c>
       <c r="X243" t="s">
@@ -9964,27 +9964,27 @@
         <v>1.67</v>
       </c>
       <c r="R244" s="5">
-        <f>(D244-I244+1+2*K244)/M244</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S244" s="5">
-        <f>(C244-H244+1+2*J244)/L244</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T244" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.0199999999999996</v>
       </c>
       <c r="U244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.76118850370370372</v>
       </c>
       <c r="V244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.64730990866141724</v>
       </c>
       <c r="W244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.49226561916167672</v>
       </c>
       <c r="X244" t="s">
@@ -10036,27 +10036,27 @@
         <v>3.44</v>
       </c>
       <c r="R245" s="5">
-        <f>(D245-I245+1+2*K245)/M245</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S245" s="5">
-        <f>(C245-H245+1+2*J245)/L245</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T245" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>10.7</v>
       </c>
       <c r="U245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.78293674666666646</v>
       </c>
       <c r="V245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.31863704806201543</v>
       </c>
       <c r="W245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.47795557209302325</v>
       </c>
       <c r="X245" t="s">
@@ -10108,27 +10108,27 @@
         <v>1.89</v>
       </c>
       <c r="R246" s="5">
-        <f>(D246-I246+1+2*K246)/M246</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S246" s="5">
-        <f>(C246-H246+1+2*J246)/L246</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T246" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.26</v>
       </c>
       <c r="U246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.66836063739837404</v>
       </c>
       <c r="V246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.721125950877193</v>
       </c>
       <c r="W246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.43496485925925926</v>
       </c>
       <c r="X246" t="s">
@@ -10180,27 +10180,27 @@
         <v>1.66</v>
       </c>
       <c r="R247" s="5">
-        <f>(D247-I247+1+2*K247)/M247</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S247" s="5">
-        <f>(C247-H247+1+2*J247)/L247</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T247" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.04</v>
       </c>
       <c r="U247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.73400319999999986</v>
       </c>
       <c r="V247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.65244728888888892</v>
       </c>
       <c r="W247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.49523107469879518</v>
       </c>
       <c r="X247" t="s">
@@ -10252,27 +10252,27 @@
         <v>1.46</v>
       </c>
       <c r="R248" s="5">
-        <f>(D248-I248+1+2*K248)/M248</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S248" s="5">
-        <f>(C248-H248+1+2*J248)/L248</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T248" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4.01</v>
       </c>
       <c r="U248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.35131777094017097</v>
       </c>
       <c r="V248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.2978563710144928</v>
       </c>
       <c r="W248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.28153547397260276</v>
       </c>
       <c r="X248" t="s">
@@ -10324,27 +10324,27 @@
         <v>3.51</v>
       </c>
       <c r="R249" s="5">
-        <f>(D249-I249+1+2*K249)/M249</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S249" s="5">
-        <f>(C249-H249+1+2*J249)/L249</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T249" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>10.14</v>
       </c>
       <c r="U249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.55881814622356496</v>
       </c>
       <c r="V249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.55713495903614452</v>
       </c>
       <c r="W249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.52697665641025648</v>
       </c>
       <c r="X249" t="s">
@@ -10396,27 +10396,27 @@
         <v>2.63</v>
       </c>
       <c r="R250" s="5">
-        <f>(D250-I250+1+2*K250)/M250</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S250" s="5">
-        <f>(C250-H250+1+2*J250)/L250</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T250" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.38</v>
       </c>
       <c r="U250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.53382050909090906</v>
       </c>
       <c r="V250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.37198352217194569</v>
       </c>
       <c r="W250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.31257930950570345</v>
       </c>
       <c r="X250" t="s">
@@ -10468,27 +10468,27 @@
         <v>5.19</v>
       </c>
       <c r="R251" s="5">
-        <f>(D251-I251+1+2*K251)/M251</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S251" s="5">
-        <f>(C251-H251+1+2*J251)/L251</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T251" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>11.99</v>
       </c>
       <c r="U251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.54442621456953633</v>
       </c>
       <c r="V251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.43496485925925926</v>
       </c>
       <c r="W251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.3167952154142582</v>
       </c>
       <c r="X251" t="s">
@@ -10540,27 +10540,27 @@
         <v>2.66</v>
       </c>
       <c r="R252" s="5">
-        <f>(D252-I252+1+2*K252)/M252</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S252" s="5">
-        <f>(C252-H252+1+2*J252)/L252</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T252" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.32</v>
       </c>
       <c r="U252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.3877752754716981</v>
       </c>
       <c r="V252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.53382050909090906</v>
       </c>
       <c r="W252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.30905397894736841</v>
       </c>
       <c r="X252" t="s">
@@ -10612,27 +10612,27 @@
         <v>10.8</v>
       </c>
       <c r="R253" s="5">
-        <f>(D253-I253+1+2*K253)/M253</f>
+        <f t="shared" si="22"/>
         <v>112</v>
       </c>
       <c r="S253" s="5">
-        <f>(C253-H253+1+2*J253)/L253</f>
+        <f t="shared" si="23"/>
         <v>112</v>
       </c>
       <c r="T253" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>17.010000000000002</v>
       </c>
       <c r="U253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.53209293462783169</v>
       </c>
       <c r="V253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.52697665641025637</v>
       </c>
       <c r="W253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.15223770074074072</v>
       </c>
       <c r="X253" t="s">
@@ -10684,27 +10684,27 @@
         <v>4.33</v>
       </c>
       <c r="R254" s="5">
-        <f>(D254-I254+1+2*K254)/M254</f>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="S254" s="5">
-        <f>(C254-H254+1+2*J254)/L254</f>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="T254" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>9.4600000000000009</v>
       </c>
       <c r="U254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.60670375202952032</v>
       </c>
       <c r="V254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.67940792066115707</v>
       </c>
       <c r="W254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.37971528129330256</v>
       </c>
       <c r="X254" t="s">
@@ -10756,27 +10756,27 @@
         <v>6.65</v>
       </c>
       <c r="R255" s="5">
-        <f>(D255-I255+1+2*K255)/M255</f>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="S255" s="5">
-        <f>(C255-H255+1+2*J255)/L255</f>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="T255" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>11.82</v>
       </c>
       <c r="U255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.70565114506437765</v>
       </c>
       <c r="V255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.57893210140845086</v>
       </c>
       <c r="W255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.2472431831578947</v>
       </c>
       <c r="X255" t="s">
@@ -10828,27 +10828,27 @@
         <v>2.31</v>
       </c>
       <c r="R256" s="5">
-        <f>(D256-I256+1+2*K256)/M256</f>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="S256" s="5">
-        <f>(C256-H256+1+2*J256)/L256</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="T256" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.8900000000000006</v>
       </c>
       <c r="U256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.66836063739837404</v>
       </c>
       <c r="V256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.18898473195402302</v>
       </c>
       <c r="W256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.35588033939393937</v>
       </c>
       <c r="X256" t="s">
@@ -10900,27 +10900,27 @@
         <v>2.96</v>
       </c>
       <c r="R257" s="5">
-        <f>(D257-I257+1+2*K257)/M257</f>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="S257" s="5">
-        <f>(C257-H257+1+2*J257)/L257</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="T257" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.2299999999999995</v>
       </c>
       <c r="U257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.74396704434389138</v>
       </c>
       <c r="V257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.79813940194174748</v>
       </c>
       <c r="W257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.55546188108108108</v>
       </c>
       <c r="X257" t="s">
@@ -10972,27 +10972,27 @@
         <v>2.99</v>
       </c>
       <c r="R258" s="5">
-        <f>(D258-I258+1+2*K258)/M258</f>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="S258" s="5">
-        <f>(C258-H258+1+2*J258)/L258</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="T258" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.25</v>
       </c>
       <c r="U258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.81799361592039821</v>
       </c>
       <c r="V258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.73074096355555562</v>
       </c>
       <c r="W258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.54988868494983278</v>
       </c>
       <c r="X258" t="s">
@@ -11044,27 +11044,27 @@
         <v>1.91</v>
       </c>
       <c r="R259" s="5">
-        <f>(D259-I259+1+2*K259)/M259</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S259" s="5">
-        <f>(C259-H259+1+2*J259)/L259</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T259" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.86</v>
       </c>
       <c r="U259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.74061584144144144</v>
       </c>
       <c r="V259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.21408426666666669</v>
       </c>
       <c r="W259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.43041025340314137</v>
       </c>
       <c r="X259" t="s">
@@ -11116,27 +11116,27 @@
         <v>2.84</v>
       </c>
       <c r="R260" s="5">
-        <f>(D260-I260+1+2*K260)/M260</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S260" s="5">
-        <f>(C260-H260+1+2*J260)/L260</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T260" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.83</v>
       </c>
       <c r="U260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.8139441425742574</v>
       </c>
       <c r="V260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.83460262335025381</v>
       </c>
       <c r="W260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.57893210140845086</v>
       </c>
       <c r="X260" t="s">
@@ -11188,27 +11188,27 @@
         <v>5.72</v>
       </c>
       <c r="R261" s="5">
-        <f>(D261-I261+1+2*K261)/M261</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S261" s="5">
-        <f>(C261-H261+1+2*J261)/L261</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T261" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>18.309999999999999</v>
       </c>
       <c r="U261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.78668285550239248</v>
       </c>
       <c r="V261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.39100289369797858</v>
       </c>
       <c r="W261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.57488362517482516</v>
       </c>
       <c r="X261" t="s">
@@ -11260,27 +11260,27 @@
         <v>2.9</v>
       </c>
       <c r="R262" s="5">
-        <f>(D262-I262+1+2*K262)/M262</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S262" s="5">
-        <f>(C262-H262+1+2*J262)/L262</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T262" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.88</v>
       </c>
       <c r="U262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.84750884948453609</v>
       </c>
       <c r="V262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.80596429803921554</v>
       </c>
       <c r="W262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.56695419586206897</v>
       </c>
       <c r="X262" t="s">
@@ -11332,27 +11332,27 @@
         <v>2.85</v>
       </c>
       <c r="R263" s="5">
-        <f>(D263-I263+1+2*K263)/M263</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S263" s="5">
-        <f>(C263-H263+1+2*J263)/L263</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T263" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="U263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.83038745858585861</v>
       </c>
       <c r="V263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.83460262335025381</v>
       </c>
       <c r="W263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.57690076070175444</v>
       </c>
       <c r="X263" t="s">
@@ -11404,27 +11404,27 @@
         <v>2.13</v>
       </c>
       <c r="R264" s="5">
-        <f>(D264-I264+1+2*K264)/M264</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S264" s="5">
-        <f>(C264-H264+1+2*J264)/L264</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T264" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.18</v>
       </c>
       <c r="U264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.65244728888888892</v>
       </c>
       <c r="V264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.29465361433691756</v>
       </c>
       <c r="W264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.38595473427230048</v>
       </c>
       <c r="X264" t="s">
@@ -11476,27 +11476,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="R265" s="5">
-        <f>(D265-I265+1+2*K265)/M265</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S265" s="5">
-        <f>(C265-H265+1+2*J265)/L265</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T265" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>13.089999999999998</v>
       </c>
       <c r="U265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.7755505509433962</v>
       </c>
       <c r="V265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.87662941421800955</v>
       </c>
       <c r="W265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.90228686048780504</v>
       </c>
       <c r="X265" t="s">
@@ -11548,27 +11548,27 @@
         <v>3.46</v>
       </c>
       <c r="R266" s="5">
-        <f>(D266-I266+1+2*K266)/M266</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S266" s="5">
-        <f>(C266-H266+1+2*J266)/L266</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T266" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.84</v>
       </c>
       <c r="U266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.79428365603864748</v>
       </c>
       <c r="V266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.71176067878787874</v>
       </c>
       <c r="W266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.47519282312138728</v>
       </c>
       <c r="X266" t="s">
@@ -11620,27 +11620,27 @@
         <v>7.66</v>
       </c>
       <c r="R267" s="5">
-        <f>(D267-I267+1+2*K267)/M267</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S267" s="5">
-        <f>(C267-H267+1+2*J267)/L267</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T267" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>19.87</v>
       </c>
       <c r="U267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.8139441425742574</v>
       </c>
       <c r="V267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.40248890281517746</v>
       </c>
       <c r="W267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.42928646684073107</v>
       </c>
       <c r="X267" t="s">
@@ -11692,27 +11692,27 @@
         <v>3.62</v>
       </c>
       <c r="R268" s="5">
-        <f>(D268-I268+1+2*K268)/M268</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S268" s="5">
-        <f>(C268-H268+1+2*J268)/L268</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T268" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.9799999999999995</v>
       </c>
       <c r="U268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>0.72750759646017704</v>
       </c>
       <c r="V268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
+        <f t="shared" si="19"/>
         <v>0.78293674666666646</v>
       </c>
       <c r="W268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.45418982541436465</v>
       </c>
       <c r="X268" t="s">
@@ -11773,11 +11773,11 @@
         <v>3.194</v>
       </c>
       <c r="I280" s="1">
-        <f t="shared" ref="I280:J291" si="12">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <f t="shared" ref="I280:J291" si="24">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
         <v>1.0994828121534708</v>
       </c>
       <c r="J280" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.5521502817783344</v>
       </c>
     </row>
@@ -11798,11 +11798,11 @@
         <v>9.3680000000000003</v>
       </c>
       <c r="I281" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.0143361636828643</v>
       </c>
       <c r="J281" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.0584047822374039</v>
       </c>
     </row>
@@ -11823,11 +11823,11 @@
         <v>4.4459999999999997</v>
       </c>
       <c r="I282" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.9605096864389857</v>
       </c>
       <c r="J282" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.4602501124606393</v>
       </c>
     </row>
@@ -11848,11 +11848,11 @@
         <v>5.9329999999999998</v>
       </c>
       <c r="I283" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.3446718924972005</v>
       </c>
       <c r="J283" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.6847368953311985</v>
       </c>
     </row>
@@ -11873,11 +11873,11 @@
         <v>4.9909999999999997</v>
       </c>
       <c r="I284" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.1988792284336489</v>
       </c>
       <c r="J284" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.344925826487678</v>
       </c>
     </row>
@@ -11898,11 +11898,11 @@
         <v>10.648999999999999</v>
       </c>
       <c r="I285" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.225808035062089</v>
       </c>
       <c r="J285" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.2606864118696592</v>
       </c>
     </row>
@@ -11923,11 +11923,11 @@
         <v>9.2870000000000008</v>
       </c>
       <c r="I286" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.6998591452991452</v>
       </c>
       <c r="J286" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.8911488317002263</v>
       </c>
     </row>
@@ -11948,11 +11948,11 @@
         <v>8.0670000000000002</v>
       </c>
       <c r="I287" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.5114827694919377</v>
       </c>
       <c r="J287" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.6567743151109466</v>
       </c>
     </row>
@@ -11973,11 +11973,11 @@
         <v>7.5430000000000001</v>
       </c>
       <c r="I288" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.2348767220063581</v>
       </c>
       <c r="J288" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.3904027575235318</v>
       </c>
     </row>
@@ -11998,11 +11998,11 @@
         <v>13.08</v>
       </c>
       <c r="I289" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.5428919455682233</v>
       </c>
       <c r="J289" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.603640366972477</v>
       </c>
     </row>
@@ -12023,11 +12023,11 @@
         <v>11.64</v>
       </c>
       <c r="I290" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.3974110787172007</v>
       </c>
       <c r="J290" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.6040577319587626</v>
       </c>
     </row>
@@ -12048,11 +12048,11 @@
         <v>12.426</v>
       </c>
       <c r="I291" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.7690572004840668</v>
       </c>
       <c r="J291" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.7521699661999035</v>
       </c>
     </row>
@@ -12099,11 +12099,11 @@
         <v>1.1439999999999999</v>
       </c>
       <c r="I296" s="1">
-        <f t="shared" ref="I296:J311" si="13">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <f t="shared" ref="I296:J311" si="25">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
         <v>0.88674503171247365</v>
       </c>
       <c r="J296" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.73326993006993013</v>
       </c>
     </row>
@@ -12124,11 +12124,11 @@
         <v>5.2759999999999998</v>
       </c>
       <c r="I297" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.82646384236453208</v>
       </c>
       <c r="J297" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.31799120545868087</v>
       </c>
     </row>
@@ -12149,11 +12149,11 @@
         <v>1.9390000000000001</v>
       </c>
       <c r="I298" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.7041357034027422</v>
       </c>
       <c r="J298" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.7305019082001032</v>
       </c>
     </row>
@@ -12174,11 +12174,11 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="I299" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.0741577645442049</v>
       </c>
       <c r="J299" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.0448667876588016</v>
       </c>
     </row>
@@ -12199,11 +12199,11 @@
         <v>2.1360000000000001</v>
       </c>
       <c r="I300" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.0217549330085263</v>
       </c>
       <c r="J300" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.5709003745318351</v>
       </c>
     </row>
@@ -12224,11 +12224,11 @@
         <v>9.8849999999999998</v>
       </c>
       <c r="I301" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.8584564940459707</v>
       </c>
       <c r="J301" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.67889594334850778</v>
       </c>
     </row>
@@ -12249,11 +12249,11 @@
         <v>3.073</v>
       </c>
       <c r="I302" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.4082714068054845</v>
       </c>
       <c r="J302" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.3676449072567527</v>
       </c>
     </row>
@@ -12274,11 +12274,11 @@
         <v>4.4690000000000003</v>
       </c>
       <c r="I303" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.2002219294846963</v>
       </c>
       <c r="J303" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.0066112329380177</v>
       </c>
     </row>
@@ -12299,11 +12299,11 @@
         <v>9.3409999999999993</v>
       </c>
       <c r="I304" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.80125203271446477</v>
       </c>
       <c r="J304" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.4368668022695645</v>
       </c>
     </row>
@@ -12324,11 +12324,11 @@
         <v>19.28</v>
       </c>
       <c r="I305" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.6094588678230468</v>
       </c>
       <c r="J305" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.3923000829875518</v>
       </c>
     </row>
@@ -12349,11 +12349,11 @@
         <v>19.834</v>
       </c>
       <c r="I306" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.1326091013384314</v>
       </c>
       <c r="J306" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.7068211757587979</v>
       </c>
     </row>
@@ -12374,11 +12374,11 @@
         <v>12.526999999999999</v>
       </c>
       <c r="I307" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.133075293961336</v>
       </c>
       <c r="J307" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.5714203240999449</v>
       </c>
     </row>
@@ -12399,11 +12399,11 @@
         <v>48.783999999999999</v>
       </c>
       <c r="I308" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.83275824349687455</v>
       </c>
       <c r="J308" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.1005061331584125</v>
       </c>
     </row>
@@ -12424,11 +12424,11 @@
         <v>44.481999999999999</v>
       </c>
       <c r="I309" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.0552816572504709</v>
       </c>
       <c r="J309" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.4138793759273414</v>
       </c>
     </row>
@@ -12449,11 +12449,11 @@
         <v>50.537999999999997</v>
       </c>
       <c r="I310" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.3376174980737208</v>
       </c>
       <c r="J310" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.2492454153310382</v>
       </c>
     </row>
@@ -12474,11 +12474,11 @@
         <v>65.528000000000006</v>
       </c>
       <c r="I311" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.86071813830665</v>
       </c>
       <c r="J311" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.5544000976681716</v>
       </c>
     </row>
@@ -12499,11 +12499,11 @@
         <v>6.3170000000000002</v>
       </c>
       <c r="I312" s="1">
-        <f t="shared" ref="I312:J317" si="14">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
+        <f t="shared" ref="I312:J317" si="26">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
         <v>0.78049697095006731</v>
       </c>
       <c r="J312" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.1951475700490737</v>
       </c>
     </row>
@@ -12524,11 +12524,11 @@
         <v>9.7010000000000005</v>
       </c>
       <c r="I313" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.85953745090225997</v>
       </c>
       <c r="J313" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.5564884444902585</v>
       </c>
     </row>
@@ -12549,11 +12549,11 @@
         <v>29.562000000000001</v>
       </c>
       <c r="I314" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2.8233908750934931</v>
       </c>
       <c r="J314" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.0215475542926731</v>
       </c>
     </row>
@@ -12574,11 +12574,11 @@
         <v>3.5379999999999998</v>
       </c>
       <c r="I315" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.43614946273830157</v>
       </c>
       <c r="J315" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.35565042396834368</v>
       </c>
     </row>
@@ -12599,11 +12599,11 @@
         <v>14.545999999999999</v>
       </c>
       <c r="I316" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.41174450261780104</v>
       </c>
       <c r="J316" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.17300855217929328</v>
       </c>
     </row>
@@ -12624,11 +12624,11 @@
         <v>8.2539999999999996</v>
       </c>
       <c r="I317" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.88783997177632756</v>
       </c>
       <c r="J317" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.60978492851950572</v>
       </c>
     </row>
@@ -12708,11 +12708,11 @@
         <v>615.34299999999996</v>
       </c>
       <c r="I322" s="1">
-        <f t="shared" ref="I322:I339" si="15">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <f t="shared" ref="I322:I339" si="27">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
         <v>4.0193426422293479</v>
       </c>
       <c r="J322" s="1">
-        <f t="shared" ref="J322:J339" si="16">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <f t="shared" ref="J322:J339" si="28">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
         <v>1.855711796510239</v>
       </c>
     </row>
@@ -12733,11 +12733,11 @@
         <v>308.05700000000002</v>
       </c>
       <c r="I323" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.9948058185176634</v>
       </c>
       <c r="J323" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.8533895740074076</v>
       </c>
     </row>
@@ -12758,11 +12758,11 @@
         <v>153.94200000000001</v>
       </c>
       <c r="I324" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.9654250034680145</v>
       </c>
       <c r="J324" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.849485844175079</v>
       </c>
     </row>
@@ -12783,11 +12783,11 @@
         <v>874.75699999999995</v>
       </c>
       <c r="I325" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.1098273112737593</v>
       </c>
       <c r="J325" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.3809087003590712</v>
       </c>
     </row>
@@ -12808,11 +12808,11 @@
         <v>439.33100000000002</v>
       </c>
       <c r="I326" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.1390901323243559</v>
       </c>
       <c r="J326" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.3747715867990193</v>
       </c>
     </row>
@@ -12833,11 +12833,11 @@
         <v>219.988</v>
       </c>
       <c r="I327" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.1069557809831481</v>
       </c>
       <c r="J327" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.3727561867010927</v>
       </c>
     </row>
@@ -12858,11 +12858,11 @@
         <v>110.417</v>
       </c>
       <c r="I328" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.0636210114128772</v>
       </c>
       <c r="J328" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.3638505919921751</v>
       </c>
     </row>
@@ -12883,11 +12883,11 @@
         <v>656.89800000000002</v>
       </c>
       <c r="I329" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.4587560991496291</v>
       </c>
       <c r="J329" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.034372532721975</v>
       </c>
     </row>
@@ -12908,11 +12908,11 @@
         <v>330.07100000000003</v>
       </c>
       <c r="I330" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.460928947578104</v>
       </c>
       <c r="J330" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.0292895286165704</v>
       </c>
     </row>
@@ -12933,11 +12933,11 @@
         <v>165.96</v>
       </c>
       <c r="I331" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.3962042008153359</v>
       </c>
       <c r="J331" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.0235557483731019</v>
       </c>
     </row>
@@ -12958,11 +12958,11 @@
         <v>83.847999999999999</v>
       </c>
       <c r="I332" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.329835623081578</v>
       </c>
       <c r="J332" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.0102586058582197</v>
       </c>
     </row>
@@ -12983,11 +12983,11 @@
         <v>1108.1469999999999</v>
       </c>
       <c r="I333" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.8681343184170345</v>
       </c>
       <c r="J333" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.7032368449312232</v>
       </c>
     </row>
@@ -13008,11 +13008,11 @@
         <v>554.92100000000005</v>
       </c>
       <c r="I334" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.8425485653326383</v>
       </c>
       <c r="J334" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.7006355859662907</v>
       </c>
     </row>
@@ -13033,11 +13033,11 @@
         <v>277.726</v>
       </c>
       <c r="I335" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.8160256202891989</v>
       </c>
       <c r="J335" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.6990098154295963</v>
       </c>
     </row>
@@ -13058,11 +13058,11 @@
         <v>138.886</v>
       </c>
       <c r="I336" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.774469913378248</v>
       </c>
       <c r="J336" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.6941985110090287</v>
       </c>
     </row>
@@ -13083,11 +13083,11 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="I337" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.82510898360655738</v>
       </c>
       <c r="J337" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.30504029090909091</v>
       </c>
     </row>
@@ -13108,11 +13108,11 @@
         <v>444.95499999999998</v>
       </c>
       <c r="I338" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.7756695027370921</v>
       </c>
       <c r="J338" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.67869759413873321</v>
       </c>
     </row>
@@ -13133,11 +13133,11 @@
         <v>159.91499999999999</v>
       </c>
       <c r="I339" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.0640207792207788</v>
       </c>
       <c r="J339" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.7768800675358785</v>
       </c>
     </row>

--- a/results/train/DeepBench_NV_TitanXp.xlsx
+++ b/results/train/DeepBench_NV_TitanXp.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharan/Desktop/svail_mnt/DeepBench-ext/results/train/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9BE5778C-8250-BB45-B334-15E2B61DB14E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="0" windowWidth="32040" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="6160" yWindow="460" windowWidth="32040" windowHeight="20560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Specs" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="76">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -142,22 +148,13 @@
     <t>Time Forward (msec)</t>
   </si>
   <si>
-    <t>Time Backward (msec)</t>
-  </si>
-  <si>
     <t>TERAFLOPS FWD</t>
-  </si>
-  <si>
-    <t>TERAFLOPS BWD</t>
   </si>
   <si>
     <t>Recurrent Layers - LSTM</t>
   </si>
   <si>
     <t xml:space="preserve">Time Forward (msec) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Backward (msec) </t>
   </si>
   <si>
     <t>CPU Model</t>
@@ -231,11 +228,41 @@
   <si>
     <t>NVIDIA GTX TitanXp</t>
   </si>
+  <si>
+    <t>Time Backward wrt inputs (msec)</t>
+  </si>
+  <si>
+    <t>Time Backward wrt weights (msec)</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Inputs</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Params</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>DeepSpeech</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Machine Translation</t>
+  </si>
+  <si>
+    <t>Language Modelling</t>
+  </si>
+  <si>
+    <t>Speaker ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -266,6 +293,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -329,6 +357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,21 +633,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
     <col min="2" max="3" width="11" style="3"/>
@@ -625,8 +657,8 @@
     <col min="8" max="8" width="32.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="26.1640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="20" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="18" style="3" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" style="3" customWidth="1"/>
     <col min="15" max="19" width="11" style="3"/>
@@ -636,15 +668,15 @@
     <col min="23" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="3">
         <v>1760</v>
       </c>
@@ -696,7 +728,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="3">
         <v>1760</v>
       </c>
@@ -722,7 +754,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="3">
         <v>1760</v>
       </c>
@@ -748,7 +780,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1760</v>
       </c>
@@ -774,7 +806,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>1760</v>
       </c>
@@ -800,7 +832,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>2048</v>
       </c>
@@ -826,7 +858,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>2048</v>
       </c>
@@ -852,7 +884,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>2048</v>
       </c>
@@ -878,7 +910,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>2048</v>
       </c>
@@ -904,7 +936,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>2048</v>
       </c>
@@ -930,7 +962,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>2560</v>
       </c>
@@ -956,7 +988,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>2560</v>
       </c>
@@ -982,7 +1014,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>2560</v>
       </c>
@@ -1008,7 +1040,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>2560</v>
       </c>
@@ -1034,7 +1066,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>2560</v>
       </c>
@@ -1060,7 +1092,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>4096</v>
       </c>
@@ -1086,7 +1118,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>4096</v>
       </c>
@@ -1112,7 +1144,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>4096</v>
       </c>
@@ -1138,7 +1170,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>4096</v>
       </c>
@@ -1164,7 +1196,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>4096</v>
       </c>
@@ -1190,7 +1222,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>1760</v>
       </c>
@@ -1216,7 +1248,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>1760</v>
       </c>
@@ -1242,7 +1274,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>1760</v>
       </c>
@@ -1268,7 +1300,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>1760</v>
       </c>
@@ -1294,7 +1326,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>1760</v>
       </c>
@@ -1320,7 +1352,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>2048</v>
       </c>
@@ -1346,7 +1378,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
         <v>2048</v>
       </c>
@@ -1372,7 +1404,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
         <v>2048</v>
       </c>
@@ -1398,7 +1430,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
         <v>2048</v>
       </c>
@@ -1424,7 +1456,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>2048</v>
       </c>
@@ -1450,7 +1482,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>2560</v>
       </c>
@@ -1476,7 +1508,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>2560</v>
       </c>
@@ -1502,7 +1534,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>2560</v>
       </c>
@@ -1528,7 +1560,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>2560</v>
       </c>
@@ -1554,7 +1586,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
         <v>2560</v>
       </c>
@@ -1580,7 +1612,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
         <v>4096</v>
       </c>
@@ -1606,7 +1638,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
         <v>4096</v>
       </c>
@@ -1632,7 +1664,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
         <v>4096</v>
       </c>
@@ -1658,7 +1690,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
         <v>4096</v>
       </c>
@@ -1684,7 +1716,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
         <v>4096</v>
       </c>
@@ -1710,7 +1742,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
         <v>1760</v>
       </c>
@@ -1739,7 +1771,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
         <v>2048</v>
       </c>
@@ -1765,7 +1797,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="3">
         <v>2560</v>
       </c>
@@ -1791,7 +1823,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
         <v>4096</v>
       </c>
@@ -1817,19 +1849,19 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="3">
         <v>5124</v>
       </c>
@@ -1855,7 +1887,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="3">
         <v>35</v>
       </c>
@@ -1881,7 +1913,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="3">
         <v>5124</v>
       </c>
@@ -1907,7 +1939,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="3">
         <v>35</v>
       </c>
@@ -1933,7 +1965,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="3">
         <v>5124</v>
       </c>
@@ -1959,7 +1991,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
         <v>35</v>
       </c>
@@ -1985,7 +2017,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="3">
         <v>5124</v>
       </c>
@@ -2011,7 +2043,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
         <v>35</v>
       </c>
@@ -2037,7 +2069,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
         <v>5124</v>
       </c>
@@ -2063,7 +2095,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="3">
         <v>35</v>
       </c>
@@ -2089,7 +2121,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="3">
         <v>5124</v>
       </c>
@@ -2115,7 +2147,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
         <v>35</v>
       </c>
@@ -2141,7 +2173,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="3">
         <v>5124</v>
       </c>
@@ -2167,7 +2199,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="3">
         <v>35</v>
       </c>
@@ -2193,7 +2225,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="3">
         <v>5124</v>
       </c>
@@ -2219,7 +2251,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="3:12">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
         <v>35</v>
       </c>
@@ -2245,13 +2277,13 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67" s="3">
         <v>7680</v>
       </c>
@@ -2277,7 +2309,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68" s="3">
         <v>7680</v>
       </c>
@@ -2303,7 +2335,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69" s="3">
         <v>7680</v>
       </c>
@@ -2329,7 +2361,7 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70" s="3">
         <v>7680</v>
       </c>
@@ -2355,7 +2387,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71" s="3">
         <v>7680</v>
       </c>
@@ -2381,7 +2413,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72" s="3">
         <v>7680</v>
       </c>
@@ -2407,7 +2439,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73" s="3">
         <v>7680</v>
       </c>
@@ -2433,7 +2465,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C74" s="3">
         <v>7680</v>
       </c>
@@ -2459,7 +2491,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C75" s="3">
         <f>3*1024</f>
         <v>3072</v>
@@ -2486,7 +2518,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C76" s="3">
         <f t="shared" ref="C76:C82" si="3">3*1024</f>
         <v>3072</v>
@@ -2513,7 +2545,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C77" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2540,7 +2572,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C78" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2567,7 +2599,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C79" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2594,7 +2626,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C80" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2621,7 +2653,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2648,7 +2680,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2675,13 +2707,13 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="3">
         <v>3072</v>
       </c>
@@ -2707,7 +2739,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="3">
         <v>7680</v>
       </c>
@@ -2733,11 +2765,11 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="3:12">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="3">
         <v>512</v>
       </c>
@@ -2761,7 +2793,7 @@
         <v>0.59500290528762345</v>
       </c>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="3">
         <v>1024</v>
       </c>
@@ -2785,7 +2817,7 @@
         <v>1.0790305584826132</v>
       </c>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="3">
         <v>512</v>
       </c>
@@ -2809,7 +2841,7 @@
         <v>1.2292917166866748</v>
       </c>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="3">
         <v>1024</v>
       </c>
@@ -2833,7 +2865,7 @@
         <v>1.9318476594741185</v>
       </c>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="3">
         <v>512</v>
       </c>
@@ -2857,7 +2889,7 @@
         <v>0.82580645161290323</v>
       </c>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="3">
         <v>1024</v>
       </c>
@@ -2881,7 +2913,7 @@
         <v>1.253749617385981</v>
       </c>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="3">
         <v>512</v>
       </c>
@@ -2905,7 +2937,7 @@
         <v>1.1338408304498269</v>
       </c>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="3">
         <v>1024</v>
       </c>
@@ -2929,7 +2961,7 @@
         <v>1.1200437517090511</v>
       </c>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="3">
         <v>1024</v>
       </c>
@@ -2953,7 +2985,7 @@
         <v>7.1262446601941738</v>
       </c>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="3">
         <v>1024</v>
       </c>
@@ -2977,7 +3009,7 @@
         <v>6.6126414414414416</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97" s="3">
         <v>7680</v>
       </c>
@@ -3001,7 +3033,7 @@
         <v>10.524584021055448</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98" s="3">
         <v>6144</v>
       </c>
@@ -3025,7 +3057,7 @@
         <v>10.678001096122907</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="C99" s="7">
         <v>4608</v>
@@ -3051,7 +3083,7 @@
         <v>10.580791180042979</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="C100" s="7">
         <v>8448</v>
@@ -3077,7 +3109,7 @@
         <v>10.494336638758949</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="C101" s="7">
         <v>3072</v>
@@ -3103,7 +3135,7 @@
         <v>10.565736757399762</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102" s="3">
         <v>7680</v>
       </c>
@@ -3127,7 +3159,7 @@
         <v>9.829273729051879</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103" s="3">
         <v>6144</v>
       </c>
@@ -3151,7 +3183,7 @@
         <v>10.542315128030582</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="C104" s="7">
         <v>4608</v>
@@ -3177,7 +3209,7 @@
         <v>9.8880516902658737</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="C105" s="7">
         <v>8448</v>
@@ -3203,7 +3235,7 @@
         <v>9.7162656637552161</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="C106" s="7">
         <v>3072</v>
@@ -3229,7 +3261,7 @@
         <v>10.259551146594189</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107" s="3">
         <v>7680</v>
       </c>
@@ -3253,7 +3285,7 @@
         <v>7.864123396915077</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C108" s="3">
         <v>6144</v>
       </c>
@@ -3277,7 +3309,7 @@
         <v>4.3420232492936783</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="C109" s="7">
         <v>4608</v>
@@ -3303,7 +3335,7 @@
         <v>9.0589719222462204</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="C110" s="7">
         <v>8448</v>
@@ -3329,7 +3361,7 @@
         <v>7.5264587194663788</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="C111" s="7">
         <v>3072</v>
@@ -3355,7 +3387,7 @@
         <v>9.9482767162999082</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112" s="3">
         <v>7680</v>
       </c>
@@ -3379,7 +3411,7 @@
         <v>8.6915370375486969</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113" s="3">
         <v>6144</v>
       </c>
@@ -3403,7 +3435,7 @@
         <v>4.328285475751116</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="C114" s="7">
         <v>4608</v>
@@ -3429,7 +3461,7 @@
         <v>9.207258299682918</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="C115" s="7">
         <v>8448</v>
@@ -3455,7 +3487,7 @@
         <v>8.5511505307497888</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="C116" s="7">
         <v>3072</v>
@@ -3481,7 +3513,7 @@
         <v>10.015916155351398</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="C117" s="7">
         <v>6144</v>
@@ -3507,7 +3539,7 @@
         <v>0.90483861573033708</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="C118" s="7">
         <v>4608</v>
@@ -3533,7 +3565,7 @@
         <v>0.97207045493562216</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="C119" s="7">
         <v>8448</v>
@@ -3559,7 +3591,7 @@
         <v>0.7263990229007633</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="C120" s="7">
         <v>6144</v>
@@ -3585,7 +3617,7 @@
         <v>3.1956601904761905</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="C121" s="7">
         <v>4608</v>
@@ -3611,7 +3643,7 @@
         <v>4.9778552967032965</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="C122" s="7">
         <v>8448</v>
@@ -3637,7 +3669,7 @@
         <v>5.0414978543046365</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="C123" s="7">
         <v>6144</v>
@@ -3663,7 +3695,7 @@
         <v>1.3158600784313725</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="C124" s="7">
         <v>4608</v>
@@ -3689,7 +3721,7 @@
         <v>1.2653207597765364</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="C125" s="7">
         <v>8448</v>
@@ -3715,7 +3747,7 @@
         <v>1.2902816542372884</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="C126" s="7">
         <v>6144</v>
@@ -3741,7 +3773,7 @@
         <v>2.212380131868132</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="C127" s="7">
         <v>4608</v>
@@ -3767,7 +3799,7 @@
         <v>3.566809700787402</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="C128" s="7">
         <v>8448</v>
@@ -3793,7 +3825,7 @@
         <v>3.6250770285714289</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C129" s="7">
         <v>512</v>
       </c>
@@ -3819,7 +3851,7 @@
         <v>10.254262261075715</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C130" s="7">
         <v>512</v>
       </c>
@@ -3845,7 +3877,7 @@
         <v>9.8902825702495569</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
       <c r="C131" s="7">
         <v>512</v>
@@ -3872,7 +3904,7 @@
         <v>10.168831420720865</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
       <c r="C132" s="7">
         <v>512</v>
@@ -3899,7 +3931,7 @@
         <v>10.003000798084598</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C133" s="7">
         <v>1024</v>
       </c>
@@ -3925,7 +3957,7 @@
         <v>10.262625639504707</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C134" s="7">
         <v>1024</v>
       </c>
@@ -3951,7 +3983,7 @@
         <v>10.278057586277313</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="C135" s="7">
         <v>1024</v>
@@ -3978,7 +4010,7 @@
         <v>10.443117271142834</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="C136" s="7">
         <v>1024</v>
@@ -4005,7 +4037,7 @@
         <v>10.335700934579439</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
       <c r="C137" s="7">
         <v>512</v>
@@ -4031,7 +4063,7 @@
         <v>0.76260072727272732</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
       <c r="C138" s="7">
         <v>1024</v>
@@ -4057,7 +4089,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C139" s="7">
         <v>512</v>
       </c>
@@ -4083,7 +4115,7 @@
         <v>9.9035512306811686</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C140" s="7">
         <v>512</v>
       </c>
@@ -4109,7 +4141,7 @@
         <v>9.8728222832483326</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
       <c r="C141" s="7">
         <v>512</v>
@@ -4136,7 +4168,7 @@
         <v>9.951686175260992</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
       <c r="C142" s="7">
         <v>512</v>
@@ -4163,7 +4195,7 @@
         <v>9.8022106360792485</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C143" s="7">
         <v>1024</v>
       </c>
@@ -4189,7 +4221,7 @@
         <v>8.9471255332902384</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C144" s="7">
         <v>1024</v>
       </c>
@@ -4215,7 +4247,7 @@
         <v>10.169036872411354</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="7"/>
       <c r="C145" s="7">
         <v>1024</v>
@@ -4242,7 +4274,7 @@
         <v>9.6265871012164332</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="7"/>
       <c r="C146" s="7">
         <v>1024</v>
@@ -4269,7 +4301,7 @@
         <v>9.9990107698444355</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="7"/>
       <c r="C147" s="7">
         <v>512</v>
@@ -4295,7 +4327,7 @@
         <v>1.3981013333333332</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="7"/>
       <c r="C148" s="7">
         <v>1024</v>
@@ -4321,7 +4353,7 @@
         <v>1.8641351111111111</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C149" s="7">
         <v>512</v>
       </c>
@@ -4347,7 +4379,7 @@
         <v>9.9842769963211424</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C150" s="7">
         <v>512</v>
       </c>
@@ -4373,7 +4405,7 @@
         <v>10.085492034866245</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="7"/>
       <c r="C151" s="7">
         <v>512</v>
@@ -4400,7 +4432,7 @@
         <v>9.9666629702970297</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="7"/>
       <c r="C152" s="7">
         <v>512</v>
@@ -4427,7 +4459,7 @@
         <v>9.9251102019268842</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C153" s="7">
         <v>1024</v>
       </c>
@@ -4453,7 +4485,7 @@
         <v>9.8985934348852176</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C154" s="7">
         <v>1024</v>
       </c>
@@ -4479,7 +4511,7 @@
         <v>10.211330493000608</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="7"/>
       <c r="C155" s="7">
         <v>1024</v>
@@ -4506,7 +4538,7 @@
         <v>9.8477104284875754</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="7"/>
       <c r="C156" s="7">
         <v>1024</v>
@@ -4533,7 +4565,7 @@
         <v>9.8162850802767263</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="7"/>
       <c r="C157" s="7">
         <v>512</v>
@@ -4559,7 +4591,7 @@
         <v>2.3967451428571431</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="7"/>
       <c r="C158" s="7">
         <v>1024</v>
@@ -4585,7 +4617,7 @@
         <v>3.7282702222222222</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C159" s="7">
         <v>512</v>
       </c>
@@ -4611,7 +4643,7 @@
         <v>9.5773617492388592</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C160" s="7">
         <v>512</v>
       </c>
@@ -4637,7 +4669,7 @@
         <v>10.159799757771498</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B161" s="7"/>
       <c r="C161" s="7">
         <v>512</v>
@@ -4664,7 +4696,7 @@
         <v>9.4693798916315473</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B162" s="7"/>
       <c r="C162" s="7">
         <v>512</v>
@@ -4691,7 +4723,7 @@
         <v>9.6401179335982583</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C163" s="7">
         <v>1024</v>
       </c>
@@ -4717,7 +4749,7 @@
         <v>9.0273622696885703</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C164" s="7">
         <v>1024</v>
       </c>
@@ -4743,7 +4775,7 @@
         <v>10.040225014961102</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B165" s="7"/>
       <c r="C165" s="7">
         <v>1024</v>
@@ -4770,7 +4802,7 @@
         <v>9.121026421659236</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B166" s="7"/>
       <c r="C166" s="7">
         <v>1024</v>
@@ -4797,7 +4829,7 @@
         <v>9.4612266465370816</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B167" s="7"/>
       <c r="C167" s="7">
         <v>512</v>
@@ -4823,7 +4855,7 @@
         <v>2.3967451428571431</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B168" s="7"/>
       <c r="C168" s="7">
         <v>1024</v>
@@ -4849,26 +4881,26 @@
         <v>3.3554431999999994</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I171" s="6"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C174" s="3" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +4965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C175" s="3">
         <v>700</v>
       </c>
@@ -5006,7 +5038,7 @@
       <c r="AA175" s="6"/>
       <c r="AE175" s="6"/>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C176" s="3">
         <v>700</v>
       </c>
@@ -5079,7 +5111,7 @@
       <c r="AA176" s="6"/>
       <c r="AE176" s="6"/>
     </row>
-    <row r="177" spans="3:31">
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177" s="3">
         <v>700</v>
       </c>
@@ -5152,7 +5184,7 @@
       <c r="AA177" s="6"/>
       <c r="AE177" s="6"/>
     </row>
-    <row r="178" spans="3:31">
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178" s="3">
         <v>700</v>
       </c>
@@ -5225,7 +5257,7 @@
       <c r="AA178" s="6"/>
       <c r="AE178" s="6"/>
     </row>
-    <row r="179" spans="3:31">
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179" s="3">
         <v>341</v>
       </c>
@@ -5298,7 +5330,7 @@
       <c r="AA179" s="6"/>
       <c r="AE179" s="6"/>
     </row>
-    <row r="180" spans="3:31">
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180" s="3">
         <v>341</v>
       </c>
@@ -5371,7 +5403,7 @@
       <c r="AA180" s="6"/>
       <c r="AE180" s="6"/>
     </row>
-    <row r="181" spans="3:31">
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181" s="3">
         <v>341</v>
       </c>
@@ -5444,7 +5476,7 @@
       <c r="AA181" s="6"/>
       <c r="AE181" s="6"/>
     </row>
-    <row r="182" spans="3:31">
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182" s="3">
         <v>341</v>
       </c>
@@ -5517,7 +5549,7 @@
       <c r="AA182" s="6"/>
       <c r="AE182" s="6"/>
     </row>
-    <row r="183" spans="3:31">
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183" s="3">
         <v>480</v>
       </c>
@@ -5590,7 +5622,7 @@
       <c r="AA183" s="6"/>
       <c r="AE183" s="6"/>
     </row>
-    <row r="184" spans="3:31">
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184" s="3">
         <v>240</v>
       </c>
@@ -5663,7 +5695,7 @@
       <c r="AA184" s="6"/>
       <c r="AE184" s="6"/>
     </row>
-    <row r="185" spans="3:31">
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185" s="3">
         <v>120</v>
       </c>
@@ -5736,7 +5768,7 @@
       <c r="AA185" s="6"/>
       <c r="AE185" s="6"/>
     </row>
-    <row r="186" spans="3:31">
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186" s="3">
         <v>60</v>
       </c>
@@ -5809,7 +5841,7 @@
       <c r="AA186" s="6"/>
       <c r="AE186" s="6"/>
     </row>
-    <row r="187" spans="3:31">
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187" s="3">
         <v>108</v>
       </c>
@@ -5882,7 +5914,7 @@
       <c r="AA187" s="6"/>
       <c r="AE187" s="6"/>
     </row>
-    <row r="188" spans="3:31">
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188" s="3">
         <v>54</v>
       </c>
@@ -5955,7 +5987,7 @@
       <c r="AA188" s="6"/>
       <c r="AE188" s="6"/>
     </row>
-    <row r="189" spans="3:31">
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189" s="3">
         <v>27</v>
       </c>
@@ -6028,7 +6060,7 @@
       <c r="AA189" s="6"/>
       <c r="AE189" s="6"/>
     </row>
-    <row r="190" spans="3:31">
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190" s="3">
         <v>14</v>
       </c>
@@ -6101,7 +6133,7 @@
       <c r="AA190" s="6"/>
       <c r="AE190" s="6"/>
     </row>
-    <row r="191" spans="3:31">
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191" s="3">
         <v>7</v>
       </c>
@@ -6174,7 +6206,7 @@
       <c r="AA191" s="6"/>
       <c r="AE191" s="6"/>
     </row>
-    <row r="192" spans="3:31">
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192" s="3">
         <v>224</v>
       </c>
@@ -6247,7 +6279,7 @@
       <c r="AA192" s="6"/>
       <c r="AE192" s="6"/>
     </row>
-    <row r="193" spans="3:31">
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193" s="3">
         <v>112</v>
       </c>
@@ -6320,7 +6352,7 @@
       <c r="AA193" s="6"/>
       <c r="AE193" s="6"/>
     </row>
-    <row r="194" spans="3:31">
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194" s="3">
         <f>112/2</f>
         <v>56</v>
@@ -6394,7 +6426,7 @@
       <c r="AA194" s="6"/>
       <c r="AE194" s="6"/>
     </row>
-    <row r="195" spans="3:31">
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195" s="3">
         <f>56/2</f>
         <v>28</v>
@@ -6468,7 +6500,7 @@
       <c r="AA195" s="6"/>
       <c r="AE195" s="6"/>
     </row>
-    <row r="196" spans="3:31">
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196" s="3">
         <v>14</v>
       </c>
@@ -6541,7 +6573,7 @@
       <c r="AA196" s="6"/>
       <c r="AE196" s="6"/>
     </row>
-    <row r="197" spans="3:31">
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197" s="3">
         <v>7</v>
       </c>
@@ -6614,7 +6646,7 @@
       <c r="AA197" s="6"/>
       <c r="AE197" s="6"/>
     </row>
-    <row r="198" spans="3:31">
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198" s="3">
         <v>224</v>
       </c>
@@ -6687,7 +6719,7 @@
       <c r="AA198" s="6"/>
       <c r="AE198" s="6"/>
     </row>
-    <row r="199" spans="3:31">
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199" s="3">
         <v>112</v>
       </c>
@@ -6760,7 +6792,7 @@
       <c r="AA199" s="6"/>
       <c r="AE199" s="6"/>
     </row>
-    <row r="200" spans="3:31">
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200" s="3">
         <f>112/2</f>
         <v>56</v>
@@ -6834,7 +6866,7 @@
       <c r="AA200" s="6"/>
       <c r="AE200" s="6"/>
     </row>
-    <row r="201" spans="3:31">
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201" s="3">
         <f>56/2</f>
         <v>28</v>
@@ -6908,7 +6940,7 @@
       <c r="AA201" s="6"/>
       <c r="AE201" s="6"/>
     </row>
-    <row r="202" spans="3:31">
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202" s="3">
         <v>14</v>
       </c>
@@ -6981,7 +7013,7 @@
       <c r="AA202" s="6"/>
       <c r="AE202" s="6"/>
     </row>
-    <row r="203" spans="3:31">
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203" s="3">
         <v>7</v>
       </c>
@@ -7054,7 +7086,7 @@
       <c r="AA203" s="6"/>
       <c r="AE203" s="6"/>
     </row>
-    <row r="204" spans="3:31">
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204" s="3">
         <v>224</v>
       </c>
@@ -7127,7 +7159,7 @@
       <c r="AA204" s="6"/>
       <c r="AE204" s="6"/>
     </row>
-    <row r="205" spans="3:31">
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205" s="3">
         <v>28</v>
       </c>
@@ -7200,7 +7232,7 @@
       <c r="AA205" s="6"/>
       <c r="AE205" s="6"/>
     </row>
-    <row r="206" spans="3:31">
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206" s="3">
         <v>28</v>
       </c>
@@ -7273,7 +7305,7 @@
       <c r="AA206" s="6"/>
       <c r="AE206" s="6"/>
     </row>
-    <row r="207" spans="3:31">
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207" s="3">
         <v>14</v>
       </c>
@@ -7346,7 +7378,7 @@
       <c r="AA207" s="6"/>
       <c r="AE207" s="6"/>
     </row>
-    <row r="208" spans="3:31">
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208" s="3">
         <v>14</v>
       </c>
@@ -7419,7 +7451,7 @@
       <c r="AA208" s="6"/>
       <c r="AE208" s="6"/>
     </row>
-    <row r="209" spans="2:31">
+    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C209" s="3">
         <v>7</v>
       </c>
@@ -7492,7 +7524,7 @@
       <c r="AA209" s="6"/>
       <c r="AE209" s="6"/>
     </row>
-    <row r="210" spans="2:31">
+    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C210" s="3">
         <v>7</v>
       </c>
@@ -7565,7 +7597,7 @@
       <c r="AA210" s="6"/>
       <c r="AE210" s="6"/>
     </row>
-    <row r="211" spans="2:31">
+    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C211" s="3">
         <v>56</v>
       </c>
@@ -7636,7 +7668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="2:31">
+    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C212" s="3">
         <v>56</v>
       </c>
@@ -7707,7 +7739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="2:31">
+    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C213" s="3">
         <v>28</v>
       </c>
@@ -7778,7 +7810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="2:31">
+    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B214" s="7"/>
       <c r="C214" s="7">
         <v>28</v>
@@ -7850,7 +7882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="2:31">
+    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C215" s="3">
         <v>14</v>
       </c>
@@ -7921,7 +7953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="2:31">
+    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C216" s="3">
         <v>14</v>
       </c>
@@ -7992,7 +8024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="2:31">
+    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B217" s="7"/>
       <c r="C217" s="7">
         <v>14</v>
@@ -8064,7 +8096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="2:31">
+    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B218" s="7"/>
       <c r="C218" s="3">
         <v>7</v>
@@ -8136,7 +8168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="2:31">
+    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B219" s="7"/>
       <c r="C219" s="3">
         <v>7</v>
@@ -8208,7 +8240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="2:31">
+    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C220" s="3">
         <v>56</v>
       </c>
@@ -8279,7 +8311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="2:31">
+    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C221" s="3">
         <v>56</v>
       </c>
@@ -8350,7 +8382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="2:31">
+    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C222" s="3">
         <v>28</v>
       </c>
@@ -8421,7 +8453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="2:31">
+    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C223" s="7">
         <v>28</v>
       </c>
@@ -8492,7 +8524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="2:31">
+    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B224" s="7"/>
       <c r="C224" s="3">
         <v>14</v>
@@ -8564,7 +8596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C225" s="3">
         <v>14</v>
       </c>
@@ -8635,7 +8667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C226" s="7">
         <v>14</v>
       </c>
@@ -8706,7 +8738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B227" s="7"/>
       <c r="C227" s="3">
         <v>7</v>
@@ -8778,7 +8810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B228" s="7"/>
       <c r="C228" s="3">
         <v>7</v>
@@ -8850,7 +8882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B229" s="7"/>
       <c r="C229" s="11">
         <v>700</v>
@@ -8922,7 +8954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B230" s="7"/>
       <c r="C230" s="3">
         <v>350</v>
@@ -8994,7 +9026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B231" s="7"/>
       <c r="C231" s="3">
         <v>350</v>
@@ -9066,7 +9098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B232" s="7"/>
       <c r="C232" s="3">
         <v>175</v>
@@ -9138,7 +9170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B233" s="7"/>
       <c r="C233" s="3">
         <v>175</v>
@@ -9210,7 +9242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B234" s="7"/>
       <c r="C234" s="3">
         <v>84</v>
@@ -9279,10 +9311,10 @@
         <v>20.37849501285347</v>
       </c>
       <c r="X234" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B235" s="7"/>
       <c r="C235" s="3">
         <v>84</v>
@@ -9354,7 +9386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B236" s="7"/>
       <c r="C236" s="3">
         <v>42</v>
@@ -9423,10 +9455,10 @@
         <v>19.855315115842206</v>
       </c>
       <c r="X236" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="3">
@@ -9499,7 +9531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="3">
@@ -9572,7 +9604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="3">
@@ -9645,7 +9677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="3">
@@ -9718,7 +9750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7">
@@ -9791,7 +9823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7">
@@ -9864,7 +9896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7">
@@ -9937,7 +9969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7">
@@ -10010,7 +10042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7">
@@ -10083,7 +10115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7">
@@ -10156,7 +10188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7">
@@ -10229,7 +10261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7">
@@ -10302,7 +10334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7">
@@ -10375,7 +10407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7">
@@ -10445,10 +10477,10 @@
         <v>2.8153547397260272</v>
       </c>
       <c r="X250" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7">
@@ -10518,10 +10550,10 @@
         <v>2.8694016893542753</v>
       </c>
       <c r="X251" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7">
@@ -10594,7 +10626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="3">
@@ -10667,7 +10699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="3">
@@ -10740,7 +10772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="3">
@@ -10813,7 +10845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="3">
@@ -10886,7 +10918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:24">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7">
@@ -10959,7 +10991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:24">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7">
@@ -11032,7 +11064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:24">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7">
@@ -11105,7 +11137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:24">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7">
@@ -11178,7 +11210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:24">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7">
@@ -11251,7 +11283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:24">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7">
@@ -11324,7 +11356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:24">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7">
@@ -11397,7 +11429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:24">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7">
@@ -11470,7 +11502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:24">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7">
@@ -11543,7 +11575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:24">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7">
@@ -11616,7 +11648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:24">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7">
@@ -11689,7 +11721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:24">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7">
@@ -11762,1430 +11794,2393 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:24">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D271" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L277" s="8"/>
     </row>
-    <row r="278" spans="1:12">
-      <c r="A278" s="3" t="s">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="B278" s="12"/>
+      <c r="C278" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D278" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E278" s="3" t="s">
+      <c r="D278" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G278" s="3" t="s">
+      <c r="F278" s="12"/>
+      <c r="G278" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H278" s="3" t="s">
+      <c r="H278" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I278" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J278" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="K278" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L278" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M278" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
+      <c r="G279" s="12"/>
+      <c r="H279" s="12"/>
+      <c r="I279" s="12"/>
+      <c r="J279" s="12"/>
+      <c r="K279" s="12"/>
+      <c r="L279" s="12"/>
+      <c r="M279" s="12"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="12"/>
+      <c r="B280" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C280" s="12">
+        <v>1760</v>
+      </c>
+      <c r="D280" s="12">
+        <v>16</v>
+      </c>
+      <c r="E280" s="12">
+        <v>50</v>
+      </c>
+      <c r="F280" s="12"/>
+      <c r="G280" s="13">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="H280" s="13">
+        <v>3.72</v>
+      </c>
+      <c r="I280" s="13">
+        <v>0.624</v>
+      </c>
+      <c r="J280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <v>1.1871570881226055</v>
+      </c>
+      <c r="K280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
+        <v>1.3326795698924732</v>
+      </c>
+      <c r="L280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(I280/1000)/10^12</f>
+        <v>7.9448205128205123</v>
+      </c>
+      <c r="M280" s="14">
+        <f>G280+H280+I280</f>
+        <v>8.5200000000000014</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" s="12"/>
+      <c r="B281" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C281" s="12">
+        <v>1760</v>
+      </c>
+      <c r="D281" s="12">
+        <v>32</v>
+      </c>
+      <c r="E281" s="12">
+        <v>50</v>
+      </c>
+      <c r="F281" s="12"/>
+      <c r="G281" s="13">
+        <v>10.851000000000001</v>
+      </c>
+      <c r="H281" s="13">
+        <v>10.157</v>
+      </c>
+      <c r="I281" s="13">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="J281" s="13">
+        <f t="shared" ref="J281:L291" si="29">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <v>0.91375320246981839</v>
+      </c>
+      <c r="K281" s="13">
+        <f t="shared" si="29"/>
+        <v>0.97618745692625786</v>
+      </c>
+      <c r="L281" s="13">
+        <f t="shared" si="29"/>
+        <v>9.2148104089219309</v>
+      </c>
+      <c r="M281" s="14">
+        <f t="shared" ref="M281:M291" si="30">G281+H281+I281</f>
+        <v>22.084000000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" s="12"/>
+      <c r="B282" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C282" s="12">
+        <v>1760</v>
+      </c>
+      <c r="D282" s="12">
+        <v>64</v>
+      </c>
+      <c r="E282" s="12">
+        <v>50</v>
+      </c>
+      <c r="F282" s="12"/>
+      <c r="G282" s="13">
+        <v>5.96</v>
+      </c>
+      <c r="H282" s="13">
+        <v>5.3319999999999999</v>
+      </c>
+      <c r="I282" s="13">
+        <v>2</v>
+      </c>
+      <c r="J282" s="13">
+        <f t="shared" si="29"/>
+        <v>3.327226845637584</v>
+      </c>
+      <c r="K282" s="13">
+        <f t="shared" si="29"/>
+        <v>3.7191057764441107</v>
+      </c>
+      <c r="L282" s="13">
+        <f t="shared" si="29"/>
+        <v>9.9151360000000004</v>
+      </c>
+      <c r="M282" s="14">
+        <f t="shared" si="30"/>
+        <v>13.292</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" s="12"/>
+      <c r="B283" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C283" s="12">
+        <v>1760</v>
+      </c>
+      <c r="D283" s="12">
+        <v>128</v>
+      </c>
+      <c r="E283" s="12">
+        <v>50</v>
+      </c>
+      <c r="F283" s="12"/>
+      <c r="G283" s="13">
+        <v>6.6580000000000004</v>
+      </c>
+      <c r="H283" s="13">
+        <v>6.351</v>
+      </c>
+      <c r="I283" s="13">
+        <v>3.9689999999999999</v>
+      </c>
+      <c r="J283" s="13">
+        <f t="shared" si="29"/>
+        <v>5.9568254731150487</v>
+      </c>
+      <c r="K283" s="13">
+        <f t="shared" si="29"/>
+        <v>6.2447715320421979</v>
+      </c>
+      <c r="L283" s="13">
+        <f t="shared" si="29"/>
+        <v>9.9925784832451505</v>
+      </c>
+      <c r="M283" s="14">
+        <f t="shared" si="30"/>
+        <v>16.978000000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" s="12"/>
+      <c r="B284" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C284" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D284" s="12">
+        <v>16</v>
+      </c>
+      <c r="E284" s="12">
+        <v>50</v>
+      </c>
+      <c r="F284" s="12"/>
+      <c r="G284" s="13">
+        <v>6.8010000000000002</v>
+      </c>
+      <c r="H284" s="13">
+        <v>5.7919999999999998</v>
+      </c>
+      <c r="I284" s="13">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="J284" s="13">
+        <f t="shared" si="29"/>
+        <v>0.98699085428613442</v>
+      </c>
+      <c r="K284" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1589303867403316</v>
+      </c>
+      <c r="L284" s="13">
+        <f t="shared" si="29"/>
+        <v>8.5076359949302915</v>
+      </c>
+      <c r="M284" s="14">
+        <f t="shared" si="30"/>
+        <v>13.382</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" s="12"/>
+      <c r="B285" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C285" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D285" s="12">
+        <v>32</v>
+      </c>
+      <c r="E285" s="12">
+        <v>50</v>
+      </c>
+      <c r="F285" s="12"/>
+      <c r="G285" s="13">
+        <v>12.035</v>
+      </c>
+      <c r="H285" s="13">
+        <v>11.635999999999999</v>
+      </c>
+      <c r="I285" s="13">
+        <v>1.381</v>
+      </c>
+      <c r="J285" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1155005899459907</v>
+      </c>
+      <c r="K285" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1537512547267104</v>
+      </c>
+      <c r="L285" s="13">
+        <f t="shared" si="29"/>
+        <v>9.7212524257784221</v>
+      </c>
+      <c r="M285" s="14">
+        <f t="shared" si="30"/>
+        <v>25.052</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" s="12"/>
+      <c r="B286" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C286" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D286" s="12">
+        <v>64</v>
+      </c>
+      <c r="E286" s="12">
+        <v>50</v>
+      </c>
+      <c r="F286" s="12"/>
+      <c r="G286" s="13">
+        <v>10.888</v>
+      </c>
+      <c r="H286" s="13">
+        <v>10.051</v>
+      </c>
+      <c r="I286" s="13">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="J286" s="13">
+        <f t="shared" si="29"/>
+        <v>2.4660267450404114</v>
+      </c>
+      <c r="K286" s="13">
+        <f t="shared" si="29"/>
+        <v>2.6713858521540144</v>
+      </c>
+      <c r="L286" s="13">
+        <f t="shared" si="29"/>
+        <v>10.46787493177388</v>
+      </c>
+      <c r="M286" s="14">
+        <f t="shared" si="30"/>
+        <v>23.504000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" s="12"/>
+      <c r="B287" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C287" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D287" s="12">
+        <v>128</v>
+      </c>
+      <c r="E287" s="12">
+        <v>50</v>
+      </c>
+      <c r="F287" s="12"/>
+      <c r="G287" s="13">
+        <v>9.1820000000000004</v>
+      </c>
+      <c r="H287" s="13">
+        <v>8.8279999999999994</v>
+      </c>
+      <c r="I287" s="13">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="J287" s="13">
+        <f t="shared" si="29"/>
+        <v>5.8484206490960569</v>
+      </c>
+      <c r="K287" s="13">
+        <f t="shared" si="29"/>
+        <v>6.0829404621658369</v>
+      </c>
+      <c r="L287" s="13">
+        <f t="shared" si="29"/>
+        <v>10.835391121872476</v>
+      </c>
+      <c r="M287" s="14">
+        <f t="shared" si="30"/>
+        <v>22.965999999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" s="12"/>
+      <c r="B288" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C288" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D288" s="12">
+        <v>16</v>
+      </c>
+      <c r="E288" s="12">
+        <v>50</v>
+      </c>
+      <c r="F288" s="12"/>
+      <c r="G288" s="13">
+        <v>10.069000000000001</v>
+      </c>
+      <c r="H288" s="13">
+        <v>9.2620000000000005</v>
+      </c>
+      <c r="I288" s="13">
+        <v>1.244</v>
+      </c>
+      <c r="J288" s="13">
+        <f t="shared" si="29"/>
+        <v>1.0415938027609493</v>
+      </c>
+      <c r="K288" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1323480889656661</v>
+      </c>
+      <c r="L288" s="13">
+        <f t="shared" si="29"/>
+        <v>8.4307138263665582</v>
+      </c>
+      <c r="M288" s="14">
+        <f t="shared" si="30"/>
+        <v>20.575000000000003</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A289" s="12"/>
+      <c r="B289" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C289" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D289" s="12">
+        <v>32</v>
+      </c>
+      <c r="E289" s="12">
+        <v>50</v>
+      </c>
+      <c r="F289" s="12"/>
+      <c r="G289" s="13">
+        <v>14.85</v>
+      </c>
+      <c r="H289" s="13">
+        <v>14.298</v>
+      </c>
+      <c r="I289" s="13">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="J289" s="13">
+        <f t="shared" si="29"/>
+        <v>1.4124993939393937</v>
+      </c>
+      <c r="K289" s="13">
+        <f t="shared" si="29"/>
+        <v>1.4670314729332774</v>
+      </c>
+      <c r="L289" s="13">
+        <f t="shared" si="29"/>
+        <v>9.4826473779385179</v>
+      </c>
+      <c r="M289" s="14">
+        <f t="shared" si="30"/>
+        <v>31.36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290" s="12"/>
+      <c r="B290" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C290" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D290" s="12">
+        <v>64</v>
+      </c>
+      <c r="E290" s="12">
+        <v>50</v>
+      </c>
+      <c r="F290" s="12"/>
+      <c r="G290" s="13">
+        <v>16.033000000000001</v>
+      </c>
+      <c r="H290" s="13">
+        <v>15.621</v>
+      </c>
+      <c r="I290" s="13">
+        <v>4.077</v>
+      </c>
+      <c r="J290" s="13">
+        <f t="shared" si="29"/>
+        <v>2.6165553545811759</v>
+      </c>
+      <c r="K290" s="13">
+        <f t="shared" si="29"/>
+        <v>2.6855663529863643</v>
+      </c>
+      <c r="L290" s="13">
+        <f t="shared" si="29"/>
+        <v>10.289730684326711</v>
+      </c>
+      <c r="M290" s="14">
+        <f t="shared" si="30"/>
+        <v>35.731000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" s="12"/>
+      <c r="B291" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C291" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D291" s="12">
+        <v>128</v>
+      </c>
+      <c r="E291" s="12">
+        <v>50</v>
+      </c>
+      <c r="F291" s="12"/>
+      <c r="G291" s="13">
+        <v>16.515000000000001</v>
+      </c>
+      <c r="H291" s="13">
+        <v>16.173999999999999</v>
+      </c>
+      <c r="I291" s="13">
+        <v>7.8040000000000003</v>
+      </c>
+      <c r="J291" s="13">
+        <f t="shared" si="29"/>
+        <v>5.0803792915531325</v>
+      </c>
+      <c r="K291" s="13">
+        <f t="shared" si="29"/>
+        <v>5.1874900457524422</v>
+      </c>
+      <c r="L291" s="13">
+        <f t="shared" si="29"/>
+        <v>10.751212711430036</v>
+      </c>
+      <c r="M291" s="14">
+        <f t="shared" si="30"/>
+        <v>40.493000000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="G292" s="12"/>
+      <c r="H292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="12"/>
+      <c r="K292" s="12"/>
+      <c r="L292" s="12"/>
+      <c r="M292" s="12"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293" s="12"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+      <c r="F293" s="12"/>
+      <c r="G293" s="12"/>
+      <c r="H293" s="12"/>
+      <c r="I293" s="15"/>
+      <c r="J293" s="12"/>
+      <c r="K293" s="12"/>
+      <c r="L293" s="12"/>
+      <c r="M293" s="12"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294" s="12"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+      <c r="G294" s="12"/>
+      <c r="H294" s="12"/>
+      <c r="I294" s="12"/>
+      <c r="J294" s="12"/>
+      <c r="K294" s="12"/>
+      <c r="L294" s="12"/>
+      <c r="M294" s="12"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J278" s="3" t="s">
+      <c r="B295" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F295" s="12"/>
+      <c r="G295" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="279" spans="1:12">
-      <c r="G279" s="3">
-        <v>4.2620000000000005</v>
-      </c>
-      <c r="H279" s="3">
-        <v>3.238</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12">
-      <c r="C280" s="3">
-        <v>1760</v>
-      </c>
-      <c r="D280" s="3">
+      <c r="H295" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I295" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J295" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K295" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L295" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M295" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296" s="12"/>
+      <c r="B296" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C296" s="12">
+        <v>512</v>
+      </c>
+      <c r="D296" s="12">
         <v>16</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E296" s="12">
+        <v>25</v>
+      </c>
+      <c r="F296" s="12"/>
+      <c r="G296" s="13">
+        <v>1.27</v>
+      </c>
+      <c r="H296" s="13">
+        <v>1.468</v>
+      </c>
+      <c r="I296" s="13">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="J296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <v>0.66052031496062991</v>
+      </c>
+      <c r="K296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
+        <v>0.57143106267029975</v>
+      </c>
+      <c r="L296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(I296/1000)/10^12</f>
+        <v>4.6863731843575422</v>
+      </c>
+      <c r="M296" s="14">
+        <f t="shared" ref="M296:M317" si="31">G296+H296+I296</f>
+        <v>2.9169999999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A297" s="12"/>
+      <c r="B297" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C297" s="12">
+        <v>512</v>
+      </c>
+      <c r="D297" s="12">
+        <v>32</v>
+      </c>
+      <c r="E297" s="12">
+        <v>25</v>
+      </c>
+      <c r="F297" s="12"/>
+      <c r="G297" s="13">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="H297" s="13">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="I297" s="13">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J297" s="13">
+        <f t="shared" ref="J297:L317" si="32">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
+        <v>0.69184395876288673</v>
+      </c>
+      <c r="K297" s="13">
+        <f t="shared" si="32"/>
+        <v>0.29366735515490983</v>
+      </c>
+      <c r="L297" s="13">
+        <f t="shared" si="32"/>
+        <v>6.3791695817490499</v>
+      </c>
+      <c r="M297" s="14">
+        <f t="shared" si="31"/>
+        <v>8.4009999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298" s="12"/>
+      <c r="B298" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C298" s="12">
+        <v>512</v>
+      </c>
+      <c r="D298" s="12">
+        <v>64</v>
+      </c>
+      <c r="E298" s="12">
+        <v>25</v>
+      </c>
+      <c r="F298" s="12"/>
+      <c r="G298" s="13">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="H298" s="13">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="I298" s="13">
+        <v>0.443</v>
+      </c>
+      <c r="J298" s="13">
+        <f t="shared" si="32"/>
+        <v>1.5080643595505618</v>
+      </c>
+      <c r="K298" s="13">
+        <f t="shared" si="32"/>
+        <v>1.5448633517495394</v>
+      </c>
+      <c r="L298" s="13">
+        <f t="shared" si="32"/>
+        <v>7.5743638826185107</v>
+      </c>
+      <c r="M298" s="14">
+        <f t="shared" si="31"/>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299" s="12"/>
+      <c r="B299" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C299" s="12">
+        <v>512</v>
+      </c>
+      <c r="D299" s="12">
+        <v>128</v>
+      </c>
+      <c r="E299" s="12">
+        <v>25</v>
+      </c>
+      <c r="F299" s="12"/>
+      <c r="G299" s="13">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="H299" s="13">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="I299" s="13">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="J299" s="13">
+        <f t="shared" si="32"/>
+        <v>2.9266839947666807</v>
+      </c>
+      <c r="K299" s="13">
+        <f t="shared" si="32"/>
+        <v>2.7114692525252524</v>
+      </c>
+      <c r="L299" s="13">
+        <f t="shared" si="32"/>
+        <v>8.7267703511053316</v>
+      </c>
+      <c r="M299" s="14">
+        <f t="shared" si="31"/>
+        <v>5.5370000000000008</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300" s="12"/>
+      <c r="B300" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C300" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D300" s="12">
+        <v>16</v>
+      </c>
+      <c r="E300" s="12">
+        <v>25</v>
+      </c>
+      <c r="F300" s="12"/>
+      <c r="G300" s="13">
+        <v>4.141</v>
+      </c>
+      <c r="H300" s="13">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="I300" s="13">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J300" s="13">
+        <f t="shared" si="32"/>
+        <v>0.81029780246317318</v>
+      </c>
+      <c r="K300" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3205207398661947</v>
+      </c>
+      <c r="L300" s="13">
+        <f t="shared" si="32"/>
+        <v>6.2022979667282803</v>
+      </c>
+      <c r="M300" s="14">
+        <f t="shared" si="31"/>
+        <v>7.2230000000000008</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301" s="12"/>
+      <c r="B301" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C301" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D301" s="12">
+        <v>32</v>
+      </c>
+      <c r="E301" s="12">
+        <v>25</v>
+      </c>
+      <c r="F301" s="12"/>
+      <c r="G301" s="13">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="H301" s="13">
+        <v>10.574999999999999</v>
+      </c>
+      <c r="I301" s="13">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J301" s="13">
+        <f t="shared" si="32"/>
+        <v>1.6706214588000994</v>
+      </c>
+      <c r="K301" s="13">
+        <f t="shared" si="32"/>
+        <v>0.63459918676122939</v>
+      </c>
+      <c r="L301" s="13">
+        <f t="shared" si="32"/>
+        <v>8.036989700598804</v>
+      </c>
+      <c r="M301" s="14">
+        <f t="shared" si="31"/>
+        <v>15.427</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" s="12"/>
+      <c r="B302" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C302" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D302" s="12">
+        <v>64</v>
+      </c>
+      <c r="E302" s="12">
+        <v>25</v>
+      </c>
+      <c r="F302" s="12"/>
+      <c r="G302" s="13">
+        <v>4.32</v>
+      </c>
+      <c r="H302" s="13">
+        <v>3.419</v>
+      </c>
+      <c r="I302" s="13">
+        <v>1.468</v>
+      </c>
+      <c r="J302" s="13">
+        <f t="shared" si="32"/>
+        <v>3.1068918518518522</v>
+      </c>
+      <c r="K302" s="13">
+        <f t="shared" si="32"/>
+        <v>3.9256428195378765</v>
+      </c>
+      <c r="L302" s="13">
+        <f t="shared" si="32"/>
+        <v>9.142897002724796</v>
+      </c>
+      <c r="M302" s="14">
+        <f t="shared" si="31"/>
+        <v>9.2070000000000007</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" s="12"/>
+      <c r="B303" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C303" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D303" s="12">
+        <v>128</v>
+      </c>
+      <c r="E303" s="12">
+        <v>25</v>
+      </c>
+      <c r="F303" s="12"/>
+      <c r="G303" s="13">
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="H303" s="13">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="I303" s="13">
+        <v>2.718</v>
+      </c>
+      <c r="J303" s="13">
+        <f t="shared" si="32"/>
+        <v>4.8149857578475332</v>
+      </c>
+      <c r="K303" s="13">
+        <f t="shared" si="32"/>
+        <v>5.6087642290012543</v>
+      </c>
+      <c r="L303" s="13">
+        <f t="shared" si="32"/>
+        <v>9.8762125091979396</v>
+      </c>
+      <c r="M303" s="14">
+        <f t="shared" si="31"/>
+        <v>13.079000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A304" s="12"/>
+      <c r="B304" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C304" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D304" s="12">
+        <v>16</v>
+      </c>
+      <c r="E304" s="12">
+        <v>25</v>
+      </c>
+      <c r="F304" s="12"/>
+      <c r="G304" s="13">
+        <v>19.914999999999999</v>
+      </c>
+      <c r="H304" s="13">
+        <v>9.5020000000000007</v>
+      </c>
+      <c r="I304" s="13">
+        <v>1.782</v>
+      </c>
+      <c r="J304" s="13">
+        <f t="shared" si="32"/>
+        <v>0.67395293999497874</v>
+      </c>
+      <c r="K304" s="13">
+        <f t="shared" si="32"/>
+        <v>1.4125208166701748</v>
+      </c>
+      <c r="L304" s="13">
+        <f t="shared" si="32"/>
+        <v>7.531859034792368</v>
+      </c>
+      <c r="M304" s="14">
+        <f t="shared" si="31"/>
+        <v>31.199000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" s="12"/>
+      <c r="B305" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C305" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D305" s="12">
+        <v>32</v>
+      </c>
+      <c r="E305" s="12">
+        <v>25</v>
+      </c>
+      <c r="F305" s="12"/>
+      <c r="G305" s="13">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="H305" s="13">
+        <v>20.606000000000002</v>
+      </c>
+      <c r="I305" s="13">
+        <v>2.919</v>
+      </c>
+      <c r="J305" s="13">
+        <f t="shared" si="32"/>
+        <v>3.3185246136728885</v>
+      </c>
+      <c r="K305" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3027053091332619</v>
+      </c>
+      <c r="L305" s="13">
+        <f t="shared" si="32"/>
+        <v>9.1961444330250082</v>
+      </c>
+      <c r="M305" s="14">
+        <f t="shared" si="31"/>
+        <v>31.614000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306" s="12"/>
+      <c r="B306" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C306" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D306" s="12">
+        <v>64</v>
+      </c>
+      <c r="E306" s="12">
+        <v>25</v>
+      </c>
+      <c r="F306" s="12"/>
+      <c r="G306" s="13">
+        <v>10.971</v>
+      </c>
+      <c r="H306" s="13">
+        <v>21.257999999999999</v>
+      </c>
+      <c r="I306" s="13">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="J306" s="13">
+        <f t="shared" si="32"/>
+        <v>4.8935458208002922</v>
+      </c>
+      <c r="K306" s="13">
+        <f t="shared" si="32"/>
+        <v>2.5255005739015903</v>
+      </c>
+      <c r="L306" s="13">
+        <f t="shared" si="32"/>
+        <v>10.082082854460094</v>
+      </c>
+      <c r="M306" s="14">
+        <f t="shared" si="31"/>
+        <v>37.554000000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307" s="12"/>
+      <c r="B307" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C307" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D307" s="12">
+        <v>128</v>
+      </c>
+      <c r="E307" s="12">
+        <v>25</v>
+      </c>
+      <c r="F307" s="12"/>
+      <c r="G307" s="13">
+        <v>16.547000000000001</v>
+      </c>
+      <c r="H307" s="13">
+        <v>13.734999999999999</v>
+      </c>
+      <c r="I307" s="13">
+        <v>10.153</v>
+      </c>
+      <c r="J307" s="13">
+        <f t="shared" si="32"/>
+        <v>6.4890422674805111</v>
+      </c>
+      <c r="K307" s="13">
+        <f t="shared" si="32"/>
+        <v>7.8175596942118686</v>
+      </c>
+      <c r="L307" s="13">
+        <f t="shared" si="32"/>
+        <v>10.5756113857973</v>
+      </c>
+      <c r="M307" s="14">
+        <f t="shared" si="31"/>
+        <v>40.435000000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A308" s="12"/>
+      <c r="B308" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C308" s="12">
+        <v>4096</v>
+      </c>
+      <c r="D308" s="12">
+        <v>16</v>
+      </c>
+      <c r="E308" s="12">
+        <v>25</v>
+      </c>
+      <c r="F308" s="12"/>
+      <c r="G308" s="13">
+        <v>78.718000000000004</v>
+      </c>
+      <c r="H308" s="13">
+        <v>59.353000000000002</v>
+      </c>
+      <c r="I308" s="13">
+        <v>6.6950000000000003</v>
+      </c>
+      <c r="J308" s="13">
+        <f t="shared" si="32"/>
+        <v>0.68201797809903697</v>
+      </c>
+      <c r="K308" s="13">
+        <f t="shared" si="32"/>
+        <v>0.90453879669098436</v>
+      </c>
+      <c r="L308" s="13">
+        <f t="shared" si="32"/>
+        <v>8.0189830022404767</v>
+      </c>
+      <c r="M308" s="14">
+        <f t="shared" si="31"/>
+        <v>144.76599999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309" s="12"/>
+      <c r="B309" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C309" s="12">
+        <v>4096</v>
+      </c>
+      <c r="D309" s="12">
+        <v>32</v>
+      </c>
+      <c r="E309" s="12">
+        <v>25</v>
+      </c>
+      <c r="F309" s="12"/>
+      <c r="G309" s="13">
+        <v>23.725000000000001</v>
+      </c>
+      <c r="H309" s="13">
+        <v>48.392000000000003</v>
+      </c>
+      <c r="I309" s="13">
+        <v>11.336</v>
+      </c>
+      <c r="J309" s="13">
+        <f t="shared" si="32"/>
+        <v>4.5257821875658584</v>
+      </c>
+      <c r="K309" s="13">
+        <f t="shared" si="32"/>
+        <v>2.2188415936518431</v>
+      </c>
+      <c r="L309" s="13">
+        <f t="shared" si="32"/>
+        <v>9.4719638673253339</v>
+      </c>
+      <c r="M309" s="14">
+        <f t="shared" si="31"/>
+        <v>83.453000000000003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A310" s="12"/>
+      <c r="B310" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C310" s="12">
+        <v>4096</v>
+      </c>
+      <c r="D310" s="12">
+        <v>64</v>
+      </c>
+      <c r="E310" s="12">
+        <v>25</v>
+      </c>
+      <c r="F310" s="12"/>
+      <c r="G310" s="13">
+        <v>47.552</v>
+      </c>
+      <c r="H310" s="13">
+        <v>53.057000000000002</v>
+      </c>
+      <c r="I310" s="13">
+        <v>21.077000000000002</v>
+      </c>
+      <c r="J310" s="13">
+        <f t="shared" si="32"/>
+        <v>4.5160742934051141</v>
+      </c>
+      <c r="K310" s="13">
+        <f t="shared" si="32"/>
+        <v>4.0475029647360383</v>
+      </c>
+      <c r="L310" s="13">
+        <f t="shared" si="32"/>
+        <v>10.188753845423919</v>
+      </c>
+      <c r="M310" s="14">
+        <f t="shared" si="31"/>
+        <v>121.68600000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A311" s="12"/>
+      <c r="B311" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C311" s="12">
+        <v>4096</v>
+      </c>
+      <c r="D311" s="12">
+        <v>128</v>
+      </c>
+      <c r="E311" s="12">
+        <v>25</v>
+      </c>
+      <c r="F311" s="12"/>
+      <c r="G311" s="13">
+        <v>53.781999999999996</v>
+      </c>
+      <c r="H311" s="13">
+        <v>70.706000000000003</v>
+      </c>
+      <c r="I311" s="13">
+        <v>42.901000000000003</v>
+      </c>
+      <c r="J311" s="13">
+        <f t="shared" si="32"/>
+        <v>7.9858824439403522</v>
+      </c>
+      <c r="K311" s="13">
+        <f t="shared" si="32"/>
+        <v>6.0744028738720894</v>
+      </c>
+      <c r="L311" s="13">
+        <f t="shared" si="32"/>
+        <v>10.011345413859816</v>
+      </c>
+      <c r="M311" s="14">
+        <f t="shared" si="31"/>
+        <v>167.38900000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312" s="12"/>
+      <c r="B312" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C312" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D312" s="12">
+        <v>8</v>
+      </c>
+      <c r="E312" s="12">
         <v>50</v>
       </c>
-      <c r="G280" s="6">
-        <v>9.5750000000000011</v>
-      </c>
-      <c r="H280" s="6">
-        <v>9.0990000000000002</v>
-      </c>
-      <c r="I280" s="6">
-        <f t="shared" ref="I280:I291" si="29">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
-        <v>0.51776167101827664</v>
-      </c>
-      <c r="J280" s="6">
-        <f t="shared" ref="J280:J291" si="30">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
-        <v>0.54484756566655679</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12">
-      <c r="C281" s="3">
-        <v>1760</v>
-      </c>
-      <c r="D281" s="3">
+      <c r="F312" s="12"/>
+      <c r="G312" s="13">
+        <v>11.898</v>
+      </c>
+      <c r="H312" s="13">
+        <v>7.383</v>
+      </c>
+      <c r="I312" s="13">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="J312" s="13">
+        <f t="shared" si="32"/>
+        <v>0.63453918305597579</v>
+      </c>
+      <c r="K312" s="13">
+        <f t="shared" si="32"/>
+        <v>1.0225852905323038</v>
+      </c>
+      <c r="L312" s="13">
+        <f t="shared" si="32"/>
+        <v>6.6693879858657246</v>
+      </c>
+      <c r="M312" s="14">
+        <f t="shared" si="31"/>
+        <v>20.413</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313" s="12"/>
+      <c r="B313" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C313" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D313" s="12">
+        <v>16</v>
+      </c>
+      <c r="E313" s="12">
+        <v>50</v>
+      </c>
+      <c r="F313" s="12"/>
+      <c r="G313" s="13">
+        <v>21.837</v>
+      </c>
+      <c r="H313" s="13">
+        <v>10.4</v>
+      </c>
+      <c r="I313" s="13">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="J313" s="13">
+        <f t="shared" si="32"/>
+        <v>0.69146377249622204</v>
+      </c>
+      <c r="K313" s="13">
+        <f t="shared" si="32"/>
+        <v>1.4518744615384618</v>
+      </c>
+      <c r="L313" s="13">
+        <f t="shared" si="32"/>
+        <v>7.9722779303062303</v>
+      </c>
+      <c r="M313" s="14">
+        <f t="shared" si="31"/>
+        <v>34.131</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314" s="12"/>
+      <c r="B314" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C314" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D314" s="12">
         <v>32</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E314" s="12">
         <v>50</v>
       </c>
-      <c r="G281" s="6">
-        <v>5.3810000000000002</v>
-      </c>
-      <c r="H281" s="6">
-        <v>4.9039999999999999</v>
-      </c>
-      <c r="I281" s="6">
-        <f t="shared" si="29"/>
-        <v>1.8426195874372793</v>
-      </c>
-      <c r="J281" s="6">
-        <f t="shared" si="30"/>
-        <v>2.0218466557911912</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12">
-      <c r="C282" s="3">
-        <v>1760</v>
-      </c>
-      <c r="D282" s="3">
+      <c r="F314" s="12"/>
+      <c r="G314" s="13">
+        <v>11.811</v>
+      </c>
+      <c r="H314" s="13">
+        <v>31.512</v>
+      </c>
+      <c r="I314" s="13">
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="J314" s="13">
+        <f t="shared" si="32"/>
+        <v>2.5568528321056641</v>
+      </c>
+      <c r="K314" s="13">
+        <f t="shared" si="32"/>
+        <v>0.95833297791317607</v>
+      </c>
+      <c r="L314" s="13">
+        <f t="shared" si="32"/>
+        <v>9.5687543726235749</v>
+      </c>
+      <c r="M314" s="14">
+        <f t="shared" si="31"/>
+        <v>46.478999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315" s="12"/>
+      <c r="B315" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C315" s="12">
+        <v>256</v>
+      </c>
+      <c r="D315" s="12">
+        <v>16</v>
+      </c>
+      <c r="E315" s="12">
+        <v>150</v>
+      </c>
+      <c r="F315" s="12"/>
+      <c r="G315" s="13">
+        <v>2.1709999999999998</v>
+      </c>
+      <c r="H315" s="13">
+        <v>4.234</v>
+      </c>
+      <c r="I315" s="13">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J315" s="13">
+        <f t="shared" si="32"/>
+        <v>0.5795906034085675</v>
+      </c>
+      <c r="K315" s="13">
+        <f t="shared" si="32"/>
+        <v>0.29718734057628721</v>
+      </c>
+      <c r="L315" s="13">
+        <f t="shared" si="32"/>
+        <v>6.2601552238805969</v>
+      </c>
+      <c r="M315" s="14">
+        <f t="shared" si="31"/>
+        <v>6.605999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A316" s="12"/>
+      <c r="B316" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C316" s="12">
+        <v>256</v>
+      </c>
+      <c r="D316" s="12">
+        <v>32</v>
+      </c>
+      <c r="E316" s="12">
+        <v>150</v>
+      </c>
+      <c r="F316" s="12"/>
+      <c r="G316" s="13">
+        <v>7.0049999999999999</v>
+      </c>
+      <c r="H316" s="13">
+        <v>15.569000000000001</v>
+      </c>
+      <c r="I316" s="13">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J316" s="13">
+        <f t="shared" si="32"/>
+        <v>0.35925516059957174</v>
+      </c>
+      <c r="K316" s="13">
+        <f t="shared" si="32"/>
+        <v>0.16164059348705759</v>
+      </c>
+      <c r="L316" s="13">
+        <f t="shared" si="32"/>
+        <v>7.0690516853932586</v>
+      </c>
+      <c r="M316" s="14">
+        <f t="shared" si="31"/>
+        <v>22.930000000000003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317" s="12"/>
+      <c r="B317" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C317" s="12">
+        <v>256</v>
+      </c>
+      <c r="D317" s="12">
         <v>64</v>
       </c>
-      <c r="E282" s="3">
-        <v>50</v>
-      </c>
-      <c r="G282" s="6">
-        <v>6.327</v>
-      </c>
-      <c r="H282" s="6">
-        <v>6.0369999999999999</v>
-      </c>
-      <c r="I282" s="6">
-        <f t="shared" si="29"/>
-        <v>3.1342298087561247</v>
-      </c>
-      <c r="J282" s="6">
-        <f t="shared" si="30"/>
-        <v>3.2847891336756669</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12">
-      <c r="C283" s="3">
-        <v>1760</v>
-      </c>
-      <c r="D283" s="3">
-        <v>128</v>
-      </c>
-      <c r="E283" s="3">
-        <v>50</v>
-      </c>
-      <c r="G283" s="6">
-        <v>5.9889999999999999</v>
-      </c>
-      <c r="H283" s="6">
-        <v>5.2330000000000005</v>
-      </c>
-      <c r="I283" s="6">
-        <f t="shared" si="29"/>
-        <v>6.6222314242778424</v>
-      </c>
-      <c r="J283" s="6">
-        <f t="shared" si="30"/>
-        <v>7.5789306325243633</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12">
-      <c r="C284" s="3">
+      <c r="E317" s="12">
+        <v>150</v>
+      </c>
+      <c r="F317" s="12"/>
+      <c r="G317" s="13">
+        <v>6.8789999999999996</v>
+      </c>
+      <c r="H317" s="13">
+        <v>9.1270000000000007</v>
+      </c>
+      <c r="I317" s="13">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="J317" s="13">
+        <f t="shared" si="32"/>
+        <v>0.73167099869167029</v>
+      </c>
+      <c r="K317" s="13">
+        <f t="shared" si="32"/>
+        <v>0.55145883641941484</v>
+      </c>
+      <c r="L317" s="13">
+        <f t="shared" si="32"/>
+        <v>8.2646384236453212</v>
+      </c>
+      <c r="M317" s="14">
+        <f t="shared" si="31"/>
+        <v>16.615000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A318" s="12"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="12"/>
+      <c r="I318" s="12"/>
+      <c r="J318" s="12"/>
+      <c r="K318" s="12"/>
+      <c r="L318" s="12"/>
+      <c r="M318" s="12"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319" s="12"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
+      <c r="F319" s="12"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="12"/>
+      <c r="I319" s="12"/>
+      <c r="J319" s="12"/>
+      <c r="K319" s="12"/>
+      <c r="L319" s="12"/>
+      <c r="M319" s="12"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F320" s="12"/>
+      <c r="G320" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H320" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I320" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J320" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K320" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L320" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M320" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A321" s="12"/>
+      <c r="B321" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C321" s="12">
+        <v>2816</v>
+      </c>
+      <c r="D321" s="12">
+        <v>32</v>
+      </c>
+      <c r="E321" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F321" s="12"/>
+      <c r="G321" s="13">
+        <v>638.91800000000001</v>
+      </c>
+      <c r="H321" s="13">
+        <v>1316.587</v>
+      </c>
+      <c r="I321" s="13">
+        <v>230.93700000000001</v>
+      </c>
+      <c r="J321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
+        <v>3.5744783023799616</v>
+      </c>
+      <c r="K321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
+        <v>1.7346354840204254</v>
+      </c>
+      <c r="L321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(I321/1000)/10^12</f>
+        <v>9.8892707881370239</v>
+      </c>
+      <c r="M321" s="14">
+        <f t="shared" ref="M321:M339" si="33">G321+H321+I321</f>
+        <v>2186.442</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A322" s="12"/>
+      <c r="B322" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C322" s="12">
+        <v>2816</v>
+      </c>
+      <c r="D322" s="12">
+        <v>32</v>
+      </c>
+      <c r="E322" s="12">
+        <v>750</v>
+      </c>
+      <c r="F322" s="12"/>
+      <c r="G322" s="13">
+        <v>333.47</v>
+      </c>
+      <c r="H322" s="13">
+        <v>657.43</v>
+      </c>
+      <c r="I322" s="13">
+        <v>119.066</v>
+      </c>
+      <c r="J322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <v>3.4242938315290727</v>
+      </c>
+      <c r="K322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <v>1.7369138372146085</v>
+      </c>
+      <c r="L322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(I322/1000)/10^12</f>
+        <v>9.5904730485613001</v>
+      </c>
+      <c r="M322" s="14">
+        <f t="shared" si="33"/>
+        <v>1109.9659999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A323" s="12"/>
+      <c r="B323" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C323" s="12">
+        <v>2816</v>
+      </c>
+      <c r="D323" s="12">
+        <v>32</v>
+      </c>
+      <c r="E323" s="12">
+        <v>375</v>
+      </c>
+      <c r="F323" s="12"/>
+      <c r="G323" s="13">
+        <v>165.26</v>
+      </c>
+      <c r="H323" s="13">
+        <v>330.077</v>
+      </c>
+      <c r="I323" s="13">
+        <v>59.372999999999998</v>
+      </c>
+      <c r="J323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(G323/1000)/10^12</f>
+        <v>3.4548567832506358</v>
+      </c>
+      <c r="K323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(H323/1000)/10^12</f>
+        <v>1.7297467924151031</v>
+      </c>
+      <c r="L323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(I323/1000)/10^12</f>
+        <v>9.6163177201758376</v>
+      </c>
+      <c r="M323" s="14">
+        <f t="shared" si="33"/>
+        <v>554.71</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" s="12"/>
+      <c r="B324" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C324" s="12">
+        <v>2816</v>
+      </c>
+      <c r="D324" s="12">
+        <v>32</v>
+      </c>
+      <c r="E324" s="12">
+        <v>187</v>
+      </c>
+      <c r="F324" s="12"/>
+      <c r="G324" s="13">
+        <v>82.659000000000006</v>
+      </c>
+      <c r="H324" s="13">
+        <v>165.51300000000001</v>
+      </c>
+      <c r="I324" s="13">
+        <v>29.434999999999999</v>
+      </c>
+      <c r="J324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(G324/1000)/10^12</f>
+        <v>3.4444349656298763</v>
+      </c>
+      <c r="K324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(H324/1000)/10^12</f>
+        <v>1.7201884433488608</v>
+      </c>
+      <c r="L324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(I324/1000)/10^12</f>
+        <v>9.6726193247494479</v>
+      </c>
+      <c r="M324" s="14">
+        <f t="shared" si="33"/>
+        <v>277.60700000000003</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A325" s="12"/>
+      <c r="B325" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C325" s="12">
         <v>2048</v>
       </c>
-      <c r="D284" s="3">
-        <v>16</v>
-      </c>
-      <c r="E284" s="3">
-        <v>50</v>
-      </c>
-      <c r="G284" s="6">
-        <v>10.922000000000001</v>
-      </c>
-      <c r="H284" s="6">
-        <v>10.431000000000001</v>
-      </c>
-      <c r="I284" s="6">
-        <f t="shared" si="29"/>
-        <v>0.61458751144479029</v>
-      </c>
-      <c r="J284" s="6">
-        <f t="shared" si="30"/>
-        <v>0.64351690154347607</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12">
-      <c r="C285" s="3">
+      <c r="D325" s="12">
+        <v>32</v>
+      </c>
+      <c r="E325" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F325" s="12"/>
+      <c r="G325" s="13">
+        <v>414.53100000000001</v>
+      </c>
+      <c r="H325" s="13">
+        <v>930.92100000000005</v>
+      </c>
+      <c r="I325" s="13">
+        <v>123.021</v>
+      </c>
+      <c r="J325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(G325/1000)/10^12</f>
+        <v>2.914039123732604</v>
+      </c>
+      <c r="K325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(H325/1000)/10^12</f>
+        <v>1.2975961998923649</v>
+      </c>
+      <c r="L325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(I325/1000)/10^12</f>
+        <v>9.8191329285243985</v>
+      </c>
+      <c r="M325" s="14">
+        <f t="shared" si="33"/>
+        <v>1468.473</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" s="12"/>
+      <c r="B326" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C326" s="12">
         <v>2048</v>
       </c>
-      <c r="D285" s="3">
+      <c r="D326" s="12">
         <v>32</v>
       </c>
-      <c r="E285" s="3">
-        <v>50</v>
-      </c>
-      <c r="G285" s="6">
-        <v>10.326000000000001</v>
-      </c>
-      <c r="H285" s="6">
-        <v>9.5289999999999999</v>
-      </c>
-      <c r="I285" s="6">
-        <f t="shared" si="29"/>
-        <v>1.3001210149138098</v>
-      </c>
-      <c r="J285" s="6">
-        <f t="shared" si="30"/>
-        <v>1.4088623780039879</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12">
-      <c r="C286" s="3">
+      <c r="E326" s="12">
+        <v>750</v>
+      </c>
+      <c r="F326" s="12"/>
+      <c r="G326" s="13">
+        <v>213.523</v>
+      </c>
+      <c r="H326" s="13">
+        <v>466.70299999999997</v>
+      </c>
+      <c r="I326" s="13">
+        <v>62.045999999999999</v>
+      </c>
+      <c r="J326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(G326/1000)/10^12</f>
+        <v>2.828640361928223</v>
+      </c>
+      <c r="K326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(H326/1000)/10^12</f>
+        <v>1.2941416189739514</v>
+      </c>
+      <c r="L326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(I326/1000)/10^12</f>
+        <v>9.7343870031911823</v>
+      </c>
+      <c r="M326" s="14">
+        <f t="shared" si="33"/>
+        <v>742.27200000000005</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A327" s="12"/>
+      <c r="B327" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C327" s="12">
         <v>2048</v>
       </c>
-      <c r="D286" s="3">
+      <c r="D327" s="12">
+        <v>32</v>
+      </c>
+      <c r="E327" s="12">
+        <v>375</v>
+      </c>
+      <c r="F327" s="12"/>
+      <c r="G327" s="13">
+        <v>107.348</v>
+      </c>
+      <c r="H327" s="13">
+        <v>235.00700000000001</v>
+      </c>
+      <c r="I327" s="13">
+        <v>30.658999999999999</v>
+      </c>
+      <c r="J327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(G327/1000)/10^12</f>
+        <v>2.8131859745873236</v>
+      </c>
+      <c r="K327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(H327/1000)/10^12</f>
+        <v>1.2850250758488044</v>
+      </c>
+      <c r="L327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(I327/1000)/10^12</f>
+        <v>9.8499588375354712</v>
+      </c>
+      <c r="M327" s="14">
+        <f t="shared" si="33"/>
+        <v>373.01400000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A328" s="12"/>
+      <c r="B328" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C328" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D328" s="12">
+        <v>32</v>
+      </c>
+      <c r="E328" s="12">
+        <v>187</v>
+      </c>
+      <c r="F328" s="12"/>
+      <c r="G328" s="13">
+        <v>54.194000000000003</v>
+      </c>
+      <c r="H328" s="13">
+        <v>117.669</v>
+      </c>
+      <c r="I328" s="13">
+        <v>15.507999999999999</v>
+      </c>
+      <c r="J328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(G328/1000)/10^12</f>
+        <v>2.7787631622688855</v>
+      </c>
+      <c r="K328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(H328/1000)/10^12</f>
+        <v>1.2797957900211612</v>
+      </c>
+      <c r="L328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(I328/1000)/10^12</f>
+        <v>9.7106197327830799</v>
+      </c>
+      <c r="M328" s="14">
+        <f t="shared" si="33"/>
+        <v>187.37100000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A329" s="12"/>
+      <c r="B329" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C329" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D329" s="12">
+        <v>32</v>
+      </c>
+      <c r="E329" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F329" s="12"/>
+      <c r="G329" s="13">
+        <v>306.39100000000002</v>
+      </c>
+      <c r="H329" s="13">
+        <v>697.63699999999994</v>
+      </c>
+      <c r="I329" s="13">
+        <v>69.911000000000001</v>
+      </c>
+      <c r="J329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(G329/1000)/10^12</f>
+        <v>2.2176801799008459</v>
+      </c>
+      <c r="K329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(H329/1000)/10^12</f>
+        <v>0.97396962603760984</v>
+      </c>
+      <c r="L329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(I329/1000)/10^12</f>
+        <v>9.7191750654403464</v>
+      </c>
+      <c r="M329" s="14">
+        <f t="shared" si="33"/>
+        <v>1073.9390000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A330" s="12"/>
+      <c r="B330" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C330" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D330" s="12">
+        <v>32</v>
+      </c>
+      <c r="E330" s="12">
+        <v>750</v>
+      </c>
+      <c r="F330" s="12"/>
+      <c r="G330" s="13">
+        <v>153.58500000000001</v>
+      </c>
+      <c r="H330" s="13">
+        <v>350.31900000000002</v>
+      </c>
+      <c r="I330" s="13">
+        <v>34.927</v>
+      </c>
+      <c r="J330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(G330/1000)/10^12</f>
+        <v>2.21205602109581</v>
+      </c>
+      <c r="K330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(H330/1000)/10^12</f>
+        <v>0.96979788135956091</v>
+      </c>
+      <c r="L330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(I330/1000)/10^12</f>
+        <v>9.727105792080625</v>
+      </c>
+      <c r="M330" s="14">
+        <f t="shared" si="33"/>
+        <v>538.83100000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" s="12"/>
+      <c r="B331" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C331" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D331" s="12">
+        <v>32</v>
+      </c>
+      <c r="E331" s="12">
+        <v>375</v>
+      </c>
+      <c r="F331" s="12"/>
+      <c r="G331" s="13">
+        <v>78.268000000000001</v>
+      </c>
+      <c r="H331" s="13">
+        <v>176.416</v>
+      </c>
+      <c r="I331" s="13">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="J331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(G331/1000)/10^12</f>
+        <v>2.1703545765830223</v>
+      </c>
+      <c r="K331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(H331/1000)/10^12</f>
+        <v>0.96289062216579002</v>
+      </c>
+      <c r="L331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(I331/1000)/10^12</f>
+        <v>9.7710274374460742</v>
+      </c>
+      <c r="M331" s="14">
+        <f t="shared" si="33"/>
+        <v>272.06900000000002</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A332" s="12"/>
+      <c r="B332" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C332" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D332" s="12">
+        <v>32</v>
+      </c>
+      <c r="E332" s="12">
+        <v>187</v>
+      </c>
+      <c r="F332" s="12"/>
+      <c r="G332" s="13">
+        <v>40.195</v>
+      </c>
+      <c r="H332" s="13">
+        <v>89.191999999999993</v>
+      </c>
+      <c r="I332" s="13">
+        <v>8.6679999999999993</v>
+      </c>
+      <c r="J332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(G332/1000)/10^12</f>
+        <v>2.1074303665630052</v>
+      </c>
+      <c r="K332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(H332/1000)/10^12</f>
+        <v>0.94972826692976953</v>
+      </c>
+      <c r="L332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(I332/1000)/10^12</f>
+        <v>9.7725154111675145</v>
+      </c>
+      <c r="M332" s="14">
+        <f t="shared" si="33"/>
+        <v>138.05500000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A333" s="12"/>
+      <c r="B333" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C333" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D333" s="12">
+        <v>32</v>
+      </c>
+      <c r="E333" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F333" s="12"/>
+      <c r="G333" s="13">
+        <v>569.86300000000006</v>
+      </c>
+      <c r="H333" s="13">
+        <v>1176.4770000000001</v>
+      </c>
+      <c r="I333" s="13">
+        <v>198.786</v>
+      </c>
+      <c r="J333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(G333/1000)/10^12</f>
+        <v>3.312088695002132</v>
+      </c>
+      <c r="K333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(H333/1000)/10^12</f>
+        <v>1.6043125364966759</v>
+      </c>
+      <c r="L333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(I333/1000)/10^12</f>
+        <v>9.4948175424828705</v>
+      </c>
+      <c r="M333" s="14">
+        <f t="shared" si="33"/>
+        <v>1945.1260000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A334" s="12"/>
+      <c r="B334" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C334" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D334" s="12">
+        <v>32</v>
+      </c>
+      <c r="E334" s="12">
+        <v>750</v>
+      </c>
+      <c r="F334" s="12"/>
+      <c r="G334" s="13">
+        <v>293.113</v>
+      </c>
+      <c r="H334" s="13">
+        <v>591.298</v>
+      </c>
+      <c r="I334" s="13">
+        <v>97.058000000000007</v>
+      </c>
+      <c r="J334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(G334/1000)/10^12</f>
+        <v>3.2196402070191357</v>
+      </c>
+      <c r="K334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(H334/1000)/10^12</f>
+        <v>1.5960114865939001</v>
+      </c>
+      <c r="L334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(I334/1000)/10^12</f>
+        <v>9.7232417729604972</v>
+      </c>
+      <c r="M334" s="14">
+        <f t="shared" si="33"/>
+        <v>981.46900000000005</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A335" s="12"/>
+      <c r="B335" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C335" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D335" s="12">
+        <v>32</v>
+      </c>
+      <c r="E335" s="12">
+        <v>375</v>
+      </c>
+      <c r="F335" s="12"/>
+      <c r="G335" s="13">
+        <v>149.02199999999999</v>
+      </c>
+      <c r="H335" s="13">
+        <v>297.142</v>
+      </c>
+      <c r="I335" s="13">
+        <v>49.683999999999997</v>
+      </c>
+      <c r="J335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(G335/1000)/10^12</f>
+        <v>3.1663727503321661</v>
+      </c>
+      <c r="K335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(H335/1000)/10^12</f>
+        <v>1.5879922730546339</v>
+      </c>
+      <c r="L335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(I335/1000)/10^12</f>
+        <v>9.4972063440946783</v>
+      </c>
+      <c r="M335" s="14">
+        <f t="shared" si="33"/>
+        <v>495.84799999999996</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A336" s="12"/>
+      <c r="B336" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C336" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D336" s="12">
+        <v>32</v>
+      </c>
+      <c r="E336" s="12">
+        <v>187</v>
+      </c>
+      <c r="F336" s="12"/>
+      <c r="G336" s="13">
+        <v>73.081999999999994</v>
+      </c>
+      <c r="H336" s="13">
+        <v>149.05199999999999</v>
+      </c>
+      <c r="I336" s="13">
+        <v>23.983000000000001</v>
+      </c>
+      <c r="J336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(G336/1000)/10^12</f>
+        <v>3.2196772721053066</v>
+      </c>
+      <c r="K336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(H336/1000)/10^12</f>
+        <v>1.5786467434184046</v>
+      </c>
+      <c r="L336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(I336/1000)/10^12</f>
+        <v>9.8111351540674647</v>
+      </c>
+      <c r="M336" s="14">
+        <f t="shared" si="33"/>
+        <v>246.11699999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A337" s="12"/>
+      <c r="B337" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C337" s="12">
+        <v>512</v>
+      </c>
+      <c r="D337" s="12">
+        <v>32</v>
+      </c>
+      <c r="E337" s="12">
+        <v>1</v>
+      </c>
+      <c r="F337" s="12"/>
+      <c r="G337" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H337" s="13">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I337" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(G337/1000)/10^12</f>
+        <v>0.35951177142857144</v>
+      </c>
+      <c r="K337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(H337/1000)/10^12</f>
+        <v>0.25811101538461539</v>
+      </c>
+      <c r="L337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(I337/1000)/10^12</f>
+        <v>1.4380470857142857</v>
+      </c>
+      <c r="M337" s="14">
+        <f t="shared" si="33"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A338" s="12"/>
+      <c r="B338" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C338" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D338" s="12">
+        <v>32</v>
+      </c>
+      <c r="E338" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F338" s="12"/>
+      <c r="G338" s="13">
+        <v>186.691</v>
+      </c>
+      <c r="H338" s="13">
+        <v>472.87</v>
+      </c>
+      <c r="I338" s="13">
+        <v>32.396999999999998</v>
+      </c>
+      <c r="J338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(G338/1000)/10^12</f>
+        <v>1.6175921067432282</v>
+      </c>
+      <c r="K338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(H338/1000)/10^12</f>
+        <v>0.63863194535496004</v>
+      </c>
+      <c r="L338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(I338/1000)/10^12</f>
+        <v>9.3215386609871285</v>
+      </c>
+      <c r="M338" s="14">
+        <f t="shared" si="33"/>
+        <v>691.95800000000008</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A339" s="12"/>
+      <c r="B339" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C339" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D339" s="12">
         <v>64</v>
       </c>
-      <c r="E286" s="3">
-        <v>50</v>
-      </c>
-      <c r="G286" s="6">
-        <v>8.7140000000000004</v>
-      </c>
-      <c r="H286" s="6">
-        <v>8.4580000000000002</v>
-      </c>
-      <c r="I286" s="6">
-        <f t="shared" si="29"/>
-        <v>3.0812599495065407</v>
-      </c>
-      <c r="J286" s="6">
-        <f t="shared" si="30"/>
-        <v>3.1745210688105931</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12">
-      <c r="C287" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D287" s="3">
-        <v>128</v>
-      </c>
-      <c r="E287" s="3">
-        <v>50</v>
-      </c>
-      <c r="G287" s="6">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="H287" s="6">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="I287" s="6">
-        <f t="shared" si="29"/>
-        <v>5.410599335012594</v>
-      </c>
-      <c r="J287" s="6">
-        <f t="shared" si="30"/>
-        <v>5.986644191750278</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12">
-      <c r="C288" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D288" s="3">
-        <v>16</v>
-      </c>
-      <c r="E288" s="3">
-        <v>50</v>
-      </c>
-      <c r="G288" s="6">
-        <v>13.773</v>
-      </c>
-      <c r="H288" s="6">
-        <v>13.274000000000001</v>
-      </c>
-      <c r="I288" s="6">
-        <f t="shared" si="29"/>
-        <v>0.76147593116967982</v>
-      </c>
-      <c r="J288" s="6">
-        <f t="shared" si="30"/>
-        <v>0.79010155190598153</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10">
-      <c r="C289" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D289" s="3">
-        <v>32</v>
-      </c>
-      <c r="E289" s="3">
-        <v>50</v>
-      </c>
-      <c r="G289" s="6">
-        <v>15.165000000000001</v>
-      </c>
-      <c r="H289" s="6">
-        <v>14.796000000000001</v>
-      </c>
-      <c r="I289" s="6">
-        <f t="shared" si="29"/>
-        <v>1.3831596439169138</v>
-      </c>
-      <c r="J289" s="6">
-        <f t="shared" si="30"/>
-        <v>1.4176545012165449</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10">
-      <c r="C290" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D290" s="3">
-        <v>64</v>
-      </c>
-      <c r="E290" s="3">
-        <v>50</v>
-      </c>
-      <c r="G290" s="6">
-        <v>16.099</v>
-      </c>
-      <c r="H290" s="6">
-        <v>15.387</v>
-      </c>
-      <c r="I290" s="6">
-        <f t="shared" si="29"/>
-        <v>2.6058284365488542</v>
-      </c>
-      <c r="J290" s="6">
-        <f t="shared" si="30"/>
-        <v>2.7264074868395398</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10">
-      <c r="C291" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D291" s="3">
-        <v>128</v>
-      </c>
-      <c r="E291" s="3">
-        <v>50</v>
-      </c>
-      <c r="G291" s="6"/>
-      <c r="H291" s="6"/>
-      <c r="I291" s="6" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J291" s="6" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10">
-      <c r="A295" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G295" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H295" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I295" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J295" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
-      <c r="C296" s="3">
-        <v>512</v>
-      </c>
-      <c r="D296" s="3">
-        <v>16</v>
-      </c>
-      <c r="E296" s="3">
-        <v>25</v>
-      </c>
-      <c r="G296" s="6">
-        <v>1.145</v>
-      </c>
-      <c r="H296" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="I296" s="6">
-        <f t="shared" ref="I296:I317" si="31">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
-        <v>0.73262951965065504</v>
-      </c>
-      <c r="J296" s="6">
-        <f t="shared" ref="J296:J311" si="32">(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
-        <v>0.67108864000000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10">
-      <c r="C297" s="3">
-        <v>512</v>
-      </c>
-      <c r="D297" s="3">
-        <v>32</v>
-      </c>
-      <c r="E297" s="3">
-        <v>25</v>
-      </c>
-      <c r="G297" s="6">
-        <v>2.0920000000000001</v>
-      </c>
-      <c r="H297" s="6">
-        <v>5.3580000000000005</v>
-      </c>
-      <c r="I297" s="6">
-        <f t="shared" si="31"/>
-        <v>0.80197017208413002</v>
-      </c>
-      <c r="J297" s="6">
-        <f t="shared" si="32"/>
-        <v>0.31312459873086967</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10">
-      <c r="C298" s="3">
-        <v>512</v>
-      </c>
-      <c r="D298" s="3">
-        <v>64</v>
-      </c>
-      <c r="E298" s="3">
-        <v>25</v>
-      </c>
-      <c r="G298" s="6">
-        <v>2.0340000000000003</v>
-      </c>
-      <c r="H298" s="6">
-        <v>1.974</v>
-      </c>
-      <c r="I298" s="6">
-        <f t="shared" si="31"/>
-        <v>1.649677089478859</v>
-      </c>
-      <c r="J298" s="6">
-        <f t="shared" si="32"/>
-        <v>1.6998192502532927</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10">
-      <c r="C299" s="3">
-        <v>512</v>
-      </c>
-      <c r="D299" s="3">
-        <v>128</v>
-      </c>
-      <c r="E299" s="3">
-        <v>25</v>
-      </c>
-      <c r="G299" s="6">
-        <v>2.2890000000000001</v>
-      </c>
-      <c r="H299" s="6">
-        <v>2.3370000000000002</v>
-      </c>
-      <c r="I299" s="6">
-        <f t="shared" si="31"/>
-        <v>2.9317983398864129</v>
-      </c>
-      <c r="J299" s="6">
-        <f t="shared" si="32"/>
-        <v>2.8715816859221222</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10">
-      <c r="C300" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D300" s="3">
-        <v>16</v>
-      </c>
-      <c r="E300" s="3">
-        <v>25</v>
-      </c>
-      <c r="G300" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="H300" s="6">
-        <v>2.327</v>
-      </c>
-      <c r="I300" s="6">
-        <f t="shared" si="31"/>
-        <v>0.84519979848866489</v>
-      </c>
-      <c r="J300" s="6">
-        <f t="shared" si="32"/>
-        <v>1.4419609798023205</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10">
-      <c r="C301" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D301" s="3">
-        <v>32</v>
-      </c>
-      <c r="E301" s="3">
-        <v>25</v>
-      </c>
-      <c r="G301" s="6">
-        <v>3.794</v>
-      </c>
-      <c r="H301" s="6">
-        <v>10.019</v>
-      </c>
-      <c r="I301" s="6">
-        <f t="shared" si="31"/>
-        <v>1.7688156035846072</v>
-      </c>
-      <c r="J301" s="6">
-        <f t="shared" si="32"/>
-        <v>0.66981598961972255</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10">
-      <c r="C302" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D302" s="3">
-        <v>64</v>
-      </c>
-      <c r="E302" s="3">
-        <v>25</v>
-      </c>
-      <c r="G302" s="6">
-        <v>4.1159999999999997</v>
-      </c>
-      <c r="H302" s="6">
-        <v>3.2229999999999999</v>
-      </c>
-      <c r="I302" s="6">
-        <f t="shared" si="31"/>
-        <v>3.2608777453838682</v>
-      </c>
-      <c r="J302" s="6">
-        <f t="shared" si="32"/>
-        <v>4.1643725721377605</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10">
-      <c r="C303" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D303" s="3">
-        <v>128</v>
-      </c>
-      <c r="E303" s="3">
-        <v>25</v>
-      </c>
-      <c r="G303" s="6">
-        <v>5.5149999999999997</v>
-      </c>
-      <c r="H303" s="6">
-        <v>4.5670000000000002</v>
-      </c>
-      <c r="I303" s="6">
-        <f t="shared" si="31"/>
-        <v>4.8673700090661836</v>
-      </c>
-      <c r="J303" s="6">
-        <f t="shared" si="32"/>
-        <v>5.8777196409021242</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10">
-      <c r="C304" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D304" s="3">
-        <v>16</v>
-      </c>
-      <c r="E304" s="3">
-        <v>25</v>
-      </c>
-      <c r="G304" s="6">
-        <v>19.835000000000001</v>
-      </c>
-      <c r="H304" s="6">
-        <v>9.4550000000000001</v>
-      </c>
-      <c r="I304" s="6">
-        <f t="shared" si="31"/>
-        <v>0.67667117721199888</v>
-      </c>
-      <c r="J304" s="6">
-        <f t="shared" si="32"/>
-        <v>1.4195423373876257</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10">
-      <c r="C305" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D305" s="3">
-        <v>32</v>
-      </c>
-      <c r="E305" s="3">
-        <v>25</v>
-      </c>
-      <c r="G305" s="6">
-        <v>7.7919999999999998</v>
-      </c>
-      <c r="H305" s="6">
-        <v>19.672000000000001</v>
-      </c>
-      <c r="I305" s="6">
-        <f t="shared" si="31"/>
-        <v>3.4450135523613965</v>
-      </c>
-      <c r="J305" s="6">
-        <f t="shared" si="32"/>
-        <v>1.3645559983733222</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10">
-      <c r="C306" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D306" s="3">
-        <v>64</v>
-      </c>
-      <c r="E306" s="3">
-        <v>25</v>
-      </c>
-      <c r="G306" s="6">
-        <v>10.920999999999999</v>
-      </c>
-      <c r="H306" s="6">
-        <v>20.437000000000001</v>
-      </c>
-      <c r="I306" s="6">
-        <f t="shared" si="31"/>
-        <v>4.9159501144583828</v>
-      </c>
-      <c r="J306" s="6">
-        <f t="shared" si="32"/>
-        <v>2.6269555805646623</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10">
-      <c r="C307" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D307" s="3">
-        <v>128</v>
-      </c>
-      <c r="E307" s="3">
-        <v>25</v>
-      </c>
-      <c r="G307" s="6">
-        <v>16.359000000000002</v>
-      </c>
-      <c r="H307" s="6">
-        <v>13.493</v>
-      </c>
-      <c r="I307" s="6">
-        <f t="shared" si="31"/>
-        <v>6.5636152821077074</v>
-      </c>
-      <c r="J307" s="6">
-        <f t="shared" si="32"/>
-        <v>7.9577693915363525</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10">
-      <c r="C308" s="3">
-        <v>4096</v>
-      </c>
-      <c r="D308" s="3">
-        <v>16</v>
-      </c>
-      <c r="E308" s="3">
-        <v>25</v>
-      </c>
-      <c r="G308" s="6">
-        <v>78.417000000000002</v>
-      </c>
-      <c r="H308" s="6">
-        <v>59.664999999999999</v>
-      </c>
-      <c r="I308" s="6">
-        <f t="shared" si="31"/>
-        <v>0.68463587232360323</v>
-      </c>
-      <c r="J308" s="6">
-        <f t="shared" si="32"/>
-        <v>0.89980878572027156</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10">
-      <c r="C309" s="3">
-        <v>4096</v>
-      </c>
-      <c r="D309" s="3">
-        <v>32</v>
-      </c>
-      <c r="E309" s="3">
-        <v>25</v>
-      </c>
-      <c r="G309" s="6">
-        <v>23.304000000000002</v>
-      </c>
-      <c r="H309" s="6">
-        <v>46.795000000000002</v>
-      </c>
-      <c r="I309" s="6">
-        <f t="shared" si="31"/>
-        <v>4.607543014074837</v>
-      </c>
-      <c r="J309" s="6">
-        <f t="shared" si="32"/>
-        <v>2.2945652826156642</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10">
-      <c r="C310" s="3">
-        <v>4096</v>
-      </c>
-      <c r="D310" s="3">
-        <v>64</v>
-      </c>
-      <c r="E310" s="3">
-        <v>25</v>
-      </c>
-      <c r="G310" s="6">
-        <v>46.911000000000001</v>
-      </c>
-      <c r="H310" s="6">
-        <v>51.667000000000002</v>
-      </c>
-      <c r="I310" s="6">
-        <f t="shared" si="31"/>
-        <v>4.5777827119438932</v>
-      </c>
-      <c r="J310" s="6">
-        <f t="shared" si="32"/>
-        <v>4.1563931484313006</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10">
-      <c r="C311" s="3">
-        <v>4096</v>
-      </c>
-      <c r="D311" s="3">
-        <v>128</v>
-      </c>
-      <c r="E311" s="3">
-        <v>25</v>
-      </c>
-      <c r="G311" s="6">
-        <v>51.554000000000002</v>
-      </c>
-      <c r="H311" s="6">
-        <v>66.286000000000001</v>
-      </c>
-      <c r="I311" s="6">
-        <f t="shared" si="31"/>
-        <v>8.3310068976219096</v>
-      </c>
-      <c r="J311" s="6">
-        <f t="shared" si="32"/>
-        <v>6.4794485954801928</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10">
-      <c r="C312" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D312" s="3">
-        <v>8</v>
-      </c>
-      <c r="E312" s="3">
-        <v>50</v>
-      </c>
-      <c r="G312" s="6">
-        <v>11.536</v>
-      </c>
-      <c r="H312" s="6">
-        <v>7.0200000000000005</v>
-      </c>
-      <c r="I312" s="6">
-        <f t="shared" si="31"/>
-        <v>0.65445104022191403</v>
-      </c>
-      <c r="J312" s="6">
-        <f t="shared" ref="J312:J317" si="33">(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
-        <v>1.0754625641025641</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10">
-      <c r="C313" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D313" s="3">
-        <v>16</v>
-      </c>
-      <c r="E313" s="3">
-        <v>50</v>
-      </c>
-      <c r="G313" s="6">
-        <v>21.530999999999999</v>
-      </c>
-      <c r="H313" s="6">
-        <v>10.899000000000001</v>
-      </c>
-      <c r="I313" s="6">
-        <f t="shared" si="31"/>
-        <v>0.7012909014908737</v>
-      </c>
-      <c r="J313" s="6">
+      <c r="E339" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F339" s="12"/>
+      <c r="G339" s="13">
+        <v>218.541</v>
+      </c>
+      <c r="H339" s="13">
+        <v>179.88</v>
+      </c>
+      <c r="I339" s="13">
+        <v>67.573999999999998</v>
+      </c>
+      <c r="J339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(G339/1000)/10^12</f>
+        <v>2.7636909138331025</v>
+      </c>
+      <c r="K339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(H339/1000)/10^12</f>
+        <v>3.3576816544362909</v>
+      </c>
+      <c r="L339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(I339/1000)/10^12</f>
+        <v>8.9380497824607108</v>
+      </c>
+      <c r="M339" s="14">
         <f t="shared" si="33"/>
-        <v>1.3854018166804292</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10">
-      <c r="C314" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D314" s="3">
-        <v>32</v>
-      </c>
-      <c r="E314" s="3">
-        <v>50</v>
-      </c>
-      <c r="G314" s="6">
-        <v>11.122</v>
-      </c>
-      <c r="H314" s="6">
-        <v>30.053000000000001</v>
-      </c>
-      <c r="I314" s="6">
-        <f t="shared" si="31"/>
-        <v>2.7152480489120663</v>
-      </c>
-      <c r="J314" s="6">
-        <f t="shared" si="33"/>
-        <v>1.0048577113765682</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10">
-      <c r="C315" s="3">
-        <v>256</v>
-      </c>
-      <c r="D315" s="3">
-        <v>16</v>
-      </c>
-      <c r="E315" s="3">
-        <v>150</v>
-      </c>
-      <c r="G315" s="6">
-        <v>3.2330000000000001</v>
-      </c>
-      <c r="H315" s="6">
-        <v>3.6760000000000002</v>
-      </c>
-      <c r="I315" s="6">
-        <f t="shared" si="31"/>
-        <v>0.38920235075781007</v>
-      </c>
-      <c r="J315" s="6">
-        <f t="shared" si="33"/>
-        <v>0.34229902067464635</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10">
-      <c r="C316" s="3">
-        <v>256</v>
-      </c>
-      <c r="D316" s="3">
-        <v>32</v>
-      </c>
-      <c r="E316" s="3">
-        <v>150</v>
-      </c>
-      <c r="G316" s="6">
-        <v>5.7969999999999997</v>
-      </c>
-      <c r="H316" s="6">
-        <v>13.265000000000001</v>
-      </c>
-      <c r="I316" s="6">
-        <f t="shared" si="31"/>
-        <v>0.43411806106606865</v>
-      </c>
-      <c r="J316" s="6">
-        <f t="shared" si="33"/>
-        <v>0.18971597436863924</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10">
-      <c r="C317" s="3">
-        <v>256</v>
-      </c>
-      <c r="D317" s="3">
-        <v>64</v>
-      </c>
-      <c r="E317" s="3">
-        <v>150</v>
-      </c>
-      <c r="G317" s="6">
-        <v>6.0680000000000005</v>
-      </c>
-      <c r="H317" s="6">
-        <v>8.5120000000000005</v>
-      </c>
-      <c r="I317" s="6">
-        <f t="shared" si="31"/>
-        <v>0.82946025049439676</v>
-      </c>
-      <c r="J317" s="6">
-        <f t="shared" si="33"/>
-        <v>0.59130225563909766</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10">
-      <c r="G318" s="6"/>
-      <c r="H318" s="6"/>
-    </row>
-    <row r="319" spans="1:10">
-      <c r="G319" s="6"/>
-      <c r="H319" s="6"/>
-    </row>
-    <row r="320" spans="1:10">
-      <c r="A320" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G320" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H320" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I320" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J320" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10">
-      <c r="C321" s="3">
-        <v>2816</v>
-      </c>
-      <c r="D321" s="3">
-        <v>32</v>
-      </c>
-      <c r="E321" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G321" s="6">
-        <v>589.58799999999997</v>
-      </c>
-      <c r="H321" s="6">
-        <v>1251.181</v>
-      </c>
-      <c r="I321" s="6">
-        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
-        <v>3.8735498822906846</v>
-      </c>
-      <c r="J321" s="6">
-        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
-        <v>1.8253142654819725</v>
-      </c>
-    </row>
-    <row r="322" spans="3:10">
-      <c r="C322" s="3">
-        <v>2816</v>
-      </c>
-      <c r="D322" s="3">
-        <v>32</v>
-      </c>
-      <c r="E322" s="3">
-        <v>750</v>
-      </c>
-      <c r="G322" s="6">
-        <v>295.77600000000001</v>
-      </c>
-      <c r="H322" s="6">
-        <v>627.24300000000005</v>
-      </c>
-      <c r="I322" s="6">
-        <f t="shared" ref="I322:I339" si="34">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
-        <v>3.8606893865628047</v>
-      </c>
-      <c r="J322" s="6">
-        <f t="shared" ref="J322:J339" si="35">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
-        <v>1.8205053926468686</v>
-      </c>
-    </row>
-    <row r="323" spans="3:10">
-      <c r="C323" s="3">
-        <v>2816</v>
-      </c>
-      <c r="D323" s="3">
-        <v>32</v>
-      </c>
-      <c r="E323" s="3">
-        <v>375</v>
-      </c>
-      <c r="G323" s="6">
-        <v>149.04400000000001</v>
-      </c>
-      <c r="H323" s="6">
-        <v>313.93400000000003</v>
-      </c>
-      <c r="I323" s="6">
-        <f t="shared" si="34"/>
-        <v>3.8307454979737523</v>
-      </c>
-      <c r="J323" s="6">
-        <f t="shared" si="35"/>
-        <v>1.8186932030299361</v>
-      </c>
-    </row>
-    <row r="324" spans="3:10">
-      <c r="C324" s="3">
-        <v>2816</v>
-      </c>
-      <c r="D324" s="3">
-        <v>32</v>
-      </c>
-      <c r="E324" s="3">
-        <v>187</v>
-      </c>
-      <c r="G324" s="6">
-        <v>75.144999999999996</v>
-      </c>
-      <c r="H324" s="6">
-        <v>156.92400000000001</v>
-      </c>
-      <c r="I324" s="6">
-        <f t="shared" si="34"/>
-        <v>3.7888555436023692</v>
-      </c>
-      <c r="J324" s="6">
-        <f t="shared" si="35"/>
-        <v>1.8143403802095281</v>
-      </c>
-    </row>
-    <row r="325" spans="3:10">
-      <c r="C325" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D325" s="3">
-        <v>32</v>
-      </c>
-      <c r="E325" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G325" s="6">
-        <v>394.09399999999999</v>
-      </c>
-      <c r="H325" s="6">
-        <v>891.29200000000003</v>
-      </c>
-      <c r="I325" s="6">
-        <f t="shared" si="34"/>
-        <v>3.0651559069663583</v>
-      </c>
-      <c r="J325" s="6">
-        <f t="shared" si="35"/>
-        <v>1.3552904682191695</v>
-      </c>
-    </row>
-    <row r="326" spans="3:10">
-      <c r="C326" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D326" s="3">
-        <v>32</v>
-      </c>
-      <c r="E326" s="3">
-        <v>750</v>
-      </c>
-      <c r="G326" s="6">
-        <v>197.18700000000001</v>
-      </c>
-      <c r="H326" s="6">
-        <v>446.37200000000001</v>
-      </c>
-      <c r="I326" s="6">
-        <f t="shared" si="34"/>
-        <v>3.0629796893304326</v>
-      </c>
-      <c r="J326" s="6">
-        <f t="shared" si="35"/>
-        <v>1.3530861613183622</v>
-      </c>
-    </row>
-    <row r="327" spans="3:10">
-      <c r="C327" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D327" s="3">
-        <v>32</v>
-      </c>
-      <c r="E327" s="3">
-        <v>375</v>
-      </c>
-      <c r="G327" s="6">
-        <v>99.631</v>
-      </c>
-      <c r="H327" s="6">
-        <v>224.017</v>
-      </c>
-      <c r="I327" s="6">
-        <f t="shared" si="34"/>
-        <v>3.0310835784043122</v>
-      </c>
-      <c r="J327" s="6">
-        <f t="shared" si="35"/>
-        <v>1.348066834213475</v>
-      </c>
-    </row>
-    <row r="328" spans="3:10">
-      <c r="C328" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D328" s="3">
-        <v>32</v>
-      </c>
-      <c r="E328" s="3">
-        <v>187</v>
-      </c>
-      <c r="G328" s="6">
-        <v>50.542999999999999</v>
-      </c>
-      <c r="H328" s="6">
-        <v>112.432</v>
-      </c>
-      <c r="I328" s="6">
-        <f t="shared" si="34"/>
-        <v>2.9794885704449676</v>
-      </c>
-      <c r="J328" s="6">
-        <f t="shared" si="35"/>
-        <v>1.3394077381528391</v>
-      </c>
-    </row>
-    <row r="329" spans="3:10">
-      <c r="C329" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D329" s="3">
-        <v>32</v>
-      </c>
-      <c r="E329" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G329" s="6">
-        <v>290.65500000000003</v>
-      </c>
-      <c r="H329" s="6">
-        <v>666.30600000000004</v>
-      </c>
-      <c r="I329" s="6">
-        <f t="shared" si="34"/>
-        <v>2.3377449140733857</v>
-      </c>
-      <c r="J329" s="6">
-        <f t="shared" si="35"/>
-        <v>1.019767566253343</v>
-      </c>
-    </row>
-    <row r="330" spans="3:10">
-      <c r="C330" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D330" s="3">
-        <v>32</v>
-      </c>
-      <c r="E330" s="3">
-        <v>750</v>
-      </c>
-      <c r="G330" s="6">
-        <v>146.423</v>
-      </c>
-      <c r="H330" s="6">
-        <v>333.14499999999998</v>
-      </c>
-      <c r="I330" s="6">
-        <f t="shared" si="34"/>
-        <v>2.3202544955369033</v>
-      </c>
-      <c r="J330" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0197920545107988</v>
-      </c>
-    </row>
-    <row r="331" spans="3:10">
-      <c r="C331" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D331" s="3">
-        <v>32</v>
-      </c>
-      <c r="E331" s="3">
-        <v>375</v>
-      </c>
-      <c r="G331" s="6">
-        <v>74.301000000000002</v>
-      </c>
-      <c r="H331" s="6">
-        <v>167.464</v>
-      </c>
-      <c r="I331" s="6">
-        <f t="shared" si="34"/>
-        <v>2.2862318407558444</v>
-      </c>
-      <c r="J331" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0143631586490232</v>
-      </c>
-    </row>
-    <row r="332" spans="3:10">
-      <c r="C332" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D332" s="3">
-        <v>32</v>
-      </c>
-      <c r="E332" s="3">
-        <v>187</v>
-      </c>
-      <c r="G332" s="6">
-        <v>38.088999999999999</v>
-      </c>
-      <c r="H332" s="6">
-        <v>84.375</v>
-      </c>
-      <c r="I332" s="6">
-        <f t="shared" si="34"/>
-        <v>2.223953466460133</v>
-      </c>
-      <c r="J332" s="6">
-        <f t="shared" si="35"/>
-        <v>1.00394860544</v>
-      </c>
-    </row>
-    <row r="333" spans="3:10">
-      <c r="C333" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D333" s="7">
-        <v>32</v>
-      </c>
-      <c r="E333" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G333" s="6">
-        <v>523.02300000000002</v>
-      </c>
-      <c r="H333" s="6">
-        <v>1131.348</v>
-      </c>
-      <c r="I333" s="6">
-        <f t="shared" si="34"/>
-        <v>3.6087070740674885</v>
-      </c>
-      <c r="J333" s="6">
-        <f t="shared" si="35"/>
-        <v>1.668307894653104</v>
-      </c>
-    </row>
-    <row r="334" spans="3:10">
-      <c r="C334" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D334" s="7">
-        <v>32</v>
-      </c>
-      <c r="E334" s="7">
-        <v>750</v>
-      </c>
-      <c r="G334" s="6">
-        <v>262.43400000000003</v>
-      </c>
-      <c r="H334" s="6">
-        <v>567.47</v>
-      </c>
-      <c r="I334" s="6">
-        <f t="shared" si="34"/>
-        <v>3.5960218569240263</v>
-      </c>
-      <c r="J334" s="6">
-        <f t="shared" si="35"/>
-        <v>1.663027825259485</v>
-      </c>
-    </row>
-    <row r="335" spans="3:10">
-      <c r="C335" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D335" s="7">
-        <v>32</v>
-      </c>
-      <c r="E335" s="7">
-        <v>375</v>
-      </c>
-      <c r="G335" s="6">
-        <v>131.99700000000001</v>
-      </c>
-      <c r="H335" s="6">
-        <v>284.09399999999999</v>
-      </c>
-      <c r="I335" s="6">
-        <f t="shared" si="34"/>
-        <v>3.5747721539125887</v>
-      </c>
-      <c r="J335" s="6">
-        <f t="shared" si="35"/>
-        <v>1.6609263131217131</v>
-      </c>
-    </row>
-    <row r="336" spans="3:10">
-      <c r="C336" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D336" s="7">
-        <v>32</v>
-      </c>
-      <c r="E336" s="7">
-        <v>187</v>
-      </c>
-      <c r="G336" s="6">
-        <v>66.528999999999996</v>
-      </c>
-      <c r="H336" s="6">
-        <v>141.95099999999999</v>
-      </c>
-      <c r="I336" s="6">
-        <f t="shared" si="34"/>
-        <v>3.5368103293300668</v>
-      </c>
-      <c r="J336" s="6">
-        <f t="shared" si="35"/>
-        <v>1.6576174482744046</v>
-      </c>
-    </row>
-    <row r="337" spans="3:10">
-      <c r="C337" s="3">
-        <v>512</v>
-      </c>
-      <c r="D337" s="7">
-        <v>32</v>
-      </c>
-      <c r="E337" s="7">
-        <v>1</v>
-      </c>
-      <c r="G337" s="6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H337" s="6">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="I337" s="6">
-        <f t="shared" si="34"/>
-        <v>0.88301136842105266</v>
-      </c>
-      <c r="J337" s="6">
-        <f t="shared" si="35"/>
-        <v>0.29782040236686391</v>
-      </c>
-    </row>
-    <row r="338" spans="3:10">
-      <c r="C338" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D338" s="7">
-        <v>32</v>
-      </c>
-      <c r="E338" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G338" s="6">
-        <v>174.69</v>
-      </c>
-      <c r="H338" s="6">
-        <v>450.51100000000002</v>
-      </c>
-      <c r="I338" s="6">
-        <f t="shared" si="34"/>
-        <v>1.728718804739825</v>
-      </c>
-      <c r="J338" s="6">
-        <f t="shared" si="35"/>
-        <v>0.67032744594471605</v>
-      </c>
-    </row>
-    <row r="339" spans="3:10">
-      <c r="C339" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D339" s="7">
-        <v>64</v>
-      </c>
-      <c r="E339" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G339" s="6">
-        <v>204.48699999999999</v>
-      </c>
-      <c r="H339" s="6">
-        <v>168.5</v>
-      </c>
-      <c r="I339" s="6">
-        <f t="shared" si="34"/>
-        <v>2.9536340989891778</v>
-      </c>
-      <c r="J339" s="6">
-        <f t="shared" si="35"/>
-        <v>3.5844497091988128</v>
+        <v>465.995</v>
       </c>
     </row>
   </sheetData>
@@ -13200,101 +14195,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B7" s="5">
         <v>375.66</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3">
         <v>3502</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
